--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44203</v>
+        <v>44243</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="K2" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L2" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M2" t="n">
-        <v>27000</v>
+        <v>28448</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1080</v>
+        <v>1138</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L3" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M3" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>44214</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K4" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L4" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="M4" t="n">
-        <v>25000</v>
+        <v>35429</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1000</v>
+        <v>1417</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44266</v>
+        <v>44214</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L5" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M5" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="K6" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L6" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M6" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44259</v>
+        <v>44188</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L7" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M7" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44225</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="K8" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L8" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>29000</v>
+        <v>29130</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44249</v>
+        <v>44193</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L9" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>28543</v>
+        <v>29542</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1142</v>
+        <v>1182</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44218</v>
+        <v>44266</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K10" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L10" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M10" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1152,13 +1152,13 @@
         <v>110</v>
       </c>
       <c r="K11" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L11" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M11" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44279</v>
+        <v>44202</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K13" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L13" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M13" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44215</v>
+        <v>44242</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K14" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L14" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M14" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44239</v>
+        <v>44216</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="K15" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L15" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M15" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44221</v>
+        <v>44271</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L16" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="M16" t="n">
-        <v>32806</v>
+        <v>23000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1312</v>
+        <v>920</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44271</v>
+        <v>44189</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K17" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L17" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M17" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44242</v>
+        <v>44231</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K18" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L18" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
         <v>27000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44200</v>
+        <v>44203</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K20" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L20" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M20" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44216</v>
+        <v>44239</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="K21" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L21" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M21" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44243</v>
+        <v>44236</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="K22" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L22" t="n">
         <v>29000</v>
       </c>
       <c r="M22" t="n">
-        <v>28448</v>
+        <v>29000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1138</v>
+        <v>1160</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44222</v>
+        <v>44245</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="K23" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L23" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M23" t="n">
-        <v>32000</v>
+        <v>28532</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1280</v>
+        <v>1141</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44273</v>
+        <v>44195</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="K24" t="n">
         <v>25000</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44225</v>
+        <v>44209</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L25" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M25" t="n">
-        <v>29130</v>
+        <v>27000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1165</v>
+        <v>1080</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="K26" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L26" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M26" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K27" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L27" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M27" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2376,13 +2376,13 @@
         <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L28" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M28" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44238</v>
+        <v>44267</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="K29" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L29" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M29" t="n">
-        <v>28568</v>
+        <v>25000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44224</v>
+        <v>44259</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L30" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M30" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44224</v>
+        <v>44277</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="K31" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L31" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M31" t="n">
-        <v>28909</v>
+        <v>23000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1156</v>
+        <v>920</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44209</v>
+        <v>44224</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="K32" t="n">
         <v>27000</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="K33" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L33" t="n">
         <v>30000</v>
       </c>
       <c r="M33" t="n">
-        <v>30000</v>
+        <v>28909</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1200</v>
+        <v>1156</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44193</v>
+        <v>44217</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K34" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L34" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M34" t="n">
-        <v>29542</v>
+        <v>32000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44278</v>
+        <v>44249</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="K35" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L35" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M35" t="n">
-        <v>23000</v>
+        <v>28543</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>920</v>
+        <v>1142</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44245</v>
+        <v>44235</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="K36" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L36" t="n">
         <v>29000</v>
       </c>
       <c r="M36" t="n">
-        <v>28532</v>
+        <v>29000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1141</v>
+        <v>1160</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44202</v>
+        <v>44218</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K37" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L37" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M37" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L38" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M38" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44277</v>
+        <v>44194</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="K39" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L39" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="M39" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44188</v>
+        <v>44222</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K40" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L40" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M40" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44232</v>
+        <v>44244</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K41" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="L41" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M41" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44217</v>
+        <v>44273</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K42" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L42" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M42" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44244</v>
+        <v>44279</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L43" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M43" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44208</v>
+        <v>44238</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K45" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L45" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M45" t="n">
-        <v>27526</v>
+        <v>28568</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1101</v>
+        <v>1143</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44243</v>
+        <v>44235</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="K2" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L2" t="n">
         <v>29000</v>
       </c>
       <c r="M2" t="n">
-        <v>28448</v>
+        <v>29000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1138</v>
+        <v>1160</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44214</v>
+        <v>44278</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K4" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L4" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="M4" t="n">
-        <v>35429</v>
+        <v>23000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1417</v>
+        <v>920</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44214</v>
+        <v>44259</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L5" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M5" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44194</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="K6" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L6" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M6" t="n">
-        <v>27526</v>
+        <v>22000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1101</v>
+        <v>880</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L7" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M7" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44225</v>
+        <v>44202</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
         <v>28000</v>
       </c>
       <c r="L8" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M8" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44193</v>
+        <v>44236</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K9" t="n">
         <v>29000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M9" t="n">
-        <v>29542</v>
+        <v>29000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1182</v>
+        <v>1160</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44266</v>
+        <v>44222</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K10" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L10" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M10" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44232</v>
+        <v>44242</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K11" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="L11" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M11" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44166</v>
+        <v>44232</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="K12" t="n">
-        <v>1700</v>
+        <v>30000</v>
       </c>
       <c r="L12" t="n">
-        <v>1800</v>
+        <v>30000</v>
       </c>
       <c r="M12" t="n">
-        <v>1756</v>
+        <v>30000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1756</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44202</v>
+        <v>44231</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K13" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L13" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44242</v>
+        <v>44224</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>155</v>
+        <v>380</v>
       </c>
       <c r="K14" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L14" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M14" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44216</v>
+        <v>44224</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="K15" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L15" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M15" t="n">
-        <v>35000</v>
+        <v>28909</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1400</v>
+        <v>1156</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44271</v>
+        <v>44195</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="K16" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L16" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M16" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44231</v>
+        <v>44271</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L18" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M18" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44203</v>
+        <v>44238</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="K19" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L19" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M19" t="n">
-        <v>27000</v>
+        <v>28568</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44203</v>
+        <v>44216</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K20" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L20" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M20" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44239</v>
+        <v>44245</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K21" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L21" t="n">
         <v>29000</v>
       </c>
       <c r="M21" t="n">
-        <v>29000</v>
+        <v>28532</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1160</v>
+        <v>1141</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44236</v>
+        <v>44225</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K22" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L22" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M22" t="n">
-        <v>29000</v>
+        <v>29130</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44245</v>
+        <v>44218</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L23" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M23" t="n">
-        <v>28532</v>
+        <v>35000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1141</v>
+        <v>1400</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44195</v>
+        <v>44223</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K24" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L24" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M24" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44209</v>
+        <v>44193</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L25" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M25" t="n">
-        <v>27000</v>
+        <v>29542</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1080</v>
+        <v>1182</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44278</v>
+        <v>44200</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L26" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M26" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>920</v>
+        <v>1280</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44221</v>
+        <v>44208</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="K27" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L27" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="M27" t="n">
-        <v>32806</v>
+        <v>27526</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44200</v>
+        <v>44214</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K28" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L28" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="M28" t="n">
-        <v>32000</v>
+        <v>35429</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1280</v>
+        <v>1417</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44267</v>
+        <v>44214</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K29" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L29" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M29" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44259</v>
+        <v>44217</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K30" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L30" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M30" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44277</v>
+        <v>44266</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K31" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L31" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M31" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44224</v>
+        <v>44249</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="K32" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L32" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M32" t="n">
-        <v>27000</v>
+        <v>28543</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44224</v>
+        <v>44267</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="K33" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L33" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M33" t="n">
-        <v>28909</v>
+        <v>25000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1156</v>
+        <v>1000</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44217</v>
+        <v>44243</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="K34" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L34" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M34" t="n">
-        <v>32000</v>
+        <v>28448</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1280</v>
+        <v>1138</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44249</v>
+        <v>44166</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,32 +2877,32 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="K35" t="n">
-        <v>28000</v>
+        <v>1700</v>
       </c>
       <c r="L35" t="n">
-        <v>29000</v>
+        <v>1800</v>
       </c>
       <c r="M35" t="n">
-        <v>28543</v>
+        <v>1756</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1142</v>
+        <v>1756</v>
       </c>
       <c r="Q35" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44235</v>
+        <v>44221</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="K36" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L36" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M36" t="n">
-        <v>29000</v>
+        <v>32806</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1160</v>
+        <v>1312</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44218</v>
+        <v>44279</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L37" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M37" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1400</v>
+        <v>920</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44215</v>
+        <v>44277</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K38" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L38" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M38" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1400</v>
+        <v>920</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44194</v>
+        <v>44273</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="K39" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L39" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M39" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44222</v>
+        <v>44209</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L40" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M40" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1280</v>
+        <v>1080</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44244</v>
+        <v>44215</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3312,13 +3312,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L41" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M41" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44273</v>
+        <v>44203</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K42" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L42" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M42" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44279</v>
+        <v>44203</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K43" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L43" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M43" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K44" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L44" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M44" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1280</v>
+        <v>1160</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="K45" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L45" t="n">
         <v>29000</v>
       </c>
       <c r="M45" t="n">
-        <v>28568</v>
+        <v>29000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1143</v>
+        <v>1160</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44235</v>
+        <v>44239</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L3" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M3" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44278</v>
+        <v>44267</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -648,13 +648,13 @@
         <v>65</v>
       </c>
       <c r="K4" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L4" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M4" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44194</v>
+        <v>44249</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="K6" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L6" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M6" t="n">
-        <v>22000</v>
+        <v>28543</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>880</v>
+        <v>1142</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44266</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="K7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44202</v>
+        <v>44279</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L8" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M8" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44236</v>
+        <v>44221</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="K9" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L9" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M9" t="n">
-        <v>29000</v>
+        <v>32806</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1160</v>
+        <v>1312</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44222</v>
+        <v>44208</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K10" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L10" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M10" t="n">
-        <v>32000</v>
+        <v>27526</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1280</v>
+        <v>1101</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44242</v>
+        <v>44277</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K11" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L11" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M11" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44232</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K12" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L12" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M12" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44231</v>
+        <v>44217</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>1280</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44224</v>
+        <v>44238</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="K14" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L14" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M14" t="n">
-        <v>27000</v>
+        <v>28568</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="K15" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L15" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M15" t="n">
-        <v>28909</v>
+        <v>32000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1156</v>
+        <v>1280</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44195</v>
+        <v>44218</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K16" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L16" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M16" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L17" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M17" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K18" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L18" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44238</v>
+        <v>44188</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L19" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M19" t="n">
-        <v>28568</v>
+        <v>35000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1143</v>
+        <v>1400</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44216</v>
+        <v>44278</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K20" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L20" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M20" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1400</v>
+        <v>920</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44225</v>
+        <v>44216</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="K22" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L22" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M22" t="n">
-        <v>29130</v>
+        <v>35000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1165</v>
+        <v>1400</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44218</v>
+        <v>44244</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2016,13 +2016,13 @@
         <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L23" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M23" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44223</v>
+        <v>44271</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K24" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L24" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M24" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="K25" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L25" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M25" t="n">
-        <v>29542</v>
+        <v>27000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1182</v>
+        <v>1080</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44200</v>
+        <v>44224</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="K26" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L26" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M26" t="n">
-        <v>32000</v>
+        <v>28909</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1280</v>
+        <v>1156</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44208</v>
+        <v>44195</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="K27" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L27" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M27" t="n">
-        <v>27526</v>
+        <v>25000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1101</v>
+        <v>1000</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44214</v>
+        <v>44209</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L28" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="M28" t="n">
-        <v>35429</v>
+        <v>27000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1417</v>
+        <v>1080</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44214</v>
+        <v>44232</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K29" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L29" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M29" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44217</v>
+        <v>44273</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K30" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L30" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M30" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44266</v>
+        <v>44236</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K31" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L31" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M31" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44249</v>
+        <v>44215</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L32" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M32" t="n">
-        <v>28543</v>
+        <v>35000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1142</v>
+        <v>1400</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44267</v>
+        <v>44235</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="K33" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L33" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M33" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44243</v>
+        <v>44203</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="K34" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L34" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M34" t="n">
-        <v>28448</v>
+        <v>27000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1138</v>
+        <v>1080</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44166</v>
+        <v>44203</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2873,36 +2873,36 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K35" t="n">
-        <v>1700</v>
+        <v>25000</v>
       </c>
       <c r="L35" t="n">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="M35" t="n">
-        <v>1756</v>
+        <v>25000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1756</v>
+        <v>1000</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44221</v>
+        <v>44214</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c r="K36" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L36" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="M36" t="n">
-        <v>32806</v>
+        <v>35429</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1312</v>
+        <v>1417</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44279</v>
+        <v>44214</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K37" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L37" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M37" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44277</v>
+        <v>44231</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3096,13 +3096,13 @@
         <v>95</v>
       </c>
       <c r="K38" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L38" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M38" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44273</v>
+        <v>44204</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L39" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M39" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44209</v>
+        <v>44243</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="K40" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L40" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M40" t="n">
-        <v>27000</v>
+        <v>28448</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1080</v>
+        <v>1138</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44215</v>
+        <v>44202</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K41" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L41" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M41" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44203</v>
+        <v>44242</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="K42" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L42" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M42" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44203</v>
+        <v>44166</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3449,36 +3449,36 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K43" t="n">
-        <v>25000</v>
+        <v>1700</v>
       </c>
       <c r="L43" t="n">
-        <v>25000</v>
+        <v>1800</v>
       </c>
       <c r="M43" t="n">
-        <v>25000</v>
+        <v>1756</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1000</v>
+        <v>1756</v>
       </c>
       <c r="Q43" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44244</v>
+        <v>44223</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K44" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L44" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M44" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44239</v>
+        <v>44193</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="K45" t="n">
         <v>29000</v>
       </c>
       <c r="L45" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M45" t="n">
-        <v>29000</v>
+        <v>29542</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1160</v>
+        <v>1182</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44217</v>
+        <v>44196</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1280</v>
+        <v>400</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44238</v>
+        <v>44217</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L14" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M14" t="n">
-        <v>28568</v>
+        <v>32000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1143</v>
+        <v>1280</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44222</v>
+        <v>44238</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="K15" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L15" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M15" t="n">
-        <v>32000</v>
+        <v>28568</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1280</v>
+        <v>1143</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K16" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L16" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M16" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44200</v>
+        <v>44218</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1584,13 +1584,13 @@
         <v>80</v>
       </c>
       <c r="K17" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L17" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M17" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1280</v>
+        <v>1400</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44225</v>
+        <v>44200</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L18" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M18" t="n">
-        <v>29130</v>
+        <v>32000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1165</v>
+        <v>1280</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44188</v>
+        <v>44225</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K19" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L19" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M19" t="n">
-        <v>35000</v>
+        <v>29130</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1400</v>
+        <v>1165</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44278</v>
+        <v>44188</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L20" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M20" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44245</v>
+        <v>44278</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="K21" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L21" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M21" t="n">
-        <v>28532</v>
+        <v>23000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1141</v>
+        <v>920</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="K22" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L22" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M22" t="n">
-        <v>35000</v>
+        <v>28532</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1400</v>
+        <v>1141</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44244</v>
+        <v>44216</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K23" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L23" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M23" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44271</v>
+        <v>44244</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L24" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M24" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44224</v>
+        <v>44271</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>380</v>
+        <v>30</v>
       </c>
       <c r="K25" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L25" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M25" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K26" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L26" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M26" t="n">
-        <v>28909</v>
+        <v>27000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1156</v>
+        <v>1080</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c r="K27" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L27" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M27" t="n">
-        <v>25000</v>
+        <v>28909</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1000</v>
+        <v>1156</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K28" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L28" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M28" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44232</v>
+        <v>44209</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L29" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M29" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44273</v>
+        <v>44232</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K30" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L30" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M30" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K31" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L31" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M31" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K32" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L32" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M32" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="K33" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L33" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M33" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="K34" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L34" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M34" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K35" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L35" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M35" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44214</v>
+        <v>44203</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K36" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L36" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="M36" t="n">
-        <v>35429</v>
+        <v>25000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1417</v>
+        <v>1000</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K37" t="n">
         <v>35000</v>
       </c>
       <c r="L37" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M37" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44231</v>
+        <v>44214</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L38" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M38" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44204</v>
+        <v>44231</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K39" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L39" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M39" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44243</v>
+        <v>44204</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="K40" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L40" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M40" t="n">
-        <v>28448</v>
+        <v>27000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1138</v>
+        <v>1080</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="K41" t="n">
         <v>28000</v>
       </c>
       <c r="L41" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M41" t="n">
-        <v>28000</v>
+        <v>28448</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1120</v>
+        <v>1138</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="K42" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L42" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M42" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44166</v>
+        <v>44242</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="K43" t="n">
-        <v>1700</v>
+        <v>29000</v>
       </c>
       <c r="L43" t="n">
-        <v>1800</v>
+        <v>29000</v>
       </c>
       <c r="M43" t="n">
-        <v>1756</v>
+        <v>29000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1756</v>
+        <v>1160</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K44" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L44" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M44" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q44" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,58 +3573,130 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
+        <v>44223</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>95</v>
+      </c>
+      <c r="K45" t="n">
+        <v>32000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>32000</v>
+      </c>
+      <c r="M45" t="n">
+        <v>32000</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>1280</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>25</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
         <v>44193</v>
       </c>
-      <c r="E45" t="n">
-        <v>9</v>
-      </c>
-      <c r="F45" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
+      <c r="E46" t="n">
+        <v>9</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
         <v>120</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K46" t="n">
         <v>29000</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L46" t="n">
         <v>30000</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M46" t="n">
         <v>29542</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P45" t="n">
+      <c r="P46" t="n">
         <v>1182</v>
       </c>
-      <c r="Q45" t="n">
-        <v>25</v>
-      </c>
-      <c r="R45" t="inlineStr">
+      <c r="Q46" t="n">
+        <v>25</v>
+      </c>
+      <c r="R46" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="K2" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L2" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M2" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44189</v>
+        <v>44236</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="K3" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="L3" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M3" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44267</v>
+        <v>44232</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K4" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44259</v>
+        <v>44239</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K5" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L5" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M5" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44249</v>
+        <v>44243</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="K6" t="n">
         <v>28000</v>
@@ -798,7 +798,7 @@
         <v>29000</v>
       </c>
       <c r="M6" t="n">
-        <v>28543</v>
+        <v>28448</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44279</v>
+        <v>44271</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
         <v>23000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44221</v>
+        <v>44200</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
         <v>32000</v>
       </c>
       <c r="L9" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="M9" t="n">
-        <v>32806</v>
+        <v>32000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1312</v>
+        <v>1280</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44208</v>
+        <v>44203</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
         <v>27000</v>
       </c>
       <c r="L10" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M10" t="n">
-        <v>27526</v>
+        <v>27000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1101</v>
+        <v>1080</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44277</v>
+        <v>44203</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K11" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L11" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M11" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L12" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M12" t="n">
-        <v>22000</v>
+        <v>29542</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>880</v>
+        <v>1182</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44196</v>
+        <v>44225</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>29130</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>400</v>
+        <v>1165</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44217</v>
+        <v>44231</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K14" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L14" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M14" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44238</v>
+        <v>44249</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="K15" t="n">
         <v>28000</v>
@@ -1446,7 +1446,7 @@
         <v>29000</v>
       </c>
       <c r="M15" t="n">
-        <v>28568</v>
+        <v>28543</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K16" t="n">
         <v>32000</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44218</v>
+        <v>44209</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L17" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M17" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1400</v>
+        <v>1080</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44200</v>
+        <v>44224</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="K18" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L18" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M18" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1280</v>
+        <v>1080</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="K19" t="n">
         <v>28000</v>
@@ -1734,7 +1734,7 @@
         <v>30000</v>
       </c>
       <c r="M19" t="n">
-        <v>29130</v>
+        <v>28909</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44188</v>
+        <v>44235</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="K20" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L20" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M20" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44278</v>
+        <v>44259</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L21" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M21" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2019,10 +2019,10 @@
         <v>35000</v>
       </c>
       <c r="L23" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M23" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44244</v>
+        <v>44214</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2088,13 +2088,13 @@
         <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L24" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M24" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="K25" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L25" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="M25" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44224</v>
+        <v>44266</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>380</v>
+        <v>65</v>
       </c>
       <c r="K26" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L26" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M26" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44224</v>
+        <v>44238</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="K27" t="n">
         <v>28000</v>
       </c>
       <c r="L27" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M27" t="n">
-        <v>28909</v>
+        <v>28568</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1156</v>
+        <v>1143</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44195</v>
+        <v>44202</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="K28" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L28" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M28" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44209</v>
+        <v>44188</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L29" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M29" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44232</v>
+        <v>44216</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K30" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L30" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M30" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K31" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L31" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M31" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44236</v>
+        <v>44189</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="K32" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L32" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M32" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44215</v>
+        <v>44278</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K33" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L33" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M33" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1400</v>
+        <v>920</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44235</v>
+        <v>44196</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="K34" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="L34" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="M34" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1160</v>
+        <v>400</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44203</v>
+        <v>44208</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K35" t="n">
         <v>27000</v>
       </c>
       <c r="L35" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M35" t="n">
-        <v>27000</v>
+        <v>27526</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1080</v>
+        <v>1101</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44203</v>
+        <v>44242</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="K36" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L36" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M36" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44214</v>
+        <v>44279</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L37" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="M37" t="n">
-        <v>35429</v>
+        <v>23000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1417</v>
+        <v>920</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44214</v>
+        <v>44204</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L38" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M38" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1400</v>
+        <v>1080</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44231</v>
+        <v>44277</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3168,13 +3168,13 @@
         <v>95</v>
       </c>
       <c r="K39" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L39" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M39" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44204</v>
+        <v>44218</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K40" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L40" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M40" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44243</v>
+        <v>44221</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>145</v>
+        <v>310</v>
       </c>
       <c r="K41" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L41" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M41" t="n">
-        <v>28448</v>
+        <v>32806</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1138</v>
+        <v>1312</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44202</v>
+        <v>44166</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,32 +3381,32 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K42" t="n">
-        <v>28000</v>
+        <v>1700</v>
       </c>
       <c r="L42" t="n">
-        <v>28000</v>
+        <v>1800</v>
       </c>
       <c r="M42" t="n">
-        <v>28000</v>
+        <v>1756</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1120</v>
+        <v>1756</v>
       </c>
       <c r="Q42" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44242</v>
+        <v>44215</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K43" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L43" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M43" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44166</v>
+        <v>44217</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="K44" t="n">
-        <v>1700</v>
+        <v>32000</v>
       </c>
       <c r="L44" t="n">
-        <v>1800</v>
+        <v>32000</v>
       </c>
       <c r="M44" t="n">
-        <v>1756</v>
+        <v>32000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1756</v>
+        <v>1280</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L45" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M45" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1280</v>
+        <v>1160</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44193</v>
+        <v>44273</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K46" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L46" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M46" t="n">
-        <v>29542</v>
+        <v>25000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1182</v>
+        <v>1000</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44195</v>
+        <v>44231</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K2" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L2" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M2" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44236</v>
+        <v>44223</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K3" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L3" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M3" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44232</v>
+        <v>44196</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44239</v>
+        <v>44193</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
         <v>29000</v>
       </c>
       <c r="L5" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M5" t="n">
-        <v>29000</v>
+        <v>29542</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1160</v>
+        <v>1182</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44267</v>
+        <v>44215</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L7" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M7" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44271</v>
+        <v>44188</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L8" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M8" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44200</v>
+        <v>44221</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K9" t="n">
         <v>32000</v>
       </c>
       <c r="L9" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="M9" t="n">
-        <v>32000</v>
+        <v>32806</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1280</v>
+        <v>1312</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44203</v>
+        <v>44267</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K10" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L10" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M10" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44203</v>
+        <v>44266</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K11" t="n">
         <v>25000</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="K12" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L12" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M12" t="n">
-        <v>29542</v>
+        <v>27000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1182</v>
+        <v>1080</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="K13" t="n">
         <v>28000</v>
@@ -1302,7 +1302,7 @@
         <v>30000</v>
       </c>
       <c r="M13" t="n">
-        <v>29130</v>
+        <v>28909</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44231</v>
+        <v>44218</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L14" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M14" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44249</v>
+        <v>44273</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="K15" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L15" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M15" t="n">
-        <v>28543</v>
+        <v>25000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1142</v>
+        <v>1000</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44223</v>
+        <v>44277</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1512,13 +1512,13 @@
         <v>95</v>
       </c>
       <c r="K16" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L16" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M16" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44209</v>
+        <v>44203</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
         <v>27000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44224</v>
+        <v>44203</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="K18" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L18" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44224</v>
+        <v>44217</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L19" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M19" t="n">
-        <v>28909</v>
+        <v>32000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1156</v>
+        <v>1280</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44259</v>
+        <v>44200</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L21" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M21" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L22" t="n">
         <v>29000</v>
       </c>
       <c r="M22" t="n">
-        <v>28532</v>
+        <v>29000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1141</v>
+        <v>1160</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44214</v>
+        <v>44202</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K23" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L23" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M23" t="n">
-        <v>35429</v>
+        <v>28000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1417</v>
+        <v>1120</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K24" t="n">
         <v>35000</v>
       </c>
       <c r="L24" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M24" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44194</v>
+        <v>44214</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="L25" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M25" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>880</v>
+        <v>1400</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44266</v>
+        <v>44208</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="K26" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L26" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M26" t="n">
-        <v>25000</v>
+        <v>27526</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1000</v>
+        <v>1101</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44238</v>
+        <v>44204</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K27" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L27" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M27" t="n">
-        <v>28568</v>
+        <v>27000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1143</v>
+        <v>1080</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44202</v>
+        <v>44189</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K28" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L28" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M28" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44188</v>
+        <v>44278</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K29" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L29" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M29" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1400</v>
+        <v>920</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44216</v>
+        <v>44209</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L30" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M30" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1400</v>
+        <v>1080</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44222</v>
+        <v>44245</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="K31" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L31" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M31" t="n">
-        <v>32000</v>
+        <v>28532</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1280</v>
+        <v>1141</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44189</v>
+        <v>44249</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="K32" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L32" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M32" t="n">
-        <v>30000</v>
+        <v>28543</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1200</v>
+        <v>1142</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44278</v>
+        <v>44259</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L33" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M33" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44196</v>
+        <v>44216</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K34" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="L34" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M34" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44208</v>
+        <v>44195</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="K35" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L35" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M35" t="n">
-        <v>27526</v>
+        <v>25000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1101</v>
+        <v>1000</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44279</v>
+        <v>44239</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="K37" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L37" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M37" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44204</v>
+        <v>44222</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K38" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L38" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M38" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
         <v>23000</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44218</v>
+        <v>44166</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,32 +3237,32 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K40" t="n">
-        <v>35000</v>
+        <v>1700</v>
       </c>
       <c r="L40" t="n">
-        <v>35000</v>
+        <v>1800</v>
       </c>
       <c r="M40" t="n">
-        <v>35000</v>
+        <v>1756</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1400</v>
+        <v>1756</v>
       </c>
       <c r="Q40" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44221</v>
+        <v>44225</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>310</v>
+        <v>115</v>
       </c>
       <c r="K41" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L41" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M41" t="n">
-        <v>32806</v>
+        <v>29130</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1312</v>
+        <v>1165</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44166</v>
+        <v>44232</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,32 +3381,32 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="K42" t="n">
-        <v>1700</v>
+        <v>30000</v>
       </c>
       <c r="L42" t="n">
-        <v>1800</v>
+        <v>30000</v>
       </c>
       <c r="M42" t="n">
-        <v>1756</v>
+        <v>30000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1756</v>
+        <v>1200</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44215</v>
+        <v>44238</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="K43" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L43" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M43" t="n">
-        <v>35000</v>
+        <v>28568</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1400</v>
+        <v>1143</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44217</v>
+        <v>44236</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="K44" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L44" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M44" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1280</v>
+        <v>1160</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44244</v>
+        <v>44194</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="K45" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L45" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M45" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1160</v>
+        <v>880</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44273</v>
+        <v>44271</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K46" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L46" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M46" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44231</v>
+        <v>44203</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L2" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M2" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44223</v>
+        <v>44203</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L3" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M3" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44196</v>
+        <v>44217</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>400</v>
+        <v>1280</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44209</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L5" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M5" t="n">
-        <v>29542</v>
+        <v>27000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1182</v>
+        <v>1080</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44243</v>
+        <v>44271</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L6" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M6" t="n">
-        <v>28448</v>
+        <v>23000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1138</v>
+        <v>920</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44215</v>
+        <v>44279</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L7" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M7" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1400</v>
+        <v>920</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44188</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="K8" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L8" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M8" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="K9" t="n">
         <v>32000</v>
       </c>
       <c r="L9" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="M9" t="n">
-        <v>32806</v>
+        <v>32000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1312</v>
+        <v>1280</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44267</v>
+        <v>44222</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K10" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L10" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M10" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44266</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="K11" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L11" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M11" t="n">
-        <v>25000</v>
+        <v>28568</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44224</v>
+        <v>44266</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>380</v>
+        <v>65</v>
       </c>
       <c r="K12" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L12" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M12" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44224</v>
+        <v>44214</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="K13" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M13" t="n">
-        <v>28909</v>
+        <v>35429</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1156</v>
+        <v>1417</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44273</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="K15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44277</v>
+        <v>44202</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K16" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L16" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M16" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44203</v>
+        <v>44193</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1584,13 +1584,13 @@
         <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L17" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M17" t="n">
-        <v>27000</v>
+        <v>29542</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1080</v>
+        <v>1182</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44203</v>
+        <v>44249</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="K18" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L18" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M18" t="n">
-        <v>25000</v>
+        <v>28543</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1000</v>
+        <v>1142</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44217</v>
+        <v>44225</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="K19" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L19" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M19" t="n">
-        <v>32000</v>
+        <v>29130</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1280</v>
+        <v>1165</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44235</v>
+        <v>44195</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="K20" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L20" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M20" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44200</v>
+        <v>44216</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1280</v>
+        <v>1400</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44244</v>
+        <v>44232</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K22" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L22" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M22" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="K23" t="n">
         <v>28000</v>
       </c>
       <c r="L23" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M23" t="n">
-        <v>28000</v>
+        <v>28532</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44214</v>
+        <v>44243</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="K24" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L24" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M24" t="n">
-        <v>35429</v>
+        <v>28448</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1417</v>
+        <v>1138</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44214</v>
+        <v>44236</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K25" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L25" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M25" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K26" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="L26" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="n">
-        <v>27526</v>
+        <v>10000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1101</v>
+        <v>400</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44204</v>
+        <v>44188</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2304,13 +2304,13 @@
         <v>50</v>
       </c>
       <c r="K27" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L27" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M27" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44189</v>
+        <v>44277</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="K28" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L28" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M28" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44278</v>
+        <v>44221</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="K29" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L29" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M29" t="n">
-        <v>23000</v>
+        <v>32806</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>920</v>
+        <v>1312</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K30" t="n">
         <v>27000</v>
       </c>
       <c r="L30" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M30" t="n">
-        <v>27000</v>
+        <v>27526</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1080</v>
+        <v>1101</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44245</v>
+        <v>44242</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="K31" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L31" t="n">
         <v>29000</v>
       </c>
       <c r="M31" t="n">
-        <v>28532</v>
+        <v>29000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1141</v>
+        <v>1160</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44249</v>
+        <v>44231</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="K32" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L32" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M32" t="n">
-        <v>28543</v>
+        <v>30000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1142</v>
+        <v>1200</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44259</v>
+        <v>44215</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K33" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L33" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M33" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44216</v>
+        <v>44204</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K34" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L34" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M34" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1400</v>
+        <v>1080</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44195</v>
+        <v>44244</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K35" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L35" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M35" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44242</v>
+        <v>44200</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L36" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M36" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44239</v>
+        <v>44166</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,32 +3021,32 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="K37" t="n">
-        <v>29000</v>
+        <v>1700</v>
       </c>
       <c r="L37" t="n">
-        <v>29000</v>
+        <v>1800</v>
       </c>
       <c r="M37" t="n">
-        <v>29000</v>
+        <v>1756</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1160</v>
+        <v>1756</v>
       </c>
       <c r="Q37" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44222</v>
+        <v>44259</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L38" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M38" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K39" t="n">
         <v>23000</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,32 +3237,32 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K40" t="n">
-        <v>1700</v>
+        <v>35000</v>
       </c>
       <c r="L40" t="n">
-        <v>1800</v>
+        <v>35000</v>
       </c>
       <c r="M40" t="n">
-        <v>1756</v>
+        <v>35000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1756</v>
+        <v>1400</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44225</v>
+        <v>44267</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="K41" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L41" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M41" t="n">
-        <v>29130</v>
+        <v>25000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1165</v>
+        <v>1000</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44232</v>
+        <v>44239</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="K42" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="L42" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M42" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44238</v>
+        <v>44273</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="K43" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L43" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M43" t="n">
-        <v>28568</v>
+        <v>25000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44236</v>
+        <v>44189</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="K44" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L44" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M44" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="K45" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="L45" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M45" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44271</v>
+        <v>44224</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="K46" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L46" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M46" t="n">
-        <v>23000</v>
+        <v>28909</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>920</v>
+        <v>1156</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44203</v>
+        <v>44217</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L2" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M2" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="K3" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L3" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M3" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44217</v>
+        <v>44193</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L4" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>32000</v>
+        <v>29542</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1280</v>
+        <v>1182</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44209</v>
+        <v>44242</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K5" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L5" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M5" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K6" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L6" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M6" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44279</v>
+        <v>44221</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="K7" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L7" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M7" t="n">
-        <v>23000</v>
+        <v>32806</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>920</v>
+        <v>1312</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44204</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L8" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M8" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44222</v>
+        <v>44249</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="K10" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L10" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M10" t="n">
-        <v>32000</v>
+        <v>28543</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1280</v>
+        <v>1142</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44244</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L11" t="n">
         <v>29000</v>
       </c>
       <c r="M11" t="n">
-        <v>28568</v>
+        <v>29000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1143</v>
+        <v>1160</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44266</v>
+        <v>44202</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L12" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M12" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44214</v>
+        <v>44245</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="K13" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L13" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M13" t="n">
-        <v>35429</v>
+        <v>28532</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1417</v>
+        <v>1141</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K14" t="n">
         <v>35000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>350</v>
+        <v>10</v>
       </c>
       <c r="K15" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L15" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M15" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>880</v>
+        <v>1200</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44202</v>
+        <v>44215</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K16" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L16" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M16" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44193</v>
+        <v>44203</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1584,13 +1584,13 @@
         <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L17" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M17" t="n">
-        <v>29542</v>
+        <v>27000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1182</v>
+        <v>1080</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44249</v>
+        <v>44203</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="K18" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L18" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>28543</v>
+        <v>25000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1142</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44225</v>
+        <v>44236</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K19" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L19" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M19" t="n">
-        <v>29130</v>
+        <v>29000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44195</v>
+        <v>44214</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="K20" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L20" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="M20" t="n">
-        <v>25000</v>
+        <v>35429</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1000</v>
+        <v>1417</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
         <v>35000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44232</v>
+        <v>44222</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1944,13 +1944,13 @@
         <v>110</v>
       </c>
       <c r="K22" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L22" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M22" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1200</v>
+        <v>1280</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44245</v>
+        <v>44243</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="K23" t="n">
         <v>28000</v>
@@ -2022,7 +2022,7 @@
         <v>29000</v>
       </c>
       <c r="M23" t="n">
-        <v>28532</v>
+        <v>28448</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44243</v>
+        <v>44166</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="K24" t="n">
-        <v>28000</v>
+        <v>1700</v>
       </c>
       <c r="L24" t="n">
-        <v>29000</v>
+        <v>1800</v>
       </c>
       <c r="M24" t="n">
-        <v>28448</v>
+        <v>1756</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1138</v>
+        <v>1756</v>
       </c>
       <c r="Q24" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44236</v>
+        <v>44277</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K25" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L25" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M25" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44196</v>
+        <v>44273</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K26" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M26" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44188</v>
+        <v>44209</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L27" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M27" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1400</v>
+        <v>1080</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44277</v>
+        <v>44266</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K28" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L28" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M28" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44221</v>
+        <v>44267</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="K29" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L29" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M29" t="n">
-        <v>32806</v>
+        <v>25000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1312</v>
+        <v>1000</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44208</v>
+        <v>44271</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L30" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M30" t="n">
-        <v>27526</v>
+        <v>23000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1101</v>
+        <v>920</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44242</v>
+        <v>44218</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K31" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L31" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M31" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44215</v>
+        <v>44259</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L33" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M33" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44204</v>
+        <v>44279</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2808,13 +2808,13 @@
         <v>50</v>
       </c>
       <c r="K34" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L34" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M34" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44244</v>
+        <v>44208</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K35" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L35" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M35" t="n">
-        <v>29000</v>
+        <v>27526</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1160</v>
+        <v>1101</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44200</v>
+        <v>44232</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K36" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L36" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M36" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44166</v>
+        <v>44278</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,32 +3021,32 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K37" t="n">
-        <v>1700</v>
+        <v>23000</v>
       </c>
       <c r="L37" t="n">
-        <v>1800</v>
+        <v>23000</v>
       </c>
       <c r="M37" t="n">
-        <v>1756</v>
+        <v>23000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1756</v>
+        <v>920</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44259</v>
+        <v>44238</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K38" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L38" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M38" t="n">
-        <v>25000</v>
+        <v>28568</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44278</v>
+        <v>44196</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K39" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L39" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>920</v>
+        <v>400</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44218</v>
+        <v>44200</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3240,13 +3240,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L40" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M40" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44267</v>
+        <v>44188</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K41" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L41" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M41" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="K42" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L42" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M42" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44273</v>
+        <v>44224</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="K43" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L43" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M43" t="n">
-        <v>25000</v>
+        <v>28909</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1000</v>
+        <v>1156</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44189</v>
+        <v>44195</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="K44" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L44" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M44" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44224</v>
+        <v>44239</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="K45" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L45" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M45" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44224</v>
+        <v>44194</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="K46" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L46" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M46" t="n">
-        <v>28909</v>
+        <v>22000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1156</v>
+        <v>880</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44221</v>
+        <v>44552</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K7" t="n">
-        <v>32000</v>
+        <v>45000</v>
       </c>
       <c r="L7" t="n">
-        <v>34000</v>
+        <v>45000</v>
       </c>
       <c r="M7" t="n">
-        <v>32806</v>
+        <v>45000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1312</v>
+        <v>1800</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44204</v>
+        <v>44221</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="K8" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L8" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="M8" t="n">
-        <v>27000</v>
+        <v>32806</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1080</v>
+        <v>1312</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44204</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L9" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M9" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1280</v>
+        <v>1080</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44249</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="K10" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L10" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M10" t="n">
-        <v>28543</v>
+        <v>32000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1142</v>
+        <v>1280</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44244</v>
+        <v>44249</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="K11" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L11" t="n">
         <v>29000</v>
       </c>
       <c r="M11" t="n">
-        <v>29000</v>
+        <v>28543</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L12" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M12" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44245</v>
+        <v>44202</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="K13" t="n">
         <v>28000</v>
       </c>
       <c r="L13" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M13" t="n">
-        <v>28532</v>
+        <v>28000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1141</v>
+        <v>1120</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="K14" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L14" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M14" t="n">
-        <v>35000</v>
+        <v>28532</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1400</v>
+        <v>1141</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K15" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L15" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M15" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44215</v>
+        <v>44189</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="K16" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L16" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M16" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L17" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M17" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L18" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M18" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44236</v>
+        <v>44203</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K19" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L19" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M19" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44214</v>
+        <v>44236</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K20" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L20" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M20" t="n">
-        <v>35429</v>
+        <v>29000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1417</v>
+        <v>1160</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K21" t="n">
         <v>35000</v>
       </c>
       <c r="L21" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M21" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44222</v>
+        <v>44214</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L22" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M22" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1280</v>
+        <v>1400</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44243</v>
+        <v>44222</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="K23" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L23" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M23" t="n">
-        <v>28448</v>
+        <v>32000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1138</v>
+        <v>1280</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="K24" t="n">
-        <v>1700</v>
+        <v>28000</v>
       </c>
       <c r="L24" t="n">
-        <v>1800</v>
+        <v>29000</v>
       </c>
       <c r="M24" t="n">
-        <v>1756</v>
+        <v>28448</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1756</v>
+        <v>1138</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44277</v>
+        <v>44166</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K25" t="n">
-        <v>23000</v>
+        <v>1700</v>
       </c>
       <c r="L25" t="n">
-        <v>23000</v>
+        <v>1800</v>
       </c>
       <c r="M25" t="n">
-        <v>23000</v>
+        <v>1756</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>920</v>
+        <v>1756</v>
       </c>
       <c r="Q25" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K26" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L26" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M26" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44209</v>
+        <v>44273</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K27" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L27" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M27" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44266</v>
+        <v>44209</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L28" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M28" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44271</v>
+        <v>44267</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K30" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L30" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M30" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K31" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L31" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M31" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1400</v>
+        <v>920</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44231</v>
+        <v>44218</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L32" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M32" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K33" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L33" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M33" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44279</v>
+        <v>44259</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L34" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M34" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K35" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L35" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M35" t="n">
-        <v>27526</v>
+        <v>23000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1101</v>
+        <v>920</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K36" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L36" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M36" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44278</v>
+        <v>44232</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K37" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L37" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M37" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44238</v>
+        <v>44278</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="K38" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L38" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M38" t="n">
-        <v>28568</v>
+        <v>23000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1143</v>
+        <v>920</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44196</v>
+        <v>44238</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="K39" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L39" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M39" t="n">
-        <v>10000</v>
+        <v>28568</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>400</v>
+        <v>1143</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K40" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="L40" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="M40" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1280</v>
+        <v>400</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K41" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L41" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M41" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="K42" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L42" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M42" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K43" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L43" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M43" t="n">
-        <v>28909</v>
+        <v>27000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1156</v>
+        <v>1080</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c r="K44" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L44" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M44" t="n">
-        <v>25000</v>
+        <v>28909</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1000</v>
+        <v>1156</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="K45" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L45" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M45" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,58 +3645,130 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>210</v>
+      </c>
+      <c r="K46" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>29000</v>
+      </c>
+      <c r="M46" t="n">
+        <v>29000</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>1160</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>25</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="E46" t="n">
-        <v>9</v>
-      </c>
-      <c r="F46" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
+      <c r="E47" t="n">
+        <v>9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
         <v>350</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K47" t="n">
         <v>22000</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L47" t="n">
         <v>22000</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M47" t="n">
         <v>22000</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P46" t="n">
+      <c r="P47" t="n">
         <v>880</v>
       </c>
-      <c r="Q46" t="n">
-        <v>25</v>
-      </c>
-      <c r="R46" t="inlineStr">
+      <c r="Q47" t="n">
+        <v>25</v>
+      </c>
+      <c r="R47" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2736,13 +2736,13 @@
         <v>95</v>
       </c>
       <c r="K33" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L33" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M33" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K34" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L34" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M34" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44279</v>
+        <v>44259</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L35" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M35" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L36" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M36" t="n">
-        <v>27526</v>
+        <v>23000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1101</v>
+        <v>920</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K37" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L37" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M37" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44278</v>
+        <v>44232</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K38" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L38" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M38" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44238</v>
+        <v>44278</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="K39" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L39" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M39" t="n">
-        <v>28568</v>
+        <v>23000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1143</v>
+        <v>920</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44196</v>
+        <v>44238</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="K40" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L40" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M40" t="n">
-        <v>10000</v>
+        <v>28568</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>400</v>
+        <v>1143</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K41" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="L41" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1280</v>
+        <v>400</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K42" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L42" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M42" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L43" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M43" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K44" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L44" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M44" t="n">
-        <v>28909</v>
+        <v>27000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1156</v>
+        <v>1080</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c r="K45" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L45" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M45" t="n">
-        <v>25000</v>
+        <v>28909</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1000</v>
+        <v>1156</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="K46" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L46" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M46" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,58 +3717,130 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>210</v>
+      </c>
+      <c r="K47" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L47" t="n">
+        <v>29000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>29000</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>1160</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>25</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="E47" t="n">
-        <v>9</v>
-      </c>
-      <c r="F47" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
+      <c r="E48" t="n">
+        <v>9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
         <v>350</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K48" t="n">
         <v>22000</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L48" t="n">
         <v>22000</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M48" t="n">
         <v>22000</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P47" t="n">
+      <c r="P48" t="n">
         <v>880</v>
       </c>
-      <c r="Q47" t="n">
-        <v>25</v>
-      </c>
-      <c r="R47" t="inlineStr">
+      <c r="Q48" t="n">
+        <v>25</v>
+      </c>
+      <c r="R48" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44223</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="K10" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L10" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M10" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44249</v>
+        <v>44223</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="K11" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L11" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M11" t="n">
-        <v>28543</v>
+        <v>32000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1142</v>
+        <v>1280</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44244</v>
+        <v>44249</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="K12" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L12" t="n">
         <v>29000</v>
       </c>
       <c r="M12" t="n">
-        <v>29000</v>
+        <v>28543</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L13" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M13" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44245</v>
+        <v>44202</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="K14" t="n">
         <v>28000</v>
       </c>
       <c r="L14" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M14" t="n">
-        <v>28532</v>
+        <v>28000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1141</v>
+        <v>1120</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="K15" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L15" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M15" t="n">
-        <v>35000</v>
+        <v>28532</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1400</v>
+        <v>1141</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K16" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L16" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M16" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44215</v>
+        <v>44189</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="K17" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L17" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M17" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L18" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M18" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L19" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M19" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44236</v>
+        <v>44203</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K20" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L20" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M20" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44214</v>
+        <v>44236</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K21" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L21" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M21" t="n">
-        <v>35429</v>
+        <v>29000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1417</v>
+        <v>1160</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K22" t="n">
         <v>35000</v>
       </c>
       <c r="L22" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M22" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44222</v>
+        <v>44214</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L23" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M23" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1280</v>
+        <v>1400</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44243</v>
+        <v>44222</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="K24" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L24" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M24" t="n">
-        <v>28448</v>
+        <v>32000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1138</v>
+        <v>1280</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="K25" t="n">
-        <v>1700</v>
+        <v>28000</v>
       </c>
       <c r="L25" t="n">
-        <v>1800</v>
+        <v>29000</v>
       </c>
       <c r="M25" t="n">
-        <v>1756</v>
+        <v>28448</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1756</v>
+        <v>1138</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44277</v>
+        <v>44166</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K26" t="n">
-        <v>23000</v>
+        <v>1700</v>
       </c>
       <c r="L26" t="n">
-        <v>23000</v>
+        <v>1800</v>
       </c>
       <c r="M26" t="n">
-        <v>23000</v>
+        <v>1756</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>920</v>
+        <v>1756</v>
       </c>
       <c r="Q26" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K27" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L27" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M27" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44209</v>
+        <v>44273</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K28" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L28" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M28" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44266</v>
+        <v>44209</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L29" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M29" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44271</v>
+        <v>44267</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K31" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L31" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M31" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K32" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L32" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M32" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1400</v>
+        <v>920</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K33" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="L33" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M33" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2808,13 +2808,13 @@
         <v>95</v>
       </c>
       <c r="K34" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L34" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M34" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K35" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L35" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M35" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44279</v>
+        <v>44259</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L36" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M36" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L37" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M37" t="n">
-        <v>27526</v>
+        <v>23000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1101</v>
+        <v>920</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K38" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L38" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M38" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44278</v>
+        <v>44232</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K39" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L39" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M39" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44238</v>
+        <v>44278</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="K40" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L40" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M40" t="n">
-        <v>28568</v>
+        <v>23000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1143</v>
+        <v>920</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44196</v>
+        <v>44238</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="K41" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L41" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M41" t="n">
-        <v>10000</v>
+        <v>28568</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>400</v>
+        <v>1143</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K42" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="L42" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="M42" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1280</v>
+        <v>400</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K43" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L43" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M43" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="K44" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L44" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M44" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K45" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L45" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M45" t="n">
-        <v>28909</v>
+        <v>27000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1156</v>
+        <v>1080</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c r="K46" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L46" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M46" t="n">
-        <v>25000</v>
+        <v>28909</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1000</v>
+        <v>1156</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="K47" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L47" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M47" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,58 +3789,130 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>210</v>
+      </c>
+      <c r="K48" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L48" t="n">
+        <v>29000</v>
+      </c>
+      <c r="M48" t="n">
+        <v>29000</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>1160</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>25</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="E48" t="n">
-        <v>9</v>
-      </c>
-      <c r="F48" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
+      <c r="E49" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
         <v>350</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K49" t="n">
         <v>22000</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>22000</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M49" t="n">
         <v>22000</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P48" t="n">
+      <c r="P49" t="n">
         <v>880</v>
       </c>
-      <c r="Q48" t="n">
-        <v>25</v>
-      </c>
-      <c r="R48" t="inlineStr">
+      <c r="Q49" t="n">
+        <v>25</v>
+      </c>
+      <c r="R49" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K37" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L37" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M37" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K38" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L38" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M38" t="n">
-        <v>27526</v>
+        <v>25000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1101</v>
+        <v>1000</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44232</v>
+        <v>44279</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L39" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M39" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44278</v>
+        <v>44208</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="K40" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L40" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M40" t="n">
-        <v>23000</v>
+        <v>27526</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>920</v>
+        <v>1101</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="K41" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L41" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M41" t="n">
-        <v>28568</v>
+        <v>30000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1143</v>
+        <v>1200</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44196</v>
+        <v>44278</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K42" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="L42" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="M42" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>400</v>
+        <v>920</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44200</v>
+        <v>44238</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="K43" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L43" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M43" t="n">
-        <v>32000</v>
+        <v>28568</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1280</v>
+        <v>1143</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K44" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="L44" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M44" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L45" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M45" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="K46" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L46" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M46" t="n">
-        <v>28909</v>
+        <v>35000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1156</v>
+        <v>1400</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>155</v>
+        <v>380</v>
       </c>
       <c r="K47" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L47" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M47" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="K48" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L48" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M48" t="n">
-        <v>29000</v>
+        <v>28909</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,58 +3861,202 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>155</v>
+      </c>
+      <c r="K49" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M49" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>25</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>210</v>
+      </c>
+      <c r="K50" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>29000</v>
+      </c>
+      <c r="M50" t="n">
+        <v>29000</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>1160</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>25</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="E49" t="n">
-        <v>9</v>
-      </c>
-      <c r="F49" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
+      <c r="E51" t="n">
+        <v>9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
         <v>350</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K51" t="n">
         <v>22000</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L51" t="n">
         <v>22000</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M51" t="n">
         <v>22000</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P49" t="n">
+      <c r="P51" t="n">
         <v>880</v>
       </c>
-      <c r="Q49" t="n">
-        <v>25</v>
-      </c>
-      <c r="R49" t="inlineStr">
+      <c r="Q51" t="n">
+        <v>25</v>
+      </c>
+      <c r="R51" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44271</v>
+        <v>44567</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="K32" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L32" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M32" t="n">
-        <v>23000</v>
+        <v>27615</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>920</v>
+        <v>1105</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K33" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L33" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M33" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1400</v>
+        <v>920</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44553</v>
+        <v>44218</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K34" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="L34" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M34" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2880,13 +2880,13 @@
         <v>95</v>
       </c>
       <c r="K35" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L35" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M35" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K36" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L36" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M36" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44559</v>
+        <v>44259</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L37" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M37" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K38" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L38" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M38" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K39" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L39" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M39" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K40" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L40" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M40" t="n">
-        <v>27526</v>
+        <v>23000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1101</v>
+        <v>920</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K41" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L41" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M41" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44278</v>
+        <v>44232</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K42" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L42" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M42" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44238</v>
+        <v>44278</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="K43" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L43" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M43" t="n">
-        <v>28568</v>
+        <v>23000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1143</v>
+        <v>920</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44196</v>
+        <v>44238</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="K44" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L44" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M44" t="n">
-        <v>10000</v>
+        <v>28568</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>400</v>
+        <v>1143</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K45" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="L45" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="M45" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1280</v>
+        <v>400</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K46" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L46" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M46" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="K47" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L47" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M47" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K48" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L48" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M48" t="n">
-        <v>28909</v>
+        <v>27000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1156</v>
+        <v>1080</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c r="K49" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L49" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M49" t="n">
-        <v>25000</v>
+        <v>28909</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1000</v>
+        <v>1156</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="K50" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L50" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M50" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,58 +4005,202 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="E51" t="n">
+        <v>9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>210</v>
+      </c>
+      <c r="K51" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>29000</v>
+      </c>
+      <c r="M51" t="n">
+        <v>29000</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>1160</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>25</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>80</v>
+      </c>
+      <c r="K52" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M52" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>25</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="E51" t="n">
-        <v>9</v>
-      </c>
-      <c r="F51" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
+      <c r="E53" t="n">
+        <v>9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
         <v>350</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K53" t="n">
         <v>22000</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L53" t="n">
         <v>22000</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M53" t="n">
         <v>22000</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P51" t="n">
+      <c r="P53" t="n">
         <v>880</v>
       </c>
-      <c r="Q51" t="n">
-        <v>25</v>
-      </c>
-      <c r="R51" t="inlineStr">
+      <c r="Q53" t="n">
+        <v>25</v>
+      </c>
+      <c r="R53" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="K2" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L2" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M2" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1280</v>
+        <v>1080</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44235</v>
+        <v>44224</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="K3" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L3" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M3" t="n">
-        <v>29000</v>
+        <v>28909</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44193</v>
+        <v>44225</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K4" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L4" t="n">
         <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>29542</v>
+        <v>29130</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1182</v>
+        <v>1165</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K5" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L5" t="n">
         <v>29000</v>
       </c>
       <c r="M5" t="n">
-        <v>29000</v>
+        <v>28448</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1160</v>
+        <v>1138</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44225</v>
+        <v>44203</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L6" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M6" t="n">
-        <v>29130</v>
+        <v>27000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1165</v>
+        <v>1080</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44552</v>
+        <v>44203</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L7" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M7" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44221</v>
+        <v>44568</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L8" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>32806</v>
+        <v>30000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1312</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44204</v>
+        <v>44553</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K9" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L9" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M9" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1080</v>
+        <v>1800</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44558</v>
+        <v>44238</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="K10" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L10" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M10" t="n">
-        <v>30000</v>
+        <v>28568</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1200</v>
+        <v>1143</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44223</v>
+        <v>44245</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="K11" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L11" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M11" t="n">
-        <v>32000</v>
+        <v>28532</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1280</v>
+        <v>1141</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44249</v>
+        <v>44222</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="K12" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L12" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M12" t="n">
-        <v>28543</v>
+        <v>32000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1142</v>
+        <v>1280</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44244</v>
+        <v>44235</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="K13" t="n">
         <v>29000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44202</v>
+        <v>44559</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
         <v>28000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44245</v>
+        <v>44559</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L15" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M15" t="n">
-        <v>28532</v>
+        <v>25000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1141</v>
+        <v>1000</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44216</v>
+        <v>44249</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="K16" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L16" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M16" t="n">
-        <v>35000</v>
+        <v>28543</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1400</v>
+        <v>1142</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44189</v>
+        <v>44195</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="K17" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L17" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M17" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44215</v>
+        <v>44244</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1656,13 +1656,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L18" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M18" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44203</v>
+        <v>44232</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K19" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L19" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M19" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44203</v>
+        <v>44217</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L20" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M20" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44236</v>
+        <v>44223</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K21" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L21" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M21" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44214</v>
+        <v>44188</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
         <v>35000</v>
       </c>
       <c r="L22" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="M22" t="n">
-        <v>35429</v>
+        <v>35000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1417</v>
+        <v>1400</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44214</v>
+        <v>44189</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L23" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M23" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44222</v>
+        <v>44166</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="K24" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L24" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M24" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q24" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44243</v>
+        <v>44200</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L25" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M25" t="n">
-        <v>28448</v>
+        <v>32000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1138</v>
+        <v>1280</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44166</v>
+        <v>44231</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="K26" t="n">
-        <v>1700</v>
+        <v>30000</v>
       </c>
       <c r="L26" t="n">
-        <v>1800</v>
+        <v>30000</v>
       </c>
       <c r="M26" t="n">
-        <v>1756</v>
+        <v>30000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1756</v>
+        <v>1200</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44277</v>
+        <v>44242</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="K27" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L27" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M27" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44273</v>
+        <v>44202</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2376,13 +2376,13 @@
         <v>40</v>
       </c>
       <c r="K28" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L28" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M28" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44209</v>
+        <v>44271</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K29" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L29" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M29" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44266</v>
+        <v>44259</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
         <v>25000</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44267</v>
+        <v>44273</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K31" t="n">
         <v>25000</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44567</v>
+        <v>44214</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="K32" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L32" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="M32" t="n">
-        <v>27615</v>
+        <v>35429</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1105</v>
+        <v>1417</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44271</v>
+        <v>44214</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K33" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L33" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M33" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44218</v>
+        <v>44567</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K34" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L34" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M34" t="n">
-        <v>35000</v>
+        <v>27615</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1400</v>
+        <v>1105</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44553</v>
+        <v>44267</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K35" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L35" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M35" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44231</v>
+        <v>44215</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L36" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M36" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44259</v>
+        <v>44204</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L37" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M37" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44559</v>
+        <v>44218</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L38" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M38" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44559</v>
+        <v>44209</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L39" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M39" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44279</v>
+        <v>44221</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="K40" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L40" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M40" t="n">
-        <v>23000</v>
+        <v>32806</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>920</v>
+        <v>1312</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K41" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="L41" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>27526</v>
+        <v>10000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1101</v>
+        <v>400</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44232</v>
+        <v>44239</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="K42" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="L42" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M42" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44278</v>
+        <v>44208</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="K43" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L43" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M43" t="n">
-        <v>23000</v>
+        <v>27526</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>920</v>
+        <v>1101</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44238</v>
+        <v>44552</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="K44" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="L44" t="n">
-        <v>29000</v>
+        <v>45000</v>
       </c>
       <c r="M44" t="n">
-        <v>28568</v>
+        <v>45000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1143</v>
+        <v>1800</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44196</v>
+        <v>44216</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K45" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="L45" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M45" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44200</v>
+        <v>44558</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="K46" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L46" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M46" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44188</v>
+        <v>44278</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K47" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L47" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M47" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1400</v>
+        <v>920</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44224</v>
+        <v>44193</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="K48" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L48" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M48" t="n">
-        <v>27000</v>
+        <v>29542</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1080</v>
+        <v>1182</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44224</v>
+        <v>44194</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="K49" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L49" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M49" t="n">
-        <v>28909</v>
+        <v>22000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1156</v>
+        <v>880</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44195</v>
+        <v>44236</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="K50" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L50" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M50" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44239</v>
+        <v>44266</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="K51" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L51" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M51" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44568</v>
+        <v>44279</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K52" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L52" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M52" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44194</v>
+        <v>44277</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="K53" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L53" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M53" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="K38" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L38" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M38" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44209</v>
+        <v>44574</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K39" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L39" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M39" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="K40" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L40" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M40" t="n">
-        <v>32806</v>
+        <v>35000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1312</v>
+        <v>1400</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44196</v>
+        <v>44209</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="L41" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="M41" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44239</v>
+        <v>44221</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="K42" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L42" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M42" t="n">
-        <v>29000</v>
+        <v>32806</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1160</v>
+        <v>1312</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K43" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="L43" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="M43" t="n">
-        <v>27526</v>
+        <v>10000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1101</v>
+        <v>400</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44552</v>
+        <v>44239</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="K44" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="L44" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M44" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1800</v>
+        <v>1160</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44216</v>
+        <v>44208</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K45" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L45" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M45" t="n">
-        <v>35000</v>
+        <v>27526</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1400</v>
+        <v>1101</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="K46" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L46" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M46" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44278</v>
+        <v>44216</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K47" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L47" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M47" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44193</v>
+        <v>44558</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="K48" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L48" t="n">
         <v>30000</v>
       </c>
       <c r="M48" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="K49" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L49" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M49" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44236</v>
+        <v>44193</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K50" t="n">
         <v>29000</v>
       </c>
       <c r="L50" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M50" t="n">
-        <v>29000</v>
+        <v>29542</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1160</v>
+        <v>1182</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44266</v>
+        <v>44194</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="K51" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L51" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M51" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44279</v>
+        <v>44236</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K52" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L52" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M52" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,58 +4149,202 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
+        <v>44266</v>
+      </c>
+      <c r="E53" t="n">
+        <v>9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>65</v>
+      </c>
+      <c r="K53" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M53" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>25</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>50</v>
+      </c>
+      <c r="K54" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>25</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
         <v>44277</v>
       </c>
-      <c r="E53" t="n">
-        <v>9</v>
-      </c>
-      <c r="F53" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
+      <c r="E55" t="n">
+        <v>9</v>
+      </c>
+      <c r="F55" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
         <v>95</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K55" t="n">
         <v>23000</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L55" t="n">
         <v>23000</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M55" t="n">
         <v>23000</v>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P53" t="n">
+      <c r="P55" t="n">
         <v>920</v>
       </c>
-      <c r="Q53" t="n">
-        <v>25</v>
-      </c>
-      <c r="R53" t="inlineStr">
+      <c r="Q55" t="n">
+        <v>25</v>
+      </c>
+      <c r="R55" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44195</v>
+        <v>44575</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44244</v>
+        <v>44195</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K18" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L18" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44232</v>
+        <v>44244</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="L19" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M19" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44217</v>
+        <v>44232</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="K20" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L20" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M20" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
         <v>32000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44188</v>
+        <v>44223</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K22" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L22" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M22" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L23" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M23" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44166</v>
+        <v>44189</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,32 +2085,32 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K24" t="n">
-        <v>1700</v>
+        <v>30000</v>
       </c>
       <c r="L24" t="n">
-        <v>1800</v>
+        <v>30000</v>
       </c>
       <c r="M24" t="n">
-        <v>1756</v>
+        <v>30000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1756</v>
+        <v>1200</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44200</v>
+        <v>44166</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K25" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L25" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M25" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q25" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44231</v>
+        <v>44200</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L26" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M26" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1200</v>
+        <v>1280</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44242</v>
+        <v>44231</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K27" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L27" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M27" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44202</v>
+        <v>44242</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="K28" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L28" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M28" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44271</v>
+        <v>44202</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K29" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L29" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M29" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44259</v>
+        <v>44271</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L30" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M30" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44273</v>
+        <v>44259</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
         <v>25000</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44214</v>
+        <v>44273</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K32" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L32" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="M32" t="n">
-        <v>35429</v>
+        <v>25000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1417</v>
+        <v>1000</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K33" t="n">
         <v>35000</v>
       </c>
       <c r="L33" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M33" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44567</v>
+        <v>44214</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K34" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L34" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M34" t="n">
-        <v>27615</v>
+        <v>35000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1105</v>
+        <v>1400</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44267</v>
+        <v>44567</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K35" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L35" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M35" t="n">
-        <v>25000</v>
+        <v>27615</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1000</v>
+        <v>1105</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44215</v>
+        <v>44267</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K36" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L36" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M36" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K37" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L37" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M37" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L38" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M38" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="K39" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L39" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M39" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K40" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L40" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M40" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K41" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L41" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M41" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L42" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="M42" t="n">
-        <v>32806</v>
+        <v>27000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1312</v>
+        <v>1080</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="K43" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="L43" t="n">
-        <v>10000</v>
+        <v>34000</v>
       </c>
       <c r="M43" t="n">
-        <v>10000</v>
+        <v>32806</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>400</v>
+        <v>1312</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44239</v>
+        <v>44196</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="K44" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="L44" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="M44" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1160</v>
+        <v>400</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44208</v>
+        <v>44239</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="K45" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L45" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M45" t="n">
-        <v>27526</v>
+        <v>29000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1101</v>
+        <v>1160</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44552</v>
+        <v>44208</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K46" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="L46" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M46" t="n">
-        <v>45000</v>
+        <v>27526</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1800</v>
+        <v>1101</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44216</v>
+        <v>44552</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K47" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L47" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M47" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44558</v>
+        <v>44216</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="K48" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L48" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M48" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44278</v>
+        <v>44558</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="K49" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L49" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M49" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44193</v>
+        <v>44278</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K50" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L50" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M50" t="n">
-        <v>29542</v>
+        <v>23000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1182</v>
+        <v>920</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K51" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L51" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M51" t="n">
-        <v>22000</v>
+        <v>29542</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>880</v>
+        <v>1182</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K52" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L52" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M52" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1160</v>
+        <v>880</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44266</v>
+        <v>44236</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K53" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L53" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M53" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44279</v>
+        <v>44266</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K54" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L54" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M54" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K55" t="n">
         <v>23000</v>
@@ -4345,6 +4345,78 @@
         <v>25</v>
       </c>
       <c r="R55" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>95</v>
+      </c>
+      <c r="K56" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M56" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>25</v>
+      </c>
+      <c r="R56" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L54" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M54" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44279</v>
+        <v>44266</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K55" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L55" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M55" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K56" t="n">
         <v>23000</v>
@@ -4417,6 +4417,78 @@
         <v>25</v>
       </c>
       <c r="R56" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>95</v>
+      </c>
+      <c r="K57" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M57" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>25</v>
+      </c>
+      <c r="R57" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44242</v>
+        <v>44579</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L28" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M28" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44202</v>
+        <v>44242</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="K29" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L29" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M29" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44271</v>
+        <v>44202</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K30" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L30" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M30" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44259</v>
+        <v>44271</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K31" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L31" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M31" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44273</v>
+        <v>44259</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
         <v>25000</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44214</v>
+        <v>44273</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K33" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L33" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="M33" t="n">
-        <v>35429</v>
+        <v>25000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1417</v>
+        <v>1000</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K34" t="n">
         <v>35000</v>
       </c>
       <c r="L34" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M34" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44567</v>
+        <v>44214</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K35" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L35" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M35" t="n">
-        <v>27615</v>
+        <v>35000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1105</v>
+        <v>1400</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44267</v>
+        <v>44567</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K36" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L36" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M36" t="n">
-        <v>25000</v>
+        <v>27615</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1000</v>
+        <v>1105</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44215</v>
+        <v>44267</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K37" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L37" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M37" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L38" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M38" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L39" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M39" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="K40" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L40" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M40" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K41" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L41" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M41" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K42" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L42" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M42" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L43" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="M43" t="n">
-        <v>32806</v>
+        <v>27000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1312</v>
+        <v>1080</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="K44" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="L44" t="n">
-        <v>10000</v>
+        <v>34000</v>
       </c>
       <c r="M44" t="n">
-        <v>10000</v>
+        <v>32806</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>400</v>
+        <v>1312</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44239</v>
+        <v>44196</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="K45" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="L45" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="M45" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1160</v>
+        <v>400</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44208</v>
+        <v>44239</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="K46" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L46" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M46" t="n">
-        <v>27526</v>
+        <v>29000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1101</v>
+        <v>1160</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44552</v>
+        <v>44208</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K47" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="L47" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M47" t="n">
-        <v>45000</v>
+        <v>27526</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1800</v>
+        <v>1101</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44216</v>
+        <v>44552</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K48" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L48" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M48" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44558</v>
+        <v>44216</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="K49" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L49" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M49" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44278</v>
+        <v>44558</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L50" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M50" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44193</v>
+        <v>44278</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K51" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L51" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M51" t="n">
-        <v>29542</v>
+        <v>23000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1182</v>
+        <v>920</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K52" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L52" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M52" t="n">
-        <v>22000</v>
+        <v>29542</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>880</v>
+        <v>1182</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K53" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L53" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M53" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1160</v>
+        <v>880</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44578</v>
+        <v>44236</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K54" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L54" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M54" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L55" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M55" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44279</v>
+        <v>44266</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K56" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L56" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M56" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K57" t="n">
         <v>23000</v>
@@ -4489,6 +4489,78 @@
         <v>25</v>
       </c>
       <c r="R57" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9</v>
+      </c>
+      <c r="F58" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>95</v>
+      </c>
+      <c r="K58" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M58" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>25</v>
+      </c>
+      <c r="R58" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44223</v>
+        <v>44581</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L22" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M22" t="n">
-        <v>32000</v>
+        <v>28625</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1280</v>
+        <v>1145</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44188</v>
+        <v>44223</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K23" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L23" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M23" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K24" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L24" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M24" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44166</v>
+        <v>44189</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,32 +2157,32 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>1700</v>
+        <v>30000</v>
       </c>
       <c r="L25" t="n">
-        <v>1800</v>
+        <v>30000</v>
       </c>
       <c r="M25" t="n">
-        <v>1756</v>
+        <v>30000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1756</v>
+        <v>1200</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44200</v>
+        <v>44166</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K26" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L26" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M26" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q26" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44231</v>
+        <v>44200</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L27" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M27" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1200</v>
+        <v>1280</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44579</v>
+        <v>44231</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K28" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L28" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M28" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44242</v>
+        <v>44579</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L29" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M29" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44202</v>
+        <v>44242</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="K30" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L30" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M30" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44271</v>
+        <v>44202</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K31" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L31" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M31" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44259</v>
+        <v>44271</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K32" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L32" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M32" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44273</v>
+        <v>44259</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
         <v>25000</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44214</v>
+        <v>44273</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K34" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L34" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="M34" t="n">
-        <v>35429</v>
+        <v>25000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1417</v>
+        <v>1000</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K35" t="n">
         <v>35000</v>
       </c>
       <c r="L35" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M35" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44567</v>
+        <v>44214</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L36" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M36" t="n">
-        <v>27615</v>
+        <v>35000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1105</v>
+        <v>1400</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44267</v>
+        <v>44567</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K37" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L37" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M37" t="n">
-        <v>25000</v>
+        <v>27615</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1000</v>
+        <v>1105</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44215</v>
+        <v>44267</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K38" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L38" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M38" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K39" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L39" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M39" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K40" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L40" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M40" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="K41" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L41" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M41" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44218</v>
+        <v>44574</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K42" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L42" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M42" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K43" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L43" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M43" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L44" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="M44" t="n">
-        <v>32806</v>
+        <v>27000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1312</v>
+        <v>1080</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="K45" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="L45" t="n">
-        <v>10000</v>
+        <v>34000</v>
       </c>
       <c r="M45" t="n">
-        <v>10000</v>
+        <v>32806</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>400</v>
+        <v>1312</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44239</v>
+        <v>44196</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="K46" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="L46" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="M46" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1160</v>
+        <v>400</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44208</v>
+        <v>44239</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="K47" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L47" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M47" t="n">
-        <v>27526</v>
+        <v>29000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1101</v>
+        <v>1160</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44552</v>
+        <v>44208</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K48" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="L48" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M48" t="n">
-        <v>45000</v>
+        <v>27526</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1800</v>
+        <v>1101</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44216</v>
+        <v>44552</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K49" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L49" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M49" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44558</v>
+        <v>44216</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="K50" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L50" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M50" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44278</v>
+        <v>44558</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="K51" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L51" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M51" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44193</v>
+        <v>44278</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K52" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L52" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M52" t="n">
-        <v>29542</v>
+        <v>23000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1182</v>
+        <v>920</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K53" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L53" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M53" t="n">
-        <v>22000</v>
+        <v>29542</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>880</v>
+        <v>1182</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K54" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L54" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M54" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1160</v>
+        <v>880</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44578</v>
+        <v>44236</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K55" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L55" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M55" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L56" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M56" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44279</v>
+        <v>44266</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K57" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L57" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M57" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K58" t="n">
         <v>23000</v>
@@ -4561,6 +4561,78 @@
         <v>25</v>
       </c>
       <c r="R58" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>95</v>
+      </c>
+      <c r="K59" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M59" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>25</v>
+      </c>
+      <c r="R59" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44218</v>
+        <v>44582</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L43" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M43" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K44" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L44" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M44" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44221</v>
+        <v>44209</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L45" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="M45" t="n">
-        <v>32806</v>
+        <v>27000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1312</v>
+        <v>1080</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44196</v>
+        <v>44221</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="K46" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="L46" t="n">
-        <v>10000</v>
+        <v>34000</v>
       </c>
       <c r="M46" t="n">
-        <v>10000</v>
+        <v>32806</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>400</v>
+        <v>1312</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44239</v>
+        <v>44196</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="K47" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="L47" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="M47" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1160</v>
+        <v>400</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44208</v>
+        <v>44239</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="K48" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L48" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M48" t="n">
-        <v>27526</v>
+        <v>29000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1101</v>
+        <v>1160</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44552</v>
+        <v>44208</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K49" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="L49" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M49" t="n">
-        <v>45000</v>
+        <v>27526</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1800</v>
+        <v>1101</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44216</v>
+        <v>44552</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K50" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L50" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M50" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44558</v>
+        <v>44216</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="K51" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L51" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M51" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44278</v>
+        <v>44558</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="K52" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L52" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M52" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44193</v>
+        <v>44278</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K53" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L53" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M53" t="n">
-        <v>29542</v>
+        <v>23000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1182</v>
+        <v>920</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K54" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L54" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M54" t="n">
-        <v>22000</v>
+        <v>29542</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>880</v>
+        <v>1182</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K55" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L55" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M55" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1160</v>
+        <v>880</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44578</v>
+        <v>44236</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K56" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L56" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M56" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L57" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M57" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44279</v>
+        <v>44266</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K58" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L58" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M58" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K59" t="n">
         <v>23000</v>
@@ -4633,6 +4633,78 @@
         <v>25</v>
       </c>
       <c r="R59" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9</v>
+      </c>
+      <c r="F60" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>95</v>
+      </c>
+      <c r="K60" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M60" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>25</v>
+      </c>
+      <c r="R60" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L2" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M2" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44224</v>
+        <v>44216</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="K3" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L3" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M3" t="n">
-        <v>28909</v>
+        <v>35000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1156</v>
+        <v>1400</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44225</v>
+        <v>44214</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="K4" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M4" t="n">
-        <v>29130</v>
+        <v>35429</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1165</v>
+        <v>1417</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44243</v>
+        <v>44214</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L5" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M5" t="n">
-        <v>28448</v>
+        <v>35000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1138</v>
+        <v>1400</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
         <v>27000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44203</v>
+        <v>44575</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="K7" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L7" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M7" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44568</v>
+        <v>44243</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="K8" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L8" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M8" t="n">
-        <v>30000</v>
+        <v>28448</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1200</v>
+        <v>1138</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44553</v>
+        <v>44568</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L9" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44238</v>
+        <v>44245</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="K10" t="n">
         <v>28000</v>
@@ -1086,7 +1086,7 @@
         <v>29000</v>
       </c>
       <c r="M10" t="n">
-        <v>28568</v>
+        <v>28532</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44245</v>
+        <v>44196</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>28532</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1141</v>
+        <v>400</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K12" t="n">
         <v>32000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44235</v>
+        <v>44273</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="K13" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L13" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M13" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44559</v>
+        <v>44208</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="K14" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L14" t="n">
         <v>28000</v>
       </c>
       <c r="M14" t="n">
-        <v>28000</v>
+        <v>27526</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44559</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="K15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44249</v>
+        <v>44271</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L16" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M16" t="n">
-        <v>28543</v>
+        <v>23000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1142</v>
+        <v>920</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44575</v>
+        <v>44239</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="K17" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L17" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M17" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44195</v>
+        <v>44236</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="K18" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L18" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M18" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44244</v>
+        <v>44222</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K19" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L19" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M19" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44232</v>
+        <v>44195</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K20" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L20" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M20" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44217</v>
+        <v>44559</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K21" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L21" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M21" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44581</v>
+        <v>44559</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K22" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L22" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M22" t="n">
-        <v>28625</v>
+        <v>25000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1145</v>
+        <v>1000</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L23" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M23" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1280</v>
+        <v>1160</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44188</v>
+        <v>44215</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
         <v>35000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44189</v>
+        <v>44224</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="K25" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L25" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M25" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44166</v>
+        <v>44224</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="K26" t="n">
-        <v>1700</v>
+        <v>28000</v>
       </c>
       <c r="L26" t="n">
-        <v>1800</v>
+        <v>30000</v>
       </c>
       <c r="M26" t="n">
-        <v>1756</v>
+        <v>28909</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1756</v>
+        <v>1156</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44200</v>
+        <v>44579</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44231</v>
+        <v>44574</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="K28" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L28" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M28" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K29" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L29" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M29" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44242</v>
+        <v>44231</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K30" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L30" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M30" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44202</v>
+        <v>44578</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
         <v>28000</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44271</v>
+        <v>44232</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="K32" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L32" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M32" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44259</v>
+        <v>44553</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K33" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L33" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M33" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44273</v>
+        <v>44558</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K34" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L34" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M34" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44214</v>
+        <v>44238</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="K35" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L35" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M35" t="n">
-        <v>35429</v>
+        <v>28568</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44214</v>
+        <v>44267</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K36" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L36" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M36" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44567</v>
+        <v>44582</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L37" t="n">
         <v>28000</v>
       </c>
       <c r="M37" t="n">
-        <v>27615</v>
+        <v>28000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1105</v>
+        <v>1120</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44267</v>
+        <v>44235</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="K38" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L38" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M38" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44215</v>
+        <v>44242</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K39" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L39" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M39" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44204</v>
+        <v>44279</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3240,13 +3240,13 @@
         <v>50</v>
       </c>
       <c r="K40" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L40" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M40" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44574</v>
+        <v>44552</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="K41" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="L41" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M41" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1120</v>
+        <v>1800</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44574</v>
+        <v>44218</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K42" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L42" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M42" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44582</v>
+        <v>44217</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K43" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L43" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M43" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44218</v>
+        <v>44193</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K44" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L44" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M44" t="n">
-        <v>35000</v>
+        <v>29542</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1400</v>
+        <v>1182</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,32 +3597,32 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="K45" t="n">
-        <v>27000</v>
+        <v>1700</v>
       </c>
       <c r="L45" t="n">
-        <v>27000</v>
+        <v>1800</v>
       </c>
       <c r="M45" t="n">
-        <v>27000</v>
+        <v>1756</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1080</v>
+        <v>1756</v>
       </c>
       <c r="Q45" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44221</v>
+        <v>44200</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="K46" t="n">
         <v>32000</v>
       </c>
       <c r="L46" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="M46" t="n">
-        <v>32806</v>
+        <v>32000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1312</v>
+        <v>1280</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44196</v>
+        <v>44203</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K47" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="L47" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="M47" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44239</v>
+        <v>44203</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="K48" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L48" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M48" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44208</v>
+        <v>44581</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K49" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L49" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M49" t="n">
-        <v>27526</v>
+        <v>28625</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1101</v>
+        <v>1145</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44552</v>
+        <v>44567</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K50" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="L50" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M50" t="n">
-        <v>45000</v>
+        <v>27615</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1800</v>
+        <v>1105</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44216</v>
+        <v>44266</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K51" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L51" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M51" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44558</v>
+        <v>44277</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="K52" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L52" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M52" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44278</v>
+        <v>44202</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K53" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L53" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M53" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44193</v>
+        <v>44249</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="K54" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L54" t="n">
         <v>29000</v>
       </c>
-      <c r="L54" t="n">
-        <v>30000</v>
-      </c>
       <c r="M54" t="n">
-        <v>29542</v>
+        <v>28543</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1182</v>
+        <v>1142</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>350</v>
+        <v>115</v>
       </c>
       <c r="K55" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L55" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M55" t="n">
-        <v>22000</v>
+        <v>29130</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>880</v>
+        <v>1165</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44236</v>
+        <v>44259</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L56" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M56" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44578</v>
+        <v>44221</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="K57" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L57" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M57" t="n">
-        <v>28000</v>
+        <v>32806</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1120</v>
+        <v>1312</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44266</v>
+        <v>44278</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4536,13 +4536,13 @@
         <v>65</v>
       </c>
       <c r="K58" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L58" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M58" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44279</v>
+        <v>44189</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K59" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L59" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M59" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44277</v>
+        <v>44209</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L60" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M60" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44189</v>
+        <v>44585</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K59" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L59" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M59" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,58 +4653,130 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9</v>
+      </c>
+      <c r="F60" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M60" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>25</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
         <v>44209</v>
       </c>
-      <c r="E60" t="n">
-        <v>9</v>
-      </c>
-      <c r="F60" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
+      <c r="E61" t="n">
+        <v>9</v>
+      </c>
+      <c r="F61" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
         <v>100</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K61" t="n">
         <v>27000</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L61" t="n">
         <v>27000</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M61" t="n">
         <v>27000</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P60" t="n">
+      <c r="P61" t="n">
         <v>1080</v>
       </c>
-      <c r="Q60" t="n">
-        <v>25</v>
-      </c>
-      <c r="R60" t="inlineStr">
+      <c r="Q61" t="n">
+        <v>25</v>
+      </c>
+      <c r="R61" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44558</v>
+        <v>44586</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="K34" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L34" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M34" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44238</v>
+        <v>44558</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="K35" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L35" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M35" t="n">
-        <v>28568</v>
+        <v>30000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1143</v>
+        <v>1200</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44267</v>
+        <v>44238</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="K36" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L36" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M36" t="n">
-        <v>25000</v>
+        <v>28568</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44582</v>
+        <v>44267</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K37" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L37" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M37" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44235</v>
+        <v>44582</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L38" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M38" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="K39" t="n">
         <v>29000</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K40" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L40" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M40" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44552</v>
+        <v>44279</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K41" t="n">
-        <v>45000</v>
+        <v>23000</v>
       </c>
       <c r="L41" t="n">
-        <v>45000</v>
+        <v>23000</v>
       </c>
       <c r="M41" t="n">
-        <v>45000</v>
+        <v>23000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1800</v>
+        <v>920</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44218</v>
+        <v>44552</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K42" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L42" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M42" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K43" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L43" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M43" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1280</v>
+        <v>1400</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44193</v>
+        <v>44217</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K44" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L44" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M44" t="n">
-        <v>29542</v>
+        <v>32000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44166</v>
+        <v>44193</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,32 +3597,32 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="K45" t="n">
-        <v>1700</v>
+        <v>29000</v>
       </c>
       <c r="L45" t="n">
-        <v>1800</v>
+        <v>30000</v>
       </c>
       <c r="M45" t="n">
-        <v>1756</v>
+        <v>29542</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1756</v>
+        <v>1182</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44200</v>
+        <v>44166</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,32 +3669,32 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K46" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L46" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M46" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q46" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K47" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L47" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M47" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K48" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L48" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M48" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44581</v>
+        <v>44203</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K49" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L49" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M49" t="n">
-        <v>28625</v>
+        <v>25000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1145</v>
+        <v>1000</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44567</v>
+        <v>44581</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K50" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L50" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M50" t="n">
-        <v>27615</v>
+        <v>28625</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1105</v>
+        <v>1145</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44266</v>
+        <v>44567</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K51" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L51" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M51" t="n">
-        <v>25000</v>
+        <v>27615</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1000</v>
+        <v>1105</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44277</v>
+        <v>44266</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K52" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L52" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M52" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44202</v>
+        <v>44277</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K53" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L53" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M53" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44249</v>
+        <v>44202</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="K54" t="n">
         <v>28000</v>
       </c>
       <c r="L54" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M54" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="K55" t="n">
         <v>28000</v>
       </c>
       <c r="L55" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M55" t="n">
-        <v>29130</v>
+        <v>28543</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1165</v>
+        <v>1142</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K56" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L56" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M56" t="n">
-        <v>25000</v>
+        <v>29130</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1000</v>
+        <v>1165</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44221</v>
+        <v>44259</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L57" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M57" t="n">
-        <v>32806</v>
+        <v>25000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1312</v>
+        <v>1000</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44278</v>
+        <v>44221</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="K58" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L58" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M58" t="n">
-        <v>23000</v>
+        <v>32806</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>920</v>
+        <v>1312</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44585</v>
+        <v>44278</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K59" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L59" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M59" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44189</v>
+        <v>44585</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K60" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L60" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M60" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,58 +4725,130 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E61" t="n">
+        <v>9</v>
+      </c>
+      <c r="F61" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>10</v>
+      </c>
+      <c r="K61" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L61" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M61" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>25</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
         <v>44209</v>
       </c>
-      <c r="E61" t="n">
-        <v>9</v>
-      </c>
-      <c r="F61" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
         <v>100</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K62" t="n">
         <v>27000</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L62" t="n">
         <v>27000</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M62" t="n">
         <v>27000</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P61" t="n">
+      <c r="P62" t="n">
         <v>1080</v>
       </c>
-      <c r="Q61" t="n">
-        <v>25</v>
-      </c>
-      <c r="R61" t="inlineStr">
+      <c r="Q62" t="n">
+        <v>25</v>
+      </c>
+      <c r="R62" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K34" t="n">
         <v>28000</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44558</v>
+        <v>44586</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="K35" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L35" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M35" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44238</v>
+        <v>44558</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="K36" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L36" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M36" t="n">
-        <v>28568</v>
+        <v>30000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1143</v>
+        <v>1200</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44267</v>
+        <v>44238</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="K37" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L37" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M37" t="n">
-        <v>25000</v>
+        <v>28568</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44582</v>
+        <v>44267</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K38" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L38" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M38" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44235</v>
+        <v>44582</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L39" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M39" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="K40" t="n">
         <v>29000</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K41" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L41" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M41" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44552</v>
+        <v>44279</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K42" t="n">
-        <v>45000</v>
+        <v>23000</v>
       </c>
       <c r="L42" t="n">
-        <v>45000</v>
+        <v>23000</v>
       </c>
       <c r="M42" t="n">
-        <v>45000</v>
+        <v>23000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1800</v>
+        <v>920</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44218</v>
+        <v>44552</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K43" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L43" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M43" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K44" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L44" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M44" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1280</v>
+        <v>1400</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44193</v>
+        <v>44217</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K45" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L45" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M45" t="n">
-        <v>29542</v>
+        <v>32000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44166</v>
+        <v>44193</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,32 +3669,32 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="K46" t="n">
-        <v>1700</v>
+        <v>29000</v>
       </c>
       <c r="L46" t="n">
-        <v>1800</v>
+        <v>30000</v>
       </c>
       <c r="M46" t="n">
-        <v>1756</v>
+        <v>29542</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1756</v>
+        <v>1182</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44200</v>
+        <v>44166</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,32 +3741,32 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K47" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L47" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M47" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q47" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K48" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L48" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M48" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K49" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L49" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M49" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44581</v>
+        <v>44203</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K50" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L50" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M50" t="n">
-        <v>28625</v>
+        <v>25000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1145</v>
+        <v>1000</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44567</v>
+        <v>44581</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K51" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L51" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M51" t="n">
-        <v>27615</v>
+        <v>28625</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1105</v>
+        <v>1145</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44266</v>
+        <v>44567</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K52" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L52" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M52" t="n">
-        <v>25000</v>
+        <v>27615</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1000</v>
+        <v>1105</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44277</v>
+        <v>44266</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K53" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L53" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M53" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44202</v>
+        <v>44277</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K54" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L54" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M54" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44249</v>
+        <v>44202</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="K55" t="n">
         <v>28000</v>
       </c>
       <c r="L55" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M55" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="K56" t="n">
         <v>28000</v>
       </c>
       <c r="L56" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M56" t="n">
-        <v>29130</v>
+        <v>28543</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1165</v>
+        <v>1142</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K57" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L57" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M57" t="n">
-        <v>25000</v>
+        <v>29130</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1000</v>
+        <v>1165</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44221</v>
+        <v>44259</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L58" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M58" t="n">
-        <v>32806</v>
+        <v>25000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1312</v>
+        <v>1000</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44278</v>
+        <v>44221</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="K59" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L59" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M59" t="n">
-        <v>23000</v>
+        <v>32806</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>920</v>
+        <v>1312</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44585</v>
+        <v>44278</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K60" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L60" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M60" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44189</v>
+        <v>44585</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K61" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L61" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M61" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,58 +4797,130 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>10</v>
+      </c>
+      <c r="K62" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L62" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M62" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>25</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
         <v>44209</v>
       </c>
-      <c r="E62" t="n">
-        <v>9</v>
-      </c>
-      <c r="F62" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
+      <c r="E63" t="n">
+        <v>9</v>
+      </c>
+      <c r="F63" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
         <v>100</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K63" t="n">
         <v>27000</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L63" t="n">
         <v>27000</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M63" t="n">
         <v>27000</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P62" t="n">
+      <c r="P63" t="n">
         <v>1080</v>
       </c>
-      <c r="Q62" t="n">
-        <v>25</v>
-      </c>
-      <c r="R62" t="inlineStr">
+      <c r="Q63" t="n">
+        <v>25</v>
+      </c>
+      <c r="R63" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44266</v>
+        <v>44588</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="K53" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L53" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M53" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44277</v>
+        <v>44266</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K54" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L54" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M54" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44202</v>
+        <v>44277</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K55" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L55" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M55" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44249</v>
+        <v>44202</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="K56" t="n">
         <v>28000</v>
       </c>
       <c r="L56" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M56" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="K57" t="n">
         <v>28000</v>
       </c>
       <c r="L57" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M57" t="n">
-        <v>29130</v>
+        <v>28543</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1165</v>
+        <v>1142</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K58" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L58" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M58" t="n">
-        <v>25000</v>
+        <v>29130</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1000</v>
+        <v>1165</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44221</v>
+        <v>44259</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L59" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M59" t="n">
-        <v>32806</v>
+        <v>25000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1312</v>
+        <v>1000</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44278</v>
+        <v>44221</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="K60" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L60" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M60" t="n">
-        <v>23000</v>
+        <v>32806</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>920</v>
+        <v>1312</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44585</v>
+        <v>44278</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K61" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L61" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M61" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44189</v>
+        <v>44585</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K62" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L62" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M62" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,58 +4869,130 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E63" t="n">
+        <v>9</v>
+      </c>
+      <c r="F63" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>10</v>
+      </c>
+      <c r="K63" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L63" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M63" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>25</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
         <v>44209</v>
       </c>
-      <c r="E63" t="n">
-        <v>9</v>
-      </c>
-      <c r="F63" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
+      <c r="E64" t="n">
+        <v>9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
         <v>100</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K64" t="n">
         <v>27000</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L64" t="n">
         <v>27000</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M64" t="n">
         <v>27000</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P63" t="n">
+      <c r="P64" t="n">
         <v>1080</v>
       </c>
-      <c r="Q63" t="n">
-        <v>25</v>
-      </c>
-      <c r="R63" t="inlineStr">
+      <c r="Q64" t="n">
+        <v>25</v>
+      </c>
+      <c r="R64" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44238</v>
+        <v>44589</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="K37" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L37" t="n">
         <v>28000</v>
       </c>
-      <c r="L37" t="n">
-        <v>29000</v>
-      </c>
       <c r="M37" t="n">
-        <v>28568</v>
+        <v>26179</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1143</v>
+        <v>1047</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44267</v>
+        <v>44238</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="K38" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L38" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M38" t="n">
-        <v>25000</v>
+        <v>28568</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44582</v>
+        <v>44267</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K39" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L39" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M39" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44235</v>
+        <v>44582</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K40" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L40" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M40" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="K41" t="n">
         <v>29000</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K42" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L42" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M42" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44552</v>
+        <v>44279</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>45000</v>
+        <v>23000</v>
       </c>
       <c r="L43" t="n">
-        <v>45000</v>
+        <v>23000</v>
       </c>
       <c r="M43" t="n">
-        <v>45000</v>
+        <v>23000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1800</v>
+        <v>920</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44218</v>
+        <v>44552</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K44" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L44" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M44" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L45" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M45" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1280</v>
+        <v>1400</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44193</v>
+        <v>44217</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K46" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L46" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M46" t="n">
-        <v>29542</v>
+        <v>32000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44166</v>
+        <v>44193</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,32 +3741,32 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="K47" t="n">
-        <v>1700</v>
+        <v>29000</v>
       </c>
       <c r="L47" t="n">
-        <v>1800</v>
+        <v>30000</v>
       </c>
       <c r="M47" t="n">
-        <v>1756</v>
+        <v>29542</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1756</v>
+        <v>1182</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44200</v>
+        <v>44166</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,32 +3813,32 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K48" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L48" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M48" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q48" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K49" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L49" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M49" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K50" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L50" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M50" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44581</v>
+        <v>44203</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K51" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L51" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M51" t="n">
-        <v>28625</v>
+        <v>25000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1145</v>
+        <v>1000</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44567</v>
+        <v>44581</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K52" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L52" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M52" t="n">
-        <v>27615</v>
+        <v>28625</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1105</v>
+        <v>1145</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44588</v>
+        <v>44567</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="K53" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L53" t="n">
         <v>28000</v>
       </c>
       <c r="M53" t="n">
-        <v>28000</v>
+        <v>27615</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44266</v>
+        <v>44588</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="K54" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L54" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M54" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44277</v>
+        <v>44266</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K55" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L55" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M55" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44202</v>
+        <v>44277</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K56" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L56" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M56" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44249</v>
+        <v>44202</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="K57" t="n">
         <v>28000</v>
       </c>
       <c r="L57" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M57" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="K58" t="n">
         <v>28000</v>
       </c>
       <c r="L58" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M58" t="n">
-        <v>29130</v>
+        <v>28543</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1165</v>
+        <v>1142</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K59" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L59" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M59" t="n">
-        <v>25000</v>
+        <v>29130</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1000</v>
+        <v>1165</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44221</v>
+        <v>44259</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L60" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M60" t="n">
-        <v>32806</v>
+        <v>25000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1312</v>
+        <v>1000</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44278</v>
+        <v>44221</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="K61" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L61" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M61" t="n">
-        <v>23000</v>
+        <v>32806</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>920</v>
+        <v>1312</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44585</v>
+        <v>44278</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K62" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L62" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M62" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44189</v>
+        <v>44585</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K63" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L63" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M63" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,58 +4941,130 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>10</v>
+      </c>
+      <c r="K64" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L64" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M64" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>25</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
         <v>44209</v>
       </c>
-      <c r="E64" t="n">
-        <v>9</v>
-      </c>
-      <c r="F64" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
+      <c r="E65" t="n">
+        <v>9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
         <v>100</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K65" t="n">
         <v>27000</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L65" t="n">
         <v>27000</v>
       </c>
-      <c r="M64" t="n">
+      <c r="M65" t="n">
         <v>27000</v>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P64" t="n">
+      <c r="P65" t="n">
         <v>1080</v>
       </c>
-      <c r="Q64" t="n">
-        <v>25</v>
-      </c>
-      <c r="R64" t="inlineStr">
+      <c r="Q65" t="n">
+        <v>25</v>
+      </c>
+      <c r="R65" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44188</v>
+        <v>44215</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
         <v>35000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44216</v>
+        <v>44267</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K3" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L3" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M3" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44214</v>
+        <v>44558</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="K4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>35429</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1417</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44214</v>
+        <v>44585</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L5" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M5" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44204</v>
+        <v>44575</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K6" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L6" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M6" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44575</v>
+        <v>44239</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="K7" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L7" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M7" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44243</v>
+        <v>44273</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L8" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M8" t="n">
-        <v>28448</v>
+        <v>25000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1138</v>
+        <v>1000</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44568</v>
+        <v>44266</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K9" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M9" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44245</v>
+        <v>44218</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L10" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M10" t="n">
-        <v>28532</v>
+        <v>35000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1141</v>
+        <v>1400</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44196</v>
+        <v>44559</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>400</v>
+        <v>1120</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44223</v>
+        <v>44559</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L12" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M12" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44273</v>
+        <v>44259</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
         <v>25000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44208</v>
+        <v>44243</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="K14" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L14" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M14" t="n">
-        <v>27526</v>
+        <v>28448</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1101</v>
+        <v>1138</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="K15" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="L15" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M15" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44271</v>
+        <v>44224</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="K16" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L16" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M16" t="n">
-        <v>23000</v>
+        <v>28909</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>920</v>
+        <v>1156</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44239</v>
+        <v>44216</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="K17" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L17" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M17" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44236</v>
+        <v>44189</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L18" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44222</v>
+        <v>44235</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="K19" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L19" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M19" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1280</v>
+        <v>1160</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44195</v>
+        <v>44209</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L20" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M20" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44559</v>
+        <v>44587</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K21" t="n">
         <v>28000</v>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P21" t="n">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44559</v>
+        <v>44222</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="K22" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L22" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M22" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44244</v>
+        <v>44278</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K23" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L23" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M23" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44215</v>
+        <v>44203</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L24" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M24" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1400</v>
+        <v>1080</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44224</v>
+        <v>44203</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="K25" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L25" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M25" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44224</v>
+        <v>44245</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="K26" t="n">
         <v>28000</v>
       </c>
       <c r="L26" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M26" t="n">
-        <v>28909</v>
+        <v>28532</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44579</v>
+        <v>44586</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K27" t="n">
         <v>28000</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44231</v>
+        <v>44589</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="K30" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L30" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M30" t="n">
-        <v>30000</v>
+        <v>26179</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1200</v>
+        <v>1047</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44578</v>
+        <v>44582</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
         <v>28000</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44232</v>
+        <v>44588</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="K32" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L32" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M32" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44553</v>
+        <v>44202</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K33" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L33" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M33" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1800</v>
+        <v>1120</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44587</v>
+        <v>44204</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K34" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L34" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M34" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44586</v>
+        <v>44244</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K35" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L35" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M35" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44558</v>
+        <v>44194</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>28</v>
+        <v>350</v>
       </c>
       <c r="K36" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L36" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M36" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44589</v>
+        <v>44217</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K37" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L37" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M37" t="n">
-        <v>26179</v>
+        <v>32000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1047</v>
+        <v>1280</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44267</v>
+        <v>44242</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="K39" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L39" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M39" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44582</v>
+        <v>44188</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3240,13 +3240,13 @@
         <v>50</v>
       </c>
       <c r="K40" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L40" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M40" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44235</v>
+        <v>44166</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,32 +3309,32 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="K41" t="n">
-        <v>29000</v>
+        <v>1700</v>
       </c>
       <c r="L41" t="n">
-        <v>29000</v>
+        <v>1800</v>
       </c>
       <c r="M41" t="n">
-        <v>29000</v>
+        <v>1756</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1160</v>
+        <v>1756</v>
       </c>
       <c r="Q41" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44242</v>
+        <v>44223</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K42" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L42" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M42" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44279</v>
+        <v>44579</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3456,13 +3456,13 @@
         <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L43" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M43" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44552</v>
+        <v>44249</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="K44" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L44" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M44" t="n">
-        <v>45000</v>
+        <v>28543</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1800</v>
+        <v>1142</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44218</v>
+        <v>44196</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K45" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="L45" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M45" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44217</v>
+        <v>44195</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="K46" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L46" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M46" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44193</v>
+        <v>44578</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L47" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M47" t="n">
-        <v>29542</v>
+        <v>28000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1182</v>
+        <v>1120</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44166</v>
+        <v>44225</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,32 +3813,32 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="K48" t="n">
-        <v>1700</v>
+        <v>28000</v>
       </c>
       <c r="L48" t="n">
-        <v>1800</v>
+        <v>30000</v>
       </c>
       <c r="M48" t="n">
-        <v>1756</v>
+        <v>29130</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1756</v>
+        <v>1165</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44200</v>
+        <v>44271</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K49" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L49" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M49" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44203</v>
+        <v>44568</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K50" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L50" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M50" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44203</v>
+        <v>44231</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K51" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L51" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M51" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44581</v>
+        <v>44193</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K52" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L52" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M52" t="n">
-        <v>28625</v>
+        <v>29542</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1145</v>
+        <v>1182</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44588</v>
+        <v>44581</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="K54" t="n">
         <v>28000</v>
       </c>
       <c r="L54" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M54" t="n">
-        <v>28000</v>
+        <v>28625</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1120</v>
+        <v>1145</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44266</v>
+        <v>44553</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="K55" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L55" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M55" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44277</v>
+        <v>44208</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4392,13 +4392,13 @@
         <v>95</v>
       </c>
       <c r="K56" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L56" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M56" t="n">
-        <v>23000</v>
+        <v>27526</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>920</v>
+        <v>1101</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44202</v>
+        <v>44232</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K57" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L57" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M57" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44249</v>
+        <v>44279</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K58" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L58" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M58" t="n">
-        <v>28543</v>
+        <v>23000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1142</v>
+        <v>920</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44225</v>
+        <v>44200</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K59" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L59" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M59" t="n">
-        <v>29130</v>
+        <v>32000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1165</v>
+        <v>1280</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44259</v>
+        <v>44236</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K60" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L60" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M60" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44278</v>
+        <v>44214</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K62" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L62" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="M62" t="n">
-        <v>23000</v>
+        <v>35429</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>920</v>
+        <v>1417</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44585</v>
+        <v>44214</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K63" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L63" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M63" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44189</v>
+        <v>44277</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="K64" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L64" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M64" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44209</v>
+        <v>44552</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K65" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L65" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M65" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1080</v>
+        <v>1800</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5013,58 +5013,130 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>100</v>
+      </c>
+      <c r="K65" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L65" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M65" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>25</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E65" t="n">
-        <v>9</v>
-      </c>
-      <c r="F65" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
+      <c r="E66" t="n">
+        <v>9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
         <v>110</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K66" t="n">
         <v>45000</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L66" t="n">
         <v>45000</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M66" t="n">
         <v>45000</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P65" t="n">
+      <c r="P66" t="n">
         <v>1800</v>
       </c>
-      <c r="Q65" t="n">
-        <v>25</v>
-      </c>
-      <c r="R65" t="inlineStr">
+      <c r="Q66" t="n">
+        <v>25</v>
+      </c>
+      <c r="R66" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44238</v>
+        <v>44596</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="K38" t="n">
         <v>28000</v>
       </c>
       <c r="L38" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M38" t="n">
-        <v>28568</v>
+        <v>28000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K39" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L39" t="n">
         <v>29000</v>
       </c>
       <c r="M39" t="n">
-        <v>29000</v>
+        <v>28568</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44188</v>
+        <v>44242</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K40" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L40" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M40" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,32 +3309,32 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K41" t="n">
-        <v>1700</v>
+        <v>35000</v>
       </c>
       <c r="L41" t="n">
-        <v>1800</v>
+        <v>35000</v>
       </c>
       <c r="M41" t="n">
-        <v>1756</v>
+        <v>35000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1756</v>
+        <v>1400</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,32 +3381,32 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K42" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L42" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M42" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q42" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44579</v>
+        <v>44223</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K43" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L43" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M43" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44249</v>
+        <v>44579</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K44" t="n">
         <v>28000</v>
       </c>
       <c r="L44" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M44" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44196</v>
+        <v>44249</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="K45" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L45" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M45" t="n">
-        <v>10000</v>
+        <v>28543</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>400</v>
+        <v>1142</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="K46" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L46" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M46" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44578</v>
+        <v>44195</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K47" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L47" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M47" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
         <v>28000</v>
       </c>
       <c r="L48" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M48" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K49" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L49" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M49" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44568</v>
+        <v>44271</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K50" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L50" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M50" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K51" t="n">
         <v>30000</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K52" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L52" t="n">
         <v>30000</v>
       </c>
       <c r="M52" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44567</v>
+        <v>44193</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K53" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L53" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M53" t="n">
-        <v>27615</v>
+        <v>29542</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1105</v>
+        <v>1182</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K54" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L54" t="n">
         <v>28000</v>
       </c>
-      <c r="L54" t="n">
-        <v>29000</v>
-      </c>
       <c r="M54" t="n">
-        <v>28625</v>
+        <v>27615</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K55" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L55" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M55" t="n">
-        <v>45000</v>
+        <v>28625</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1800</v>
+        <v>1145</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4392,13 +4392,13 @@
         <v>95</v>
       </c>
       <c r="K56" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L56" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M56" t="n">
-        <v>27526</v>
+        <v>45000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1101</v>
+        <v>1800</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K57" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L57" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M57" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K58" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L58" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M58" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44200</v>
+        <v>44279</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K59" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L59" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M59" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K60" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L60" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M60" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K61" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L61" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M61" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K62" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L62" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M62" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K63" t="n">
         <v>35000</v>
       </c>
       <c r="L63" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M63" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44277</v>
+        <v>44214</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K64" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L64" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M64" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K65" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L65" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M65" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,58 +5085,130 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E66" t="n">
+        <v>9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>100</v>
+      </c>
+      <c r="K66" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L66" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M66" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>25</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E66" t="n">
-        <v>9</v>
-      </c>
-      <c r="F66" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
+      <c r="E67" t="n">
+        <v>9</v>
+      </c>
+      <c r="F67" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
         <v>110</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K67" t="n">
         <v>45000</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L67" t="n">
         <v>45000</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M67" t="n">
         <v>45000</v>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P66" t="n">
+      <c r="P67" t="n">
         <v>1800</v>
       </c>
-      <c r="Q66" t="n">
-        <v>25</v>
-      </c>
-      <c r="R66" t="inlineStr">
+      <c r="Q67" t="n">
+        <v>25</v>
+      </c>
+      <c r="R67" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44216</v>
+        <v>44600</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="K17" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L17" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M17" t="n">
-        <v>35000</v>
+        <v>25828</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1400</v>
+        <v>1033</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K18" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L18" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M18" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44235</v>
+        <v>44189</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L19" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M19" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44209</v>
+        <v>44235</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K20" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L20" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M20" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44587</v>
+        <v>44209</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L21" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M21" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44222</v>
+        <v>44587</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K22" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L22" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M22" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44278</v>
+        <v>44222</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K23" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L23" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M23" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>920</v>
+        <v>1280</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44203</v>
+        <v>44278</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K24" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L24" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M24" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L25" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M25" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44245</v>
+        <v>44203</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="K26" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L26" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M26" t="n">
-        <v>28532</v>
+        <v>25000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1141</v>
+        <v>1000</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44586</v>
+        <v>44245</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="K27" t="n">
         <v>28000</v>
       </c>
       <c r="L27" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M27" t="n">
-        <v>28000</v>
+        <v>28532</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44574</v>
+        <v>44586</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="K28" t="n">
         <v>28000</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="K29" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L29" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M29" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44589</v>
+        <v>44574</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="K30" t="n">
         <v>25000</v>
       </c>
       <c r="L30" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M30" t="n">
-        <v>26179</v>
+        <v>25000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44582</v>
+        <v>44589</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K31" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L31" t="n">
         <v>28000</v>
       </c>
       <c r="M31" t="n">
-        <v>28000</v>
+        <v>26179</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44588</v>
+        <v>44582</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="K32" t="n">
         <v>28000</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44202</v>
+        <v>44588</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="K33" t="n">
         <v>28000</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K34" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L34" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M34" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K35" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L35" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M35" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44194</v>
+        <v>44244</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L36" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M36" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>880</v>
+        <v>1160</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K37" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="L37" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M37" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1280</v>
+        <v>880</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44596</v>
+        <v>44217</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K38" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L38" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M38" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44238</v>
+        <v>44596</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="K39" t="n">
         <v>28000</v>
       </c>
       <c r="L39" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M39" t="n">
-        <v>28568</v>
+        <v>28000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K40" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L40" t="n">
         <v>29000</v>
       </c>
       <c r="M40" t="n">
-        <v>29000</v>
+        <v>28568</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44188</v>
+        <v>44242</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K41" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L41" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M41" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,32 +3381,32 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K42" t="n">
-        <v>1700</v>
+        <v>35000</v>
       </c>
       <c r="L42" t="n">
-        <v>1800</v>
+        <v>35000</v>
       </c>
       <c r="M42" t="n">
-        <v>1756</v>
+        <v>35000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1756</v>
+        <v>1400</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K43" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L43" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M43" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q43" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44579</v>
+        <v>44223</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K44" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L44" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M44" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44249</v>
+        <v>44579</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K45" t="n">
         <v>28000</v>
       </c>
       <c r="L45" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M45" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44196</v>
+        <v>44249</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="K46" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L46" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M46" t="n">
-        <v>10000</v>
+        <v>28543</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>400</v>
+        <v>1142</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="K47" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L47" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M47" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44578</v>
+        <v>44195</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K48" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L48" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M48" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
         <v>28000</v>
       </c>
       <c r="L49" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M49" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K50" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L50" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M50" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44568</v>
+        <v>44271</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K51" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L51" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M51" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K52" t="n">
         <v>30000</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K53" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L53" t="n">
         <v>30000</v>
       </c>
       <c r="M53" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44567</v>
+        <v>44193</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K54" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L54" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M54" t="n">
-        <v>27615</v>
+        <v>29542</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1105</v>
+        <v>1182</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K55" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L55" t="n">
         <v>28000</v>
       </c>
-      <c r="L55" t="n">
-        <v>29000</v>
-      </c>
       <c r="M55" t="n">
-        <v>28625</v>
+        <v>27615</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K56" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L56" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M56" t="n">
-        <v>45000</v>
+        <v>28625</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1800</v>
+        <v>1145</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4464,13 +4464,13 @@
         <v>95</v>
       </c>
       <c r="K57" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L57" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M57" t="n">
-        <v>27526</v>
+        <v>45000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1101</v>
+        <v>1800</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K58" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L58" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M58" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K59" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L59" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M59" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44200</v>
+        <v>44279</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K60" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L60" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M60" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K61" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L61" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M61" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K62" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L62" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M62" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K63" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L63" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M63" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K64" t="n">
         <v>35000</v>
       </c>
       <c r="L64" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M64" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44277</v>
+        <v>44214</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K65" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L65" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M65" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K66" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L66" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M66" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,58 +5157,130 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E67" t="n">
+        <v>9</v>
+      </c>
+      <c r="F67" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>100</v>
+      </c>
+      <c r="K67" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L67" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M67" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>25</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E67" t="n">
-        <v>9</v>
-      </c>
-      <c r="F67" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
+      <c r="E68" t="n">
+        <v>9</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
         <v>110</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K68" t="n">
         <v>45000</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L68" t="n">
         <v>45000</v>
       </c>
-      <c r="M67" t="n">
+      <c r="M68" t="n">
         <v>45000</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P67" t="n">
+      <c r="P68" t="n">
         <v>1800</v>
       </c>
-      <c r="Q67" t="n">
-        <v>25</v>
-      </c>
-      <c r="R67" t="inlineStr">
+      <c r="Q68" t="n">
+        <v>25</v>
+      </c>
+      <c r="R68" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44589</v>
+        <v>44601</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="K31" t="n">
         <v>25000</v>
       </c>
       <c r="L31" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M31" t="n">
-        <v>26179</v>
+        <v>25000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44582</v>
+        <v>44589</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K32" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L32" t="n">
         <v>28000</v>
       </c>
       <c r="M32" t="n">
-        <v>28000</v>
+        <v>26179</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44588</v>
+        <v>44582</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="K33" t="n">
         <v>28000</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44202</v>
+        <v>44588</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="K34" t="n">
         <v>28000</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K35" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L35" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M35" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L36" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M36" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44194</v>
+        <v>44244</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="K37" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L37" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M37" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>880</v>
+        <v>1160</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K38" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="L38" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M38" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1280</v>
+        <v>880</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44596</v>
+        <v>44217</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K39" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L39" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M39" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44238</v>
+        <v>44596</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="K40" t="n">
         <v>28000</v>
       </c>
       <c r="L40" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M40" t="n">
-        <v>28568</v>
+        <v>28000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K41" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L41" t="n">
         <v>29000</v>
       </c>
       <c r="M41" t="n">
-        <v>29000</v>
+        <v>28568</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44188</v>
+        <v>44242</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K42" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L42" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M42" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>1700</v>
+        <v>35000</v>
       </c>
       <c r="L43" t="n">
-        <v>1800</v>
+        <v>35000</v>
       </c>
       <c r="M43" t="n">
-        <v>1756</v>
+        <v>35000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1756</v>
+        <v>1400</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K44" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L44" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M44" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q44" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44579</v>
+        <v>44223</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K45" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L45" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M45" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44249</v>
+        <v>44579</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K46" t="n">
         <v>28000</v>
       </c>
       <c r="L46" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M46" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44196</v>
+        <v>44249</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="K47" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L47" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M47" t="n">
-        <v>10000</v>
+        <v>28543</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>400</v>
+        <v>1142</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="K48" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L48" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M48" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44578</v>
+        <v>44195</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K49" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L49" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M49" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K50" t="n">
         <v>28000</v>
       </c>
       <c r="L50" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M50" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K51" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L51" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M51" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44568</v>
+        <v>44271</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K52" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L52" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M52" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K53" t="n">
         <v>30000</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K54" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L54" t="n">
         <v>30000</v>
       </c>
       <c r="M54" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44567</v>
+        <v>44193</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K55" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L55" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M55" t="n">
-        <v>27615</v>
+        <v>29542</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1105</v>
+        <v>1182</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K56" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L56" t="n">
         <v>28000</v>
       </c>
-      <c r="L56" t="n">
-        <v>29000</v>
-      </c>
       <c r="M56" t="n">
-        <v>28625</v>
+        <v>27615</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K57" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L57" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M57" t="n">
-        <v>45000</v>
+        <v>28625</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1800</v>
+        <v>1145</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4536,13 +4536,13 @@
         <v>95</v>
       </c>
       <c r="K58" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L58" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M58" t="n">
-        <v>27526</v>
+        <v>45000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1101</v>
+        <v>1800</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K59" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L59" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M59" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K60" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L60" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M60" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44200</v>
+        <v>44279</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K61" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L61" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M61" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K62" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L62" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M62" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K63" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L63" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M63" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K64" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L64" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M64" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K65" t="n">
         <v>35000</v>
       </c>
       <c r="L65" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M65" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44277</v>
+        <v>44214</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K66" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L66" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M66" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K67" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L67" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M67" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,58 +5229,130 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E68" t="n">
+        <v>9</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>100</v>
+      </c>
+      <c r="K68" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L68" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M68" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>25</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E68" t="n">
-        <v>9</v>
-      </c>
-      <c r="F68" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
+      <c r="E69" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
         <v>110</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K69" t="n">
         <v>45000</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L69" t="n">
         <v>45000</v>
       </c>
-      <c r="M68" t="n">
+      <c r="M69" t="n">
         <v>45000</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P68" t="n">
+      <c r="P69" t="n">
         <v>1800</v>
       </c>
-      <c r="Q68" t="n">
-        <v>25</v>
-      </c>
-      <c r="R68" t="inlineStr">
+      <c r="Q69" t="n">
+        <v>25</v>
+      </c>
+      <c r="R69" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44266</v>
+        <v>44602</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K9" t="n">
         <v>25000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44218</v>
+        <v>44602</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K10" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L10" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M10" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1400</v>
+        <v>1080</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44559</v>
+        <v>44266</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K11" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L11" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M11" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44559</v>
+        <v>44218</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L12" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M12" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44259</v>
+        <v>44559</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L13" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M13" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44243</v>
+        <v>44559</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L14" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M14" t="n">
-        <v>28448</v>
+        <v>25000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1138</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44224</v>
+        <v>44259</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L15" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M15" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44224</v>
+        <v>44243</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>330</v>
+        <v>145</v>
       </c>
       <c r="K16" t="n">
         <v>28000</v>
       </c>
       <c r="L16" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M16" t="n">
-        <v>28909</v>
+        <v>28448</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1156</v>
+        <v>1138</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44600</v>
+        <v>44224</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>145</v>
+        <v>380</v>
       </c>
       <c r="K17" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L17" t="n">
         <v>27000</v>
       </c>
       <c r="M17" t="n">
-        <v>25828</v>
+        <v>27000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1033</v>
+        <v>1080</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44216</v>
+        <v>44224</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="K18" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L18" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="n">
-        <v>35000</v>
+        <v>28909</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1400</v>
+        <v>1156</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44189</v>
+        <v>44600</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="K19" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L19" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M19" t="n">
-        <v>30000</v>
+        <v>25828</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44235</v>
+        <v>44216</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="K20" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L20" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M20" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K21" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L21" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M21" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44587</v>
+        <v>44235</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="K22" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L22" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M22" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44222</v>
+        <v>44209</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L23" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M23" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1280</v>
+        <v>1080</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44278</v>
+        <v>44587</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="K24" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L24" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M24" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44203</v>
+        <v>44222</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K25" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L25" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M25" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44203</v>
+        <v>44278</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K26" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L26" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M26" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44245</v>
+        <v>44203</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="K27" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L27" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M27" t="n">
-        <v>28532</v>
+        <v>27000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1141</v>
+        <v>1080</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44586</v>
+        <v>44203</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K28" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L28" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M28" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44574</v>
+        <v>44245</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K29" t="n">
         <v>28000</v>
       </c>
       <c r="L29" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M29" t="n">
-        <v>28000</v>
+        <v>28532</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44574</v>
+        <v>44586</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="K30" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L30" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M30" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44601</v>
+        <v>44574</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="K31" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L31" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M31" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44589</v>
+        <v>44574</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="K32" t="n">
         <v>25000</v>
       </c>
       <c r="L32" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M32" t="n">
-        <v>26179</v>
+        <v>25000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44582</v>
+        <v>44601</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K33" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L33" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M33" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="K34" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L34" t="n">
         <v>28000</v>
       </c>
       <c r="M34" t="n">
-        <v>28000</v>
+        <v>26179</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44202</v>
+        <v>44582</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K35" t="n">
         <v>28000</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44204</v>
+        <v>44588</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="K36" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L36" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M36" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44244</v>
+        <v>44202</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K37" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L37" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M37" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44194</v>
+        <v>44204</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="L38" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M38" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44217</v>
+        <v>44244</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K39" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L39" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M39" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1280</v>
+        <v>1160</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44596</v>
+        <v>44194</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="K40" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L40" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M40" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1120</v>
+        <v>880</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44238</v>
+        <v>44217</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K41" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L41" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M41" t="n">
-        <v>28568</v>
+        <v>32000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1143</v>
+        <v>1280</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44242</v>
+        <v>44596</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="K42" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L42" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M42" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K43" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L43" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M43" t="n">
-        <v>35000</v>
+        <v>28568</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1400</v>
+        <v>1143</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44166</v>
+        <v>44242</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="K44" t="n">
-        <v>1700</v>
+        <v>29000</v>
       </c>
       <c r="L44" t="n">
-        <v>1800</v>
+        <v>29000</v>
       </c>
       <c r="M44" t="n">
-        <v>1756</v>
+        <v>29000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1756</v>
+        <v>1160</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44223</v>
+        <v>44188</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K45" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L45" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M45" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1280</v>
+        <v>1400</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44579</v>
+        <v>44166</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,32 +3669,32 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K46" t="n">
-        <v>28000</v>
+        <v>1700</v>
       </c>
       <c r="L46" t="n">
-        <v>28000</v>
+        <v>1800</v>
       </c>
       <c r="M46" t="n">
-        <v>28000</v>
+        <v>1756</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1120</v>
+        <v>1756</v>
       </c>
       <c r="Q46" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44249</v>
+        <v>44223</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="K47" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L47" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M47" t="n">
-        <v>28543</v>
+        <v>32000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1142</v>
+        <v>1280</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44196</v>
+        <v>44579</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K48" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L48" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="M48" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>400</v>
+        <v>1120</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44195</v>
+        <v>44249</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="K49" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L49" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M49" t="n">
-        <v>25000</v>
+        <v>28543</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1000</v>
+        <v>1142</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44578</v>
+        <v>44196</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K50" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="L50" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="M50" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1120</v>
+        <v>400</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44225</v>
+        <v>44195</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="K51" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L51" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M51" t="n">
-        <v>29130</v>
+        <v>25000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1165</v>
+        <v>1000</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44271</v>
+        <v>44578</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L52" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M52" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44568</v>
+        <v>44225</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K53" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L53" t="n">
         <v>30000</v>
       </c>
       <c r="M53" t="n">
-        <v>30000</v>
+        <v>29130</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1200</v>
+        <v>1165</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44231</v>
+        <v>44271</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K54" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L54" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M54" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44193</v>
+        <v>44568</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K55" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L55" t="n">
         <v>30000</v>
       </c>
       <c r="M55" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44567</v>
+        <v>44231</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K56" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L56" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M56" t="n">
-        <v>27615</v>
+        <v>30000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1105</v>
+        <v>1200</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44581</v>
+        <v>44193</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K57" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L57" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M57" t="n">
-        <v>28625</v>
+        <v>29542</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1145</v>
+        <v>1182</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44553</v>
+        <v>44567</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K58" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="L58" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M58" t="n">
-        <v>45000</v>
+        <v>27615</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1800</v>
+        <v>1105</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44208</v>
+        <v>44581</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K59" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L59" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M59" t="n">
-        <v>27526</v>
+        <v>28625</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1101</v>
+        <v>1145</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44232</v>
+        <v>44553</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K60" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L60" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M60" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44279</v>
+        <v>44208</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K61" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L61" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M61" t="n">
-        <v>23000</v>
+        <v>27526</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>920</v>
+        <v>1101</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44200</v>
+        <v>44232</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K62" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L62" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M62" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44236</v>
+        <v>44279</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K63" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L63" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M63" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44221</v>
+        <v>44200</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="K64" t="n">
         <v>32000</v>
       </c>
       <c r="L64" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="M64" t="n">
-        <v>32806</v>
+        <v>32000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1312</v>
+        <v>1280</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44214</v>
+        <v>44236</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K65" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L65" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M65" t="n">
-        <v>35429</v>
+        <v>29000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1417</v>
+        <v>1160</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K66" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L66" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="M66" t="n">
-        <v>35000</v>
+        <v>32806</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1400</v>
+        <v>1312</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44277</v>
+        <v>44214</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K67" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L67" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="M67" t="n">
-        <v>23000</v>
+        <v>35429</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>920</v>
+        <v>1417</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44595</v>
+        <v>44214</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K68" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L68" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M68" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,58 +5301,202 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E69" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>95</v>
+      </c>
+      <c r="K69" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L69" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M69" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>25</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E70" t="n">
+        <v>9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>100</v>
+      </c>
+      <c r="K70" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L70" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M70" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>25</v>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E69" t="n">
-        <v>9</v>
-      </c>
-      <c r="F69" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
+      <c r="E71" t="n">
+        <v>9</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
         <v>110</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K71" t="n">
         <v>45000</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L71" t="n">
         <v>45000</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M71" t="n">
         <v>45000</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P69" t="n">
+      <c r="P71" t="n">
         <v>1800</v>
       </c>
-      <c r="Q69" t="n">
-        <v>25</v>
-      </c>
-      <c r="R69" t="inlineStr">
+      <c r="Q71" t="n">
+        <v>25</v>
+      </c>
+      <c r="R71" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44217</v>
+        <v>44603</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="K41" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L41" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M41" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44596</v>
+        <v>44217</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K42" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L42" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M42" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44238</v>
+        <v>44596</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="K43" t="n">
         <v>28000</v>
       </c>
       <c r="L43" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M43" t="n">
-        <v>28568</v>
+        <v>28000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K44" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L44" t="n">
         <v>29000</v>
       </c>
       <c r="M44" t="n">
-        <v>29000</v>
+        <v>28568</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44188</v>
+        <v>44242</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K45" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L45" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M45" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,32 +3669,32 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K46" t="n">
-        <v>1700</v>
+        <v>35000</v>
       </c>
       <c r="L46" t="n">
-        <v>1800</v>
+        <v>35000</v>
       </c>
       <c r="M46" t="n">
-        <v>1756</v>
+        <v>35000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1756</v>
+        <v>1400</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,32 +3741,32 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K47" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L47" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M47" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q47" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44579</v>
+        <v>44223</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K48" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L48" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M48" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44249</v>
+        <v>44579</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K49" t="n">
         <v>28000</v>
       </c>
       <c r="L49" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M49" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44196</v>
+        <v>44249</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="K50" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L50" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M50" t="n">
-        <v>10000</v>
+        <v>28543</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>400</v>
+        <v>1142</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="K51" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L51" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M51" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44578</v>
+        <v>44195</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K52" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L52" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M52" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
         <v>28000</v>
       </c>
       <c r="L53" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M53" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K54" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L54" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M54" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44568</v>
+        <v>44271</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K55" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L55" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M55" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K56" t="n">
         <v>30000</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K57" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L57" t="n">
         <v>30000</v>
       </c>
       <c r="M57" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44567</v>
+        <v>44193</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K58" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L58" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M58" t="n">
-        <v>27615</v>
+        <v>29542</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1105</v>
+        <v>1182</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K59" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L59" t="n">
         <v>28000</v>
       </c>
-      <c r="L59" t="n">
-        <v>29000</v>
-      </c>
       <c r="M59" t="n">
-        <v>28625</v>
+        <v>27615</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K60" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L60" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M60" t="n">
-        <v>45000</v>
+        <v>28625</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1800</v>
+        <v>1145</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4752,13 +4752,13 @@
         <v>95</v>
       </c>
       <c r="K61" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L61" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M61" t="n">
-        <v>27526</v>
+        <v>45000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1101</v>
+        <v>1800</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K62" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L62" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M62" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K63" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L63" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M63" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44200</v>
+        <v>44279</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K64" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L64" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M64" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K65" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L65" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M65" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K66" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L66" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M66" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K67" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L67" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M67" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K68" t="n">
         <v>35000</v>
       </c>
       <c r="L68" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M68" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44277</v>
+        <v>44214</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K69" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L69" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M69" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K70" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L70" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M70" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,58 +5445,130 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E71" t="n">
+        <v>9</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>100</v>
+      </c>
+      <c r="K71" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L71" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M71" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>25</v>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E71" t="n">
-        <v>9</v>
-      </c>
-      <c r="F71" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
+      <c r="E72" t="n">
+        <v>9</v>
+      </c>
+      <c r="F72" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
         <v>110</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K72" t="n">
         <v>45000</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L72" t="n">
         <v>45000</v>
       </c>
-      <c r="M71" t="n">
+      <c r="M72" t="n">
         <v>45000</v>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P71" t="n">
+      <c r="P72" t="n">
         <v>1800</v>
       </c>
-      <c r="Q71" t="n">
-        <v>25</v>
-      </c>
-      <c r="R71" t="inlineStr">
+      <c r="Q72" t="n">
+        <v>25</v>
+      </c>
+      <c r="R72" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44238</v>
+        <v>44606</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K44" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L44" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M44" t="n">
-        <v>28568</v>
+        <v>25000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K45" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L45" t="n">
         <v>29000</v>
       </c>
       <c r="M45" t="n">
-        <v>29000</v>
+        <v>28568</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44188</v>
+        <v>44242</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K46" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L46" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M46" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,32 +3741,32 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K47" t="n">
-        <v>1700</v>
+        <v>35000</v>
       </c>
       <c r="L47" t="n">
-        <v>1800</v>
+        <v>35000</v>
       </c>
       <c r="M47" t="n">
-        <v>1756</v>
+        <v>35000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1756</v>
+        <v>1400</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,32 +3813,32 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K48" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L48" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M48" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q48" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44579</v>
+        <v>44223</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K49" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L49" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M49" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44249</v>
+        <v>44579</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K50" t="n">
         <v>28000</v>
       </c>
       <c r="L50" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M50" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44196</v>
+        <v>44249</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="K51" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L51" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M51" t="n">
-        <v>10000</v>
+        <v>28543</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>400</v>
+        <v>1142</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="K52" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L52" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M52" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44578</v>
+        <v>44195</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K53" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L53" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M53" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K54" t="n">
         <v>28000</v>
       </c>
       <c r="L54" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M54" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K55" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L55" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M55" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44568</v>
+        <v>44271</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K56" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L56" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M56" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K57" t="n">
         <v>30000</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K58" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L58" t="n">
         <v>30000</v>
       </c>
       <c r="M58" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44567</v>
+        <v>44193</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K59" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L59" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M59" t="n">
-        <v>27615</v>
+        <v>29542</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1105</v>
+        <v>1182</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K60" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L60" t="n">
         <v>28000</v>
       </c>
-      <c r="L60" t="n">
-        <v>29000</v>
-      </c>
       <c r="M60" t="n">
-        <v>28625</v>
+        <v>27615</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K61" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L61" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M61" t="n">
-        <v>45000</v>
+        <v>28625</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1800</v>
+        <v>1145</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4824,13 +4824,13 @@
         <v>95</v>
       </c>
       <c r="K62" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L62" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M62" t="n">
-        <v>27526</v>
+        <v>45000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1101</v>
+        <v>1800</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K63" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L63" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M63" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K64" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L64" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M64" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44200</v>
+        <v>44279</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K65" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L65" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M65" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K66" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L66" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M66" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K67" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L67" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M67" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K68" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L68" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M68" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K69" t="n">
         <v>35000</v>
       </c>
       <c r="L69" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M69" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44277</v>
+        <v>44214</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K70" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L70" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M70" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K71" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L71" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M71" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,58 +5517,130 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E72" t="n">
+        <v>9</v>
+      </c>
+      <c r="F72" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>100</v>
+      </c>
+      <c r="K72" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L72" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M72" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>25</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E72" t="n">
-        <v>9</v>
-      </c>
-      <c r="F72" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
+      <c r="E73" t="n">
+        <v>9</v>
+      </c>
+      <c r="F73" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
         <v>110</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K73" t="n">
         <v>45000</v>
       </c>
-      <c r="L72" t="n">
+      <c r="L73" t="n">
         <v>45000</v>
       </c>
-      <c r="M72" t="n">
+      <c r="M73" t="n">
         <v>45000</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P72" t="n">
+      <c r="P73" t="n">
         <v>1800</v>
       </c>
-      <c r="Q72" t="n">
-        <v>25</v>
-      </c>
-      <c r="R72" t="inlineStr">
+      <c r="Q73" t="n">
+        <v>25</v>
+      </c>
+      <c r="R73" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="K53" t="n">
         <v>25000</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44578</v>
+        <v>44195</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K54" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L54" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M54" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
         <v>28000</v>
       </c>
       <c r="L55" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M55" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K56" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L56" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M56" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44568</v>
+        <v>44271</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K57" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L57" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M57" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K58" t="n">
         <v>30000</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K59" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L59" t="n">
         <v>30000</v>
       </c>
       <c r="M59" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44567</v>
+        <v>44193</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K60" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L60" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M60" t="n">
-        <v>27615</v>
+        <v>29542</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1105</v>
+        <v>1182</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K61" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L61" t="n">
         <v>28000</v>
       </c>
-      <c r="L61" t="n">
-        <v>29000</v>
-      </c>
       <c r="M61" t="n">
-        <v>28625</v>
+        <v>27615</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K62" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L62" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M62" t="n">
-        <v>45000</v>
+        <v>28625</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1800</v>
+        <v>1145</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4896,13 +4896,13 @@
         <v>95</v>
       </c>
       <c r="K63" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L63" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M63" t="n">
-        <v>27526</v>
+        <v>45000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1101</v>
+        <v>1800</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K64" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L64" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M64" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K65" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L65" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M65" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44200</v>
+        <v>44279</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K66" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L66" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M66" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K67" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L67" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M67" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K68" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L68" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M68" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K69" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L69" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M69" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K70" t="n">
         <v>35000</v>
       </c>
       <c r="L70" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M70" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44277</v>
+        <v>44214</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K71" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L71" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M71" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K72" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L72" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M72" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,58 +5589,130 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E73" t="n">
+        <v>9</v>
+      </c>
+      <c r="F73" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>100</v>
+      </c>
+      <c r="K73" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L73" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M73" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>25</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E73" t="n">
-        <v>9</v>
-      </c>
-      <c r="F73" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
+      <c r="E74" t="n">
+        <v>9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
         <v>110</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K74" t="n">
         <v>45000</v>
       </c>
-      <c r="L73" t="n">
+      <c r="L74" t="n">
         <v>45000</v>
       </c>
-      <c r="M73" t="n">
+      <c r="M74" t="n">
         <v>45000</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P73" t="n">
+      <c r="P74" t="n">
         <v>1800</v>
       </c>
-      <c r="Q73" t="n">
-        <v>25</v>
-      </c>
-      <c r="R73" t="inlineStr">
+      <c r="Q74" t="n">
+        <v>25</v>
+      </c>
+      <c r="R74" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44277</v>
+        <v>44610</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K72" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L72" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M72" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K73" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L73" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M73" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,58 +5661,130 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>100</v>
+      </c>
+      <c r="K74" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L74" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M74" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>25</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E74" t="n">
-        <v>9</v>
-      </c>
-      <c r="F74" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
+      <c r="E75" t="n">
+        <v>9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
         <v>110</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K75" t="n">
         <v>45000</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L75" t="n">
         <v>45000</v>
       </c>
-      <c r="M74" t="n">
+      <c r="M75" t="n">
         <v>45000</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P74" t="n">
+      <c r="P75" t="n">
         <v>1800</v>
       </c>
-      <c r="Q74" t="n">
-        <v>25</v>
-      </c>
-      <c r="R74" t="inlineStr">
+      <c r="Q75" t="n">
+        <v>25</v>
+      </c>
+      <c r="R75" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44266</v>
+        <v>44613</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K11" t="n">
         <v>25000</v>
       </c>
       <c r="L11" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M11" t="n">
-        <v>25000</v>
+        <v>26286</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44218</v>
+        <v>44266</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K12" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L12" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M12" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44559</v>
+        <v>44218</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L13" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M13" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L14" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M14" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44259</v>
+        <v>44559</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1433,11 +1433,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
         <v>25000</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44243</v>
+        <v>44259</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L16" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M16" t="n">
-        <v>28448</v>
+        <v>25000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1138</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44224</v>
+        <v>44243</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>380</v>
+        <v>145</v>
       </c>
       <c r="K17" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L17" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M17" t="n">
-        <v>27000</v>
+        <v>28448</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1080</v>
+        <v>1138</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K18" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L18" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M18" t="n">
-        <v>28909</v>
+        <v>27000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1156</v>
+        <v>1080</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44600</v>
+        <v>44224</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="K19" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L19" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M19" t="n">
-        <v>25828</v>
+        <v>28909</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1033</v>
+        <v>1156</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44216</v>
+        <v>44600</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="K20" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L20" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M20" t="n">
-        <v>35000</v>
+        <v>25828</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1400</v>
+        <v>1033</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K21" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L21" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M21" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44235</v>
+        <v>44189</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="K22" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L22" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M22" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44209</v>
+        <v>44235</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K23" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L23" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M23" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44587</v>
+        <v>44209</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L24" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M24" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44222</v>
+        <v>44587</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K25" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L25" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M25" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44278</v>
+        <v>44222</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K26" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L26" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M26" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>920</v>
+        <v>1280</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44203</v>
+        <v>44278</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K27" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L27" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M27" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K28" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L28" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M28" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44245</v>
+        <v>44203</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="K29" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L29" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M29" t="n">
-        <v>28532</v>
+        <v>25000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1141</v>
+        <v>1000</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44586</v>
+        <v>44245</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="K30" t="n">
         <v>28000</v>
       </c>
       <c r="L30" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M30" t="n">
-        <v>28000</v>
+        <v>28532</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44574</v>
+        <v>44586</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="K31" t="n">
         <v>28000</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="K32" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L32" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M32" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44601</v>
+        <v>44574</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2729,11 +2729,11 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K33" t="n">
         <v>25000</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44589</v>
+        <v>44601</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="K34" t="n">
         <v>25000</v>
       </c>
       <c r="L34" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M34" t="n">
-        <v>26179</v>
+        <v>25000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44582</v>
+        <v>44589</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K35" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L35" t="n">
         <v>28000</v>
       </c>
       <c r="M35" t="n">
-        <v>28000</v>
+        <v>26179</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44588</v>
+        <v>44582</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="K36" t="n">
         <v>28000</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44202</v>
+        <v>44588</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="K37" t="n">
         <v>28000</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K38" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L38" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M38" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L39" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M39" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44194</v>
+        <v>44244</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="K40" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L40" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M40" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>880</v>
+        <v>1160</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44603</v>
+        <v>44194</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="K41" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L41" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M41" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44217</v>
+        <v>44603</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="K42" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L42" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M42" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44596</v>
+        <v>44217</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K43" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L43" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M43" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44606</v>
+        <v>44596</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K44" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L44" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M44" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44238</v>
+        <v>44606</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K45" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L45" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M45" t="n">
-        <v>28568</v>
+        <v>25000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K46" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L46" t="n">
         <v>29000</v>
       </c>
       <c r="M46" t="n">
-        <v>29000</v>
+        <v>28568</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44188</v>
+        <v>44242</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K47" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L47" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M47" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,32 +3813,32 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K48" t="n">
-        <v>1700</v>
+        <v>35000</v>
       </c>
       <c r="L48" t="n">
-        <v>1800</v>
+        <v>35000</v>
       </c>
       <c r="M48" t="n">
-        <v>1756</v>
+        <v>35000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1756</v>
+        <v>1400</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,32 +3885,32 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K49" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L49" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M49" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q49" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44579</v>
+        <v>44223</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K50" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L50" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M50" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44249</v>
+        <v>44579</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K51" t="n">
         <v>28000</v>
       </c>
       <c r="L51" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M51" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44196</v>
+        <v>44249</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="K52" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L52" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M52" t="n">
-        <v>10000</v>
+        <v>28543</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>400</v>
+        <v>1142</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44609</v>
+        <v>44196</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K53" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L53" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M53" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="K54" t="n">
         <v>25000</v>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44578</v>
+        <v>44195</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K55" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L55" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M55" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K56" t="n">
         <v>28000</v>
       </c>
       <c r="L56" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M56" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K57" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L57" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M57" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44568</v>
+        <v>44271</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K58" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L58" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M58" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K59" t="n">
         <v>30000</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K60" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L60" t="n">
         <v>30000</v>
       </c>
       <c r="M60" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44567</v>
+        <v>44193</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K61" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L61" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M61" t="n">
-        <v>27615</v>
+        <v>29542</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1105</v>
+        <v>1182</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K62" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L62" t="n">
         <v>28000</v>
       </c>
-      <c r="L62" t="n">
-        <v>29000</v>
-      </c>
       <c r="M62" t="n">
-        <v>28625</v>
+        <v>27615</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K63" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L63" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M63" t="n">
-        <v>45000</v>
+        <v>28625</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1800</v>
+        <v>1145</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4968,13 +4968,13 @@
         <v>95</v>
       </c>
       <c r="K64" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L64" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M64" t="n">
-        <v>27526</v>
+        <v>45000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1101</v>
+        <v>1800</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K65" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L65" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M65" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K66" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L66" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M66" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44200</v>
+        <v>44279</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K67" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L67" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M67" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K68" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L68" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M68" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K69" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L69" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M69" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K70" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L70" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M70" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K71" t="n">
         <v>35000</v>
       </c>
       <c r="L71" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M71" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K72" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L72" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M72" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44277</v>
+        <v>44610</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K73" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L73" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M73" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K74" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L74" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M74" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,58 +5733,130 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E75" t="n">
+        <v>9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>100</v>
+      </c>
+      <c r="K75" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L75" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M75" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>25</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E75" t="n">
-        <v>9</v>
-      </c>
-      <c r="F75" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
+      <c r="E76" t="n">
+        <v>9</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
         <v>110</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K76" t="n">
         <v>45000</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L76" t="n">
         <v>45000</v>
       </c>
-      <c r="M75" t="n">
+      <c r="M76" t="n">
         <v>45000</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P75" t="n">
+      <c r="P76" t="n">
         <v>1800</v>
       </c>
-      <c r="Q75" t="n">
-        <v>25</v>
-      </c>
-      <c r="R75" t="inlineStr">
+      <c r="Q76" t="n">
+        <v>25</v>
+      </c>
+      <c r="R76" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44587</v>
+        <v>44614</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K25" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L25" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M25" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44222</v>
+        <v>44587</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K26" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L26" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M26" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44278</v>
+        <v>44222</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K27" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L27" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M27" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>920</v>
+        <v>1280</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44203</v>
+        <v>44278</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K28" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L28" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M28" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K29" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L29" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M29" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44245</v>
+        <v>44203</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="K30" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L30" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M30" t="n">
-        <v>28532</v>
+        <v>25000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1141</v>
+        <v>1000</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44586</v>
+        <v>44245</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="K31" t="n">
         <v>28000</v>
       </c>
       <c r="L31" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M31" t="n">
-        <v>28000</v>
+        <v>28532</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44574</v>
+        <v>44586</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="K32" t="n">
         <v>28000</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="K33" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L33" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M33" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44601</v>
+        <v>44574</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2801,11 +2801,11 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K34" t="n">
         <v>25000</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44589</v>
+        <v>44601</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="K35" t="n">
         <v>25000</v>
       </c>
       <c r="L35" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M35" t="n">
-        <v>26179</v>
+        <v>25000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44582</v>
+        <v>44589</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K36" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L36" t="n">
         <v>28000</v>
       </c>
       <c r="M36" t="n">
-        <v>28000</v>
+        <v>26179</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44588</v>
+        <v>44582</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
         <v>28000</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44202</v>
+        <v>44588</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="K38" t="n">
         <v>28000</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K39" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L39" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M39" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K40" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L40" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M40" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44194</v>
+        <v>44244</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="K41" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L41" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M41" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>880</v>
+        <v>1160</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44603</v>
+        <v>44194</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="K42" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L42" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M42" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44217</v>
+        <v>44603</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="K43" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L43" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M43" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44596</v>
+        <v>44217</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K44" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L44" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M44" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44606</v>
+        <v>44596</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K45" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L45" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M45" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44238</v>
+        <v>44606</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K46" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L46" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M46" t="n">
-        <v>28568</v>
+        <v>25000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K47" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L47" t="n">
         <v>29000</v>
       </c>
       <c r="M47" t="n">
-        <v>29000</v>
+        <v>28568</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44188</v>
+        <v>44242</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K48" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L48" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M48" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,32 +3885,32 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K49" t="n">
-        <v>1700</v>
+        <v>35000</v>
       </c>
       <c r="L49" t="n">
-        <v>1800</v>
+        <v>35000</v>
       </c>
       <c r="M49" t="n">
-        <v>1756</v>
+        <v>35000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1756</v>
+        <v>1400</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,32 +3957,32 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K50" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L50" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M50" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q50" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44579</v>
+        <v>44223</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K51" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L51" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M51" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44249</v>
+        <v>44579</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K52" t="n">
         <v>28000</v>
       </c>
       <c r="L52" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M52" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44196</v>
+        <v>44249</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="K53" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L53" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M53" t="n">
-        <v>10000</v>
+        <v>28543</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>400</v>
+        <v>1142</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44609</v>
+        <v>44196</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K54" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L54" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M54" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="K55" t="n">
         <v>25000</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44578</v>
+        <v>44195</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K56" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L56" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M56" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
         <v>28000</v>
       </c>
       <c r="L57" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M57" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K58" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L58" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M58" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44568</v>
+        <v>44271</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K59" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L59" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M59" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K60" t="n">
         <v>30000</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K61" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L61" t="n">
         <v>30000</v>
       </c>
       <c r="M61" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44567</v>
+        <v>44193</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K62" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L62" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M62" t="n">
-        <v>27615</v>
+        <v>29542</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1105</v>
+        <v>1182</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K63" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L63" t="n">
         <v>28000</v>
       </c>
-      <c r="L63" t="n">
-        <v>29000</v>
-      </c>
       <c r="M63" t="n">
-        <v>28625</v>
+        <v>27615</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K64" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L64" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M64" t="n">
-        <v>45000</v>
+        <v>28625</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1800</v>
+        <v>1145</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5040,13 +5040,13 @@
         <v>95</v>
       </c>
       <c r="K65" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L65" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M65" t="n">
-        <v>27526</v>
+        <v>45000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1101</v>
+        <v>1800</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K66" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L66" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M66" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K67" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L67" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M67" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44200</v>
+        <v>44279</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K68" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L68" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M68" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K69" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L69" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M69" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K70" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L70" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M70" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K71" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L71" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M71" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K72" t="n">
         <v>35000</v>
       </c>
       <c r="L72" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M72" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K73" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L73" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M73" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44277</v>
+        <v>44610</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K74" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L74" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M74" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K75" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L75" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M75" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,58 +5805,130 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>100</v>
+      </c>
+      <c r="K76" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L76" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M76" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>25</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E76" t="n">
-        <v>9</v>
-      </c>
-      <c r="F76" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
+      <c r="E77" t="n">
+        <v>9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
         <v>110</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K77" t="n">
         <v>45000</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L77" t="n">
         <v>45000</v>
       </c>
-      <c r="M76" t="n">
+      <c r="M77" t="n">
         <v>45000</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P76" t="n">
+      <c r="P77" t="n">
         <v>1800</v>
       </c>
-      <c r="Q76" t="n">
-        <v>25</v>
-      </c>
-      <c r="R76" t="inlineStr">
+      <c r="Q77" t="n">
+        <v>25</v>
+      </c>
+      <c r="R77" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44558</v>
+        <v>44616</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>23889</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>956</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44585</v>
+        <v>44558</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K5" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L5" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M5" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44575</v>
+        <v>44585</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
         <v>28000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44239</v>
+        <v>44575</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="K7" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L7" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M7" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44273</v>
+        <v>44239</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="K8" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L8" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M8" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44602</v>
+        <v>44273</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K9" t="n">
         <v>25000</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="K10" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L10" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M10" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44613</v>
+        <v>44602</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K11" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L11" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M11" t="n">
-        <v>26286</v>
+        <v>27000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1051</v>
+        <v>1080</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44266</v>
+        <v>44613</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K12" t="n">
         <v>25000</v>
       </c>
       <c r="L12" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M12" t="n">
-        <v>25000</v>
+        <v>26286</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44218</v>
+        <v>44266</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K13" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L13" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M13" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44559</v>
+        <v>44218</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L14" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M14" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K15" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L15" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M15" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44259</v>
+        <v>44559</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1505,11 +1505,11 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
         <v>25000</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44243</v>
+        <v>44259</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L17" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M17" t="n">
-        <v>28448</v>
+        <v>25000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1138</v>
+        <v>1000</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44224</v>
+        <v>44243</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>380</v>
+        <v>145</v>
       </c>
       <c r="K18" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L18" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M18" t="n">
-        <v>27000</v>
+        <v>28448</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1080</v>
+        <v>1138</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K19" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L19" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M19" t="n">
-        <v>28909</v>
+        <v>27000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1156</v>
+        <v>1080</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44600</v>
+        <v>44224</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="K20" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L20" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M20" t="n">
-        <v>25828</v>
+        <v>28909</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1033</v>
+        <v>1156</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44216</v>
+        <v>44600</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="K21" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L21" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M21" t="n">
-        <v>35000</v>
+        <v>25828</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1400</v>
+        <v>1033</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K22" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L22" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M22" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44235</v>
+        <v>44189</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L23" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M23" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44209</v>
+        <v>44235</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K24" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L24" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M24" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44614</v>
+        <v>44209</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L25" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M25" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44587</v>
+        <v>44614</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K26" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L26" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M26" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44222</v>
+        <v>44587</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44278</v>
+        <v>44222</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K28" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L28" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M28" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>920</v>
+        <v>1280</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44203</v>
+        <v>44278</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K29" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L29" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M29" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K30" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L30" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M30" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44245</v>
+        <v>44203</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="K31" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L31" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M31" t="n">
-        <v>28532</v>
+        <v>25000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1141</v>
+        <v>1000</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44586</v>
+        <v>44245</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="K32" t="n">
         <v>28000</v>
       </c>
       <c r="L32" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M32" t="n">
-        <v>28000</v>
+        <v>28532</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44574</v>
+        <v>44586</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="K33" t="n">
         <v>28000</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="K34" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L34" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M34" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44601</v>
+        <v>44574</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2873,11 +2873,11 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K35" t="n">
         <v>25000</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44589</v>
+        <v>44601</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="K36" t="n">
         <v>25000</v>
       </c>
       <c r="L36" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M36" t="n">
-        <v>26179</v>
+        <v>25000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44582</v>
+        <v>44589</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K37" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L37" t="n">
         <v>28000</v>
       </c>
       <c r="M37" t="n">
-        <v>28000</v>
+        <v>26179</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44588</v>
+        <v>44582</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
         <v>28000</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44202</v>
+        <v>44588</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="K39" t="n">
         <v>28000</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K40" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L40" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M40" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K41" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L41" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M41" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44194</v>
+        <v>44244</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="K42" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L42" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M42" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>880</v>
+        <v>1160</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44603</v>
+        <v>44194</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="K43" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L43" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M43" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44217</v>
+        <v>44603</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="K44" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L44" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M44" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44596</v>
+        <v>44217</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K45" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L45" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M45" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44606</v>
+        <v>44596</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K46" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L46" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M46" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44238</v>
+        <v>44606</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K47" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L47" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M47" t="n">
-        <v>28568</v>
+        <v>25000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K48" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L48" t="n">
         <v>29000</v>
       </c>
       <c r="M48" t="n">
-        <v>29000</v>
+        <v>28568</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44188</v>
+        <v>44242</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K49" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L49" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M49" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,32 +3957,32 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K50" t="n">
-        <v>1700</v>
+        <v>35000</v>
       </c>
       <c r="L50" t="n">
-        <v>1800</v>
+        <v>35000</v>
       </c>
       <c r="M50" t="n">
-        <v>1756</v>
+        <v>35000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1756</v>
+        <v>1400</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,32 +4029,32 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K51" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L51" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M51" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q51" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44579</v>
+        <v>44223</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K52" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L52" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M52" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44249</v>
+        <v>44579</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K53" t="n">
         <v>28000</v>
       </c>
       <c r="L53" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M53" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44196</v>
+        <v>44249</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="K54" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L54" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M54" t="n">
-        <v>10000</v>
+        <v>28543</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>400</v>
+        <v>1142</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44609</v>
+        <v>44196</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K55" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L55" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M55" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="K56" t="n">
         <v>25000</v>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44578</v>
+        <v>44195</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K57" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L57" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M57" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K58" t="n">
         <v>28000</v>
       </c>
       <c r="L58" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M58" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K59" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L59" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M59" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44568</v>
+        <v>44271</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K60" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L60" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M60" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K61" t="n">
         <v>30000</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K62" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L62" t="n">
         <v>30000</v>
       </c>
       <c r="M62" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44567</v>
+        <v>44193</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K63" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L63" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M63" t="n">
-        <v>27615</v>
+        <v>29542</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1105</v>
+        <v>1182</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K64" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L64" t="n">
         <v>28000</v>
       </c>
-      <c r="L64" t="n">
-        <v>29000</v>
-      </c>
       <c r="M64" t="n">
-        <v>28625</v>
+        <v>27615</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K65" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L65" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M65" t="n">
-        <v>45000</v>
+        <v>28625</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1800</v>
+        <v>1145</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5112,13 +5112,13 @@
         <v>95</v>
       </c>
       <c r="K66" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L66" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M66" t="n">
-        <v>27526</v>
+        <v>45000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1101</v>
+        <v>1800</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K67" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L67" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M67" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K68" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L68" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M68" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44200</v>
+        <v>44279</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K69" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L69" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M69" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K70" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L70" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M70" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K71" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L71" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M71" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K72" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L72" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M72" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K73" t="n">
         <v>35000</v>
       </c>
       <c r="L73" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M73" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K74" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L74" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M74" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44277</v>
+        <v>44610</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K75" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L75" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M75" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K76" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L76" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M76" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,58 +5877,130 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>100</v>
+      </c>
+      <c r="K77" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L77" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M77" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>25</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E77" t="n">
-        <v>9</v>
-      </c>
-      <c r="F77" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
+      <c r="E78" t="n">
+        <v>9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
         <v>110</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K78" t="n">
         <v>45000</v>
       </c>
-      <c r="L77" t="n">
+      <c r="L78" t="n">
         <v>45000</v>
       </c>
-      <c r="M77" t="n">
+      <c r="M78" t="n">
         <v>45000</v>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P77" t="n">
+      <c r="P78" t="n">
         <v>1800</v>
       </c>
-      <c r="Q77" t="n">
-        <v>25</v>
-      </c>
-      <c r="R77" t="inlineStr">
+      <c r="Q78" t="n">
+        <v>25</v>
+      </c>
+      <c r="R78" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44216</v>
+        <v>44623</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K22" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L22" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M22" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K23" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L23" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M23" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44235</v>
+        <v>44189</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="K24" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L24" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M24" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44209</v>
+        <v>44235</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K25" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L25" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M25" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44614</v>
+        <v>44209</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L26" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M26" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44587</v>
+        <v>44614</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K27" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L27" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M27" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44222</v>
+        <v>44587</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K28" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L28" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M28" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44278</v>
+        <v>44222</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K29" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L29" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M29" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>920</v>
+        <v>1280</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44203</v>
+        <v>44278</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K30" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L30" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M30" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K31" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L31" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M31" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44245</v>
+        <v>44203</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="K32" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L32" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M32" t="n">
-        <v>28532</v>
+        <v>25000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1141</v>
+        <v>1000</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44586</v>
+        <v>44245</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="K33" t="n">
         <v>28000</v>
       </c>
       <c r="L33" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M33" t="n">
-        <v>28000</v>
+        <v>28532</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44574</v>
+        <v>44586</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="K34" t="n">
         <v>28000</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="K35" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L35" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M35" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44601</v>
+        <v>44574</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2945,11 +2945,11 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K36" t="n">
         <v>25000</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44589</v>
+        <v>44601</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="K37" t="n">
         <v>25000</v>
       </c>
       <c r="L37" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M37" t="n">
-        <v>26179</v>
+        <v>25000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44582</v>
+        <v>44589</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K38" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L38" t="n">
         <v>28000</v>
       </c>
       <c r="M38" t="n">
-        <v>28000</v>
+        <v>26179</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44588</v>
+        <v>44582</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
         <v>28000</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44202</v>
+        <v>44588</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="K40" t="n">
         <v>28000</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K41" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L41" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M41" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K42" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L42" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M42" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44194</v>
+        <v>44244</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="K43" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L43" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M43" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>880</v>
+        <v>1160</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44603</v>
+        <v>44194</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="K44" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L44" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M44" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44217</v>
+        <v>44603</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="K45" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L45" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M45" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44596</v>
+        <v>44217</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K46" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L46" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M46" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44606</v>
+        <v>44596</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K47" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L47" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M47" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44238</v>
+        <v>44606</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K48" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L48" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M48" t="n">
-        <v>28568</v>
+        <v>25000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K49" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L49" t="n">
         <v>29000</v>
       </c>
       <c r="M49" t="n">
-        <v>29000</v>
+        <v>28568</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44188</v>
+        <v>44242</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K50" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L50" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M50" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,32 +4029,32 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K51" t="n">
-        <v>1700</v>
+        <v>35000</v>
       </c>
       <c r="L51" t="n">
-        <v>1800</v>
+        <v>35000</v>
       </c>
       <c r="M51" t="n">
-        <v>1756</v>
+        <v>35000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1756</v>
+        <v>1400</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,32 +4101,32 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K52" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L52" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M52" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q52" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44579</v>
+        <v>44223</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K53" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L53" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M53" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44249</v>
+        <v>44579</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
         <v>28000</v>
       </c>
       <c r="L54" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M54" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44196</v>
+        <v>44249</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="K55" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L55" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M55" t="n">
-        <v>10000</v>
+        <v>28543</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>400</v>
+        <v>1142</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44609</v>
+        <v>44196</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K56" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L56" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M56" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="K57" t="n">
         <v>25000</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44578</v>
+        <v>44195</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K58" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L58" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M58" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K59" t="n">
         <v>28000</v>
       </c>
       <c r="L59" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M59" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K60" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L60" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M60" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44568</v>
+        <v>44271</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K61" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L61" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M61" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K62" t="n">
         <v>30000</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K63" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L63" t="n">
         <v>30000</v>
       </c>
       <c r="M63" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44567</v>
+        <v>44193</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K64" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L64" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M64" t="n">
-        <v>27615</v>
+        <v>29542</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1105</v>
+        <v>1182</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K65" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L65" t="n">
         <v>28000</v>
       </c>
-      <c r="L65" t="n">
-        <v>29000</v>
-      </c>
       <c r="M65" t="n">
-        <v>28625</v>
+        <v>27615</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K66" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L66" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M66" t="n">
-        <v>45000</v>
+        <v>28625</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1800</v>
+        <v>1145</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5184,13 +5184,13 @@
         <v>95</v>
       </c>
       <c r="K67" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L67" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M67" t="n">
-        <v>27526</v>
+        <v>45000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1101</v>
+        <v>1800</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K68" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L68" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M68" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K69" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L69" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M69" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44200</v>
+        <v>44279</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K70" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L70" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M70" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K71" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L71" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M71" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K72" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L72" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M72" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K73" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L73" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M73" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K74" t="n">
         <v>35000</v>
       </c>
       <c r="L74" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M74" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K75" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L75" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M75" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44277</v>
+        <v>44610</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K76" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L76" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M76" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K77" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L77" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M77" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,58 +5949,130 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>100</v>
+      </c>
+      <c r="K78" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L78" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M78" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>25</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E78" t="n">
-        <v>9</v>
-      </c>
-      <c r="F78" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
+      <c r="E79" t="n">
+        <v>9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
         <v>110</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K79" t="n">
         <v>45000</v>
       </c>
-      <c r="L78" t="n">
+      <c r="L79" t="n">
         <v>45000</v>
       </c>
-      <c r="M78" t="n">
+      <c r="M79" t="n">
         <v>45000</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P78" t="n">
+      <c r="P79" t="n">
         <v>1800</v>
       </c>
-      <c r="Q78" t="n">
-        <v>25</v>
-      </c>
-      <c r="R78" t="inlineStr">
+      <c r="Q79" t="n">
+        <v>25</v>
+      </c>
+      <c r="R79" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44189</v>
+        <v>44624</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K24" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L24" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M24" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44235</v>
+        <v>44189</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L25" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M25" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44209</v>
+        <v>44235</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K26" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L26" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M26" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44614</v>
+        <v>44209</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L27" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M27" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44587</v>
+        <v>44614</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K28" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L28" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M28" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44222</v>
+        <v>44587</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K29" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L29" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M29" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44278</v>
+        <v>44222</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K30" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L30" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M30" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>920</v>
+        <v>1280</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44203</v>
+        <v>44278</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K31" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L31" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M31" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K32" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L32" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M32" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44245</v>
+        <v>44203</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="K33" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L33" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M33" t="n">
-        <v>28532</v>
+        <v>25000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1141</v>
+        <v>1000</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44586</v>
+        <v>44245</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="K34" t="n">
         <v>28000</v>
       </c>
       <c r="L34" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M34" t="n">
-        <v>28000</v>
+        <v>28532</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44574</v>
+        <v>44586</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="K35" t="n">
         <v>28000</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="K36" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L36" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M36" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44601</v>
+        <v>44574</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3017,11 +3017,11 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K37" t="n">
         <v>25000</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44589</v>
+        <v>44601</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="K38" t="n">
         <v>25000</v>
       </c>
       <c r="L38" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M38" t="n">
-        <v>26179</v>
+        <v>25000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44582</v>
+        <v>44589</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K39" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L39" t="n">
         <v>28000</v>
       </c>
       <c r="M39" t="n">
-        <v>28000</v>
+        <v>26179</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44588</v>
+        <v>44582</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="K40" t="n">
         <v>28000</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44202</v>
+        <v>44588</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="K41" t="n">
         <v>28000</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K42" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L42" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M42" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L43" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M43" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44194</v>
+        <v>44244</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="K44" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L44" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M44" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>880</v>
+        <v>1160</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44603</v>
+        <v>44194</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="K45" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L45" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M45" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44217</v>
+        <v>44603</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="K46" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L46" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M46" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44596</v>
+        <v>44217</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K47" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L47" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M47" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44606</v>
+        <v>44596</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K48" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L48" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M48" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44238</v>
+        <v>44606</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K49" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L49" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M49" t="n">
-        <v>28568</v>
+        <v>25000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K50" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L50" t="n">
         <v>29000</v>
       </c>
       <c r="M50" t="n">
-        <v>29000</v>
+        <v>28568</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44188</v>
+        <v>44242</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K51" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L51" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M51" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,32 +4101,32 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K52" t="n">
-        <v>1700</v>
+        <v>35000</v>
       </c>
       <c r="L52" t="n">
-        <v>1800</v>
+        <v>35000</v>
       </c>
       <c r="M52" t="n">
-        <v>1756</v>
+        <v>35000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1756</v>
+        <v>1400</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,32 +4173,32 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K53" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L53" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M53" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q53" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44579</v>
+        <v>44223</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K54" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L54" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M54" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44249</v>
+        <v>44579</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K55" t="n">
         <v>28000</v>
       </c>
       <c r="L55" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M55" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44196</v>
+        <v>44249</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="K56" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L56" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M56" t="n">
-        <v>10000</v>
+        <v>28543</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>400</v>
+        <v>1142</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44609</v>
+        <v>44196</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K57" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L57" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M57" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="K58" t="n">
         <v>25000</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44578</v>
+        <v>44195</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K59" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L59" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M59" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K60" t="n">
         <v>28000</v>
       </c>
       <c r="L60" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M60" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K61" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L61" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M61" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44568</v>
+        <v>44271</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K62" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L62" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M62" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K63" t="n">
         <v>30000</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K64" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L64" t="n">
         <v>30000</v>
       </c>
       <c r="M64" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44567</v>
+        <v>44193</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K65" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L65" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M65" t="n">
-        <v>27615</v>
+        <v>29542</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1105</v>
+        <v>1182</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K66" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L66" t="n">
         <v>28000</v>
       </c>
-      <c r="L66" t="n">
-        <v>29000</v>
-      </c>
       <c r="M66" t="n">
-        <v>28625</v>
+        <v>27615</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K67" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L67" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M67" t="n">
-        <v>45000</v>
+        <v>28625</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1800</v>
+        <v>1145</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44208</v>
+        <v>44553</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5256,13 +5256,13 @@
         <v>95</v>
       </c>
       <c r="K68" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L68" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M68" t="n">
-        <v>27526</v>
+        <v>45000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1101</v>
+        <v>1800</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K69" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L69" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M69" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K70" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L70" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M70" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44200</v>
+        <v>44279</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K71" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L71" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M71" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K72" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L72" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M72" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K73" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L73" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M73" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K74" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L74" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M74" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K75" t="n">
         <v>35000</v>
       </c>
       <c r="L75" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M75" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K76" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L76" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M76" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44277</v>
+        <v>44610</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K77" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L77" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M77" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K78" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L78" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M78" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,58 +6021,130 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E79" t="n">
+        <v>9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>100</v>
+      </c>
+      <c r="K79" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L79" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M79" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>25</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E79" t="n">
-        <v>9</v>
-      </c>
-      <c r="F79" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
+      <c r="E80" t="n">
+        <v>9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
         <v>110</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K80" t="n">
         <v>45000</v>
       </c>
-      <c r="L79" t="n">
+      <c r="L80" t="n">
         <v>45000</v>
       </c>
-      <c r="M79" t="n">
+      <c r="M80" t="n">
         <v>45000</v>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P79" t="n">
+      <c r="P80" t="n">
         <v>1800</v>
       </c>
-      <c r="Q79" t="n">
-        <v>25</v>
-      </c>
-      <c r="R79" t="inlineStr">
+      <c r="Q80" t="n">
+        <v>25</v>
+      </c>
+      <c r="R80" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K69" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L69" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M69" t="n">
-        <v>27526</v>
+        <v>20000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1101</v>
+        <v>800</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K70" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L70" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M70" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K71" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L71" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M71" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44200</v>
+        <v>44279</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K72" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L72" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M72" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K73" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L73" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M73" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K74" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L74" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M74" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K75" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L75" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M75" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K76" t="n">
         <v>35000</v>
       </c>
       <c r="L76" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M76" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K77" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L77" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M77" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44277</v>
+        <v>44610</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K78" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L78" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M78" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K79" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L79" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M79" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,58 +6093,130 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E80" t="n">
+        <v>9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>100</v>
+      </c>
+      <c r="K80" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L80" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M80" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>25</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E80" t="n">
-        <v>9</v>
-      </c>
-      <c r="F80" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
+      <c r="E81" t="n">
+        <v>9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
         <v>110</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K81" t="n">
         <v>45000</v>
       </c>
-      <c r="L80" t="n">
+      <c r="L81" t="n">
         <v>45000</v>
       </c>
-      <c r="M80" t="n">
+      <c r="M81" t="n">
         <v>45000</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P80" t="n">
+      <c r="P81" t="n">
         <v>1800</v>
       </c>
-      <c r="Q80" t="n">
-        <v>25</v>
-      </c>
-      <c r="R80" t="inlineStr">
+      <c r="Q81" t="n">
+        <v>25</v>
+      </c>
+      <c r="R81" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44574</v>
+        <v>44638</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="K36" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L36" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M36" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1120</v>
+        <v>800</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="K37" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L37" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M37" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44601</v>
+        <v>44574</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3089,11 +3089,11 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K38" t="n">
         <v>25000</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44589</v>
+        <v>44601</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="K39" t="n">
         <v>25000</v>
       </c>
       <c r="L39" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M39" t="n">
-        <v>26179</v>
+        <v>25000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44582</v>
+        <v>44589</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K40" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L40" t="n">
         <v>28000</v>
       </c>
       <c r="M40" t="n">
-        <v>28000</v>
+        <v>26179</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44588</v>
+        <v>44582</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="K41" t="n">
         <v>28000</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44202</v>
+        <v>44588</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="K42" t="n">
         <v>28000</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K43" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L43" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M43" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K44" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L44" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M44" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44194</v>
+        <v>44244</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L45" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M45" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>880</v>
+        <v>1160</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44603</v>
+        <v>44194</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="K46" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L46" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M46" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44217</v>
+        <v>44603</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="K47" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L47" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M47" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44596</v>
+        <v>44217</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K48" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L48" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M48" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44606</v>
+        <v>44596</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K49" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L49" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M49" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44238</v>
+        <v>44606</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K50" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L50" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M50" t="n">
-        <v>28568</v>
+        <v>25000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K51" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L51" t="n">
         <v>29000</v>
       </c>
       <c r="M51" t="n">
-        <v>29000</v>
+        <v>28568</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44188</v>
+        <v>44242</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K52" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L52" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M52" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,32 +4173,32 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K53" t="n">
-        <v>1700</v>
+        <v>35000</v>
       </c>
       <c r="L53" t="n">
-        <v>1800</v>
+        <v>35000</v>
       </c>
       <c r="M53" t="n">
-        <v>1756</v>
+        <v>35000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1756</v>
+        <v>1400</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,32 +4245,32 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K54" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L54" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="M54" t="n">
-        <v>32000</v>
+        <v>1756</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1280</v>
+        <v>1756</v>
       </c>
       <c r="Q54" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44579</v>
+        <v>44223</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K55" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L55" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M55" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44249</v>
+        <v>44579</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K56" t="n">
         <v>28000</v>
       </c>
       <c r="L56" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M56" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44196</v>
+        <v>44249</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="K57" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L57" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M57" t="n">
-        <v>10000</v>
+        <v>28543</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>400</v>
+        <v>1142</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44609</v>
+        <v>44196</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K58" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L58" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M58" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="K59" t="n">
         <v>25000</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44578</v>
+        <v>44195</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K60" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L60" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M60" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K61" t="n">
         <v>28000</v>
       </c>
       <c r="L61" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M61" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K62" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L62" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M62" t="n">
-        <v>23000</v>
+        <v>29130</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44568</v>
+        <v>44271</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K63" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L63" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M63" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44231</v>
+        <v>44568</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,7 +4965,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K64" t="n">
         <v>30000</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K65" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L65" t="n">
         <v>30000</v>
       </c>
       <c r="M65" t="n">
-        <v>29542</v>
+        <v>30000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44567</v>
+        <v>44193</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K66" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L66" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M66" t="n">
-        <v>27615</v>
+        <v>29542</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1105</v>
+        <v>1182</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K67" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L67" t="n">
         <v>28000</v>
       </c>
-      <c r="L67" t="n">
-        <v>29000</v>
-      </c>
       <c r="M67" t="n">
-        <v>28625</v>
+        <v>27615</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K68" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L68" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M68" t="n">
-        <v>45000</v>
+        <v>28625</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1800</v>
+        <v>1145</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44637</v>
+        <v>44553</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K69" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="L69" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M69" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K70" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L70" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M70" t="n">
-        <v>27526</v>
+        <v>20000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1101</v>
+        <v>800</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K71" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L71" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M71" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K72" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L72" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M72" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44200</v>
+        <v>44279</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K73" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L73" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M73" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K74" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L74" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M74" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K75" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L75" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M75" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K76" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L76" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M76" t="n">
-        <v>35429</v>
+        <v>32806</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1417</v>
+        <v>1312</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K77" t="n">
         <v>35000</v>
       </c>
       <c r="L77" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M77" t="n">
-        <v>35000</v>
+        <v>35429</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K78" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L78" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M78" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44277</v>
+        <v>44610</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K79" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L79" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M79" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K80" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L80" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M80" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,58 +6165,130 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E81" t="n">
+        <v>9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>100</v>
+      </c>
+      <c r="K81" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L81" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M81" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>25</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="E81" t="n">
-        <v>9</v>
-      </c>
-      <c r="F81" t="n">
-        <v>100112030</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Poroto granado</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
+      <c r="E82" t="n">
+        <v>9</v>
+      </c>
+      <c r="F82" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
         <v>110</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K82" t="n">
         <v>45000</v>
       </c>
-      <c r="L81" t="n">
+      <c r="L82" t="n">
         <v>45000</v>
       </c>
-      <c r="M81" t="n">
+      <c r="M82" t="n">
         <v>45000</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P81" t="n">
+      <c r="P82" t="n">
         <v>1800</v>
       </c>
-      <c r="Q81" t="n">
-        <v>25</v>
-      </c>
-      <c r="R81" t="inlineStr">
+      <c r="Q82" t="n">
+        <v>25</v>
+      </c>
+      <c r="R82" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44215</v>
+        <v>44195</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K2" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L2" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M2" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44267</v>
+        <v>44588</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="K3" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L3" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M3" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44616</v>
+        <v>44279</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
         <v>23000</v>
       </c>
       <c r="L4" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M4" t="n">
-        <v>23889</v>
+        <v>23000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>956</v>
+        <v>920</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44558</v>
+        <v>44222</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="K5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>1280</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44585</v>
+        <v>44214</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K6" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L6" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="M6" t="n">
-        <v>28000</v>
+        <v>35429</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1120</v>
+        <v>1417</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44575</v>
+        <v>44214</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L7" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M7" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="K8" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L8" t="n">
         <v>29000</v>
       </c>
       <c r="M8" t="n">
-        <v>29000</v>
+        <v>28568</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44273</v>
+        <v>44217</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L9" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M9" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44602</v>
+        <v>44235</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="K10" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L10" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M10" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44602</v>
+        <v>44243</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="K11" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L11" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M11" t="n">
-        <v>27000</v>
+        <v>28448</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1080</v>
+        <v>1138</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44613</v>
+        <v>44271</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L12" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M12" t="n">
-        <v>26286</v>
+        <v>23000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1051</v>
+        <v>920</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44266</v>
+        <v>44188</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L13" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M13" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44218</v>
+        <v>44568</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1368,13 +1368,13 @@
         <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L14" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M14" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44559</v>
+        <v>44600</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="K15" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L15" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M15" t="n">
-        <v>28000</v>
+        <v>25828</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1120</v>
+        <v>1033</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44559</v>
+        <v>44225</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L16" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M16" t="n">
-        <v>25000</v>
+        <v>29130</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>1165</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44259</v>
+        <v>44579</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44243</v>
+        <v>44587</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
         <v>28000</v>
       </c>
       <c r="L18" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M18" t="n">
-        <v>28448</v>
+        <v>28000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1138</v>
+        <v>1120</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L19" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M19" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44224</v>
+        <v>44637</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L20" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>28909</v>
+        <v>20000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1156</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44600</v>
+        <v>44267</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="K21" t="n">
         <v>25000</v>
       </c>
       <c r="L21" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M21" t="n">
-        <v>25828</v>
+        <v>25000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44623</v>
+        <v>44609</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="K22" t="n">
         <v>25000</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44216</v>
+        <v>44581</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L23" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M23" t="n">
-        <v>35000</v>
+        <v>28625</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1400</v>
+        <v>1145</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44624</v>
+        <v>44224</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>30</v>
+        <v>380</v>
       </c>
       <c r="K24" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L24" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M24" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44189</v>
+        <v>44224</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="K25" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L25" t="n">
         <v>30000</v>
       </c>
       <c r="M25" t="n">
-        <v>30000</v>
+        <v>28909</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1200</v>
+        <v>1156</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44235</v>
+        <v>44194</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="K26" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L26" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M26" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1160</v>
+        <v>880</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44209</v>
+        <v>44574</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K27" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L27" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M27" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44614</v>
+        <v>44574</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="K28" t="n">
         <v>25000</v>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44587</v>
+        <v>44242</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="K29" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L29" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M29" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44222</v>
+        <v>44623</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K30" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L30" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M30" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44278</v>
+        <v>44259</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L31" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M31" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44203</v>
+        <v>44221</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="K32" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L32" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="M32" t="n">
-        <v>27000</v>
+        <v>32806</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1080</v>
+        <v>1312</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K33" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L33" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M33" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44245</v>
+        <v>44209</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L34" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M34" t="n">
-        <v>28532</v>
+        <v>27000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1141</v>
+        <v>1080</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44586</v>
+        <v>44249</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="K35" t="n">
         <v>28000</v>
       </c>
       <c r="L35" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M35" t="n">
-        <v>28000</v>
+        <v>28543</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1120</v>
+        <v>1142</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44638</v>
+        <v>44266</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K36" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L36" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M36" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44574</v>
+        <v>44244</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="K37" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L37" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M37" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44574</v>
+        <v>44552</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K38" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L38" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M38" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44601</v>
+        <v>44236</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K39" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L39" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M39" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44589</v>
+        <v>44196</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="K40" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L40" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="M40" t="n">
-        <v>26179</v>
+        <v>10000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1047</v>
+        <v>400</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44582</v>
+        <v>44613</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K41" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L41" t="n">
         <v>28000</v>
       </c>
       <c r="M41" t="n">
-        <v>28000</v>
+        <v>26286</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1120</v>
+        <v>1051</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44588</v>
+        <v>44216</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="K42" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L42" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M42" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44202</v>
+        <v>44606</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L43" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M43" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44204</v>
+        <v>44602</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K44" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L44" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M44" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44244</v>
+        <v>44602</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K45" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L45" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M45" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="K46" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="L46" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M46" t="n">
-        <v>22000</v>
+        <v>27526</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>880</v>
+        <v>1101</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44603</v>
+        <v>44203</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="K47" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L47" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M47" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K48" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L48" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M48" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44596</v>
+        <v>44166</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,32 +3885,32 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K49" t="n">
-        <v>28000</v>
+        <v>1700</v>
       </c>
       <c r="L49" t="n">
-        <v>28000</v>
+        <v>1800</v>
       </c>
       <c r="M49" t="n">
-        <v>28000</v>
+        <v>1756</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1120</v>
+        <v>1756</v>
       </c>
       <c r="Q49" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44606</v>
+        <v>44610</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3960,13 +3960,13 @@
         <v>50</v>
       </c>
       <c r="K50" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L50" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M50" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44238</v>
+        <v>44616</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="K51" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L51" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M51" t="n">
-        <v>28568</v>
+        <v>23889</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1143</v>
+        <v>956</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44242</v>
+        <v>44218</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K52" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L52" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M52" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44188</v>
+        <v>44202</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K53" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L53" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M53" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44166</v>
+        <v>44603</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,32 +4245,32 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K54" t="n">
-        <v>1700</v>
+        <v>25000</v>
       </c>
       <c r="L54" t="n">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="M54" t="n">
-        <v>1756</v>
+        <v>25000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1756</v>
+        <v>1000</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44223</v>
+        <v>44586</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K55" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L55" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M55" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44579</v>
+        <v>44553</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K56" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="L56" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M56" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1120</v>
+        <v>1800</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44249</v>
+        <v>44595</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
         <v>28000</v>
       </c>
       <c r="L57" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M57" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44196</v>
+        <v>44239</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K58" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="L58" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M58" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>400</v>
+        <v>1160</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44609</v>
+        <v>44601</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="K59" t="n">
         <v>25000</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44195</v>
+        <v>44273</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="K60" t="n">
         <v>25000</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44578</v>
+        <v>44567</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K61" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L61" t="n">
         <v>28000</v>
       </c>
       <c r="M61" t="n">
-        <v>28000</v>
+        <v>27615</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44225</v>
+        <v>44596</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="K62" t="n">
         <v>28000</v>
       </c>
       <c r="L62" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M62" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44271</v>
+        <v>44578</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L63" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M63" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44568</v>
+        <v>44614</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K64" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L64" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M64" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44231</v>
+        <v>44245</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="K65" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L65" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M65" t="n">
-        <v>30000</v>
+        <v>28532</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1200</v>
+        <v>1141</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44193</v>
+        <v>44575</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K66" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L66" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M66" t="n">
-        <v>29542</v>
+        <v>28000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1182</v>
+        <v>1120</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44567</v>
+        <v>44277</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K67" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L67" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M67" t="n">
-        <v>27615</v>
+        <v>23000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1105</v>
+        <v>920</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44581</v>
+        <v>44278</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K68" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L68" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M68" t="n">
-        <v>28625</v>
+        <v>23000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1145</v>
+        <v>920</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44553</v>
+        <v>44231</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5328,13 +5328,13 @@
         <v>95</v>
       </c>
       <c r="K69" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L69" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M69" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44637</v>
+        <v>44193</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K70" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L70" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M70" t="n">
-        <v>20000</v>
+        <v>29542</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>800</v>
+        <v>1182</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44208</v>
+        <v>44624</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K71" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L71" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M71" t="n">
-        <v>27526</v>
+        <v>25000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1101</v>
+        <v>1000</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44232</v>
+        <v>44585</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="K72" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L72" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M72" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44279</v>
+        <v>44558</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K73" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L73" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M73" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44200</v>
+        <v>44232</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K74" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L74" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M74" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44236</v>
+        <v>44215</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K75" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L75" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M75" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44221</v>
+        <v>44189</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="K76" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L76" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M76" t="n">
-        <v>32806</v>
+        <v>30000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1312</v>
+        <v>1200</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44214</v>
+        <v>44582</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K77" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L77" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M77" t="n">
-        <v>35429</v>
+        <v>28000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1417</v>
+        <v>1120</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44214</v>
+        <v>44559</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K78" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L78" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M78" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44610</v>
+        <v>44559</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K79" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L79" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M79" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44277</v>
+        <v>44223</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6120,13 +6120,13 @@
         <v>95</v>
       </c>
       <c r="K80" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L80" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M80" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>920</v>
+        <v>1280</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44595</v>
+        <v>44638</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K81" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L81" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M81" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1120</v>
+        <v>800</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44552</v>
+        <v>44589</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K82" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L82" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M82" t="n">
-        <v>45000</v>
+        <v>26179</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1800</v>
+        <v>1047</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44195</v>
+        <v>44243</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K2" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L2" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M2" t="n">
-        <v>25000</v>
+        <v>28448</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1000</v>
+        <v>1138</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44588</v>
+        <v>44202</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
         <v>28000</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K4" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K5" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="L5" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M5" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1280</v>
+        <v>880</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44214</v>
+        <v>44567</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K6" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L6" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M6" t="n">
-        <v>35429</v>
+        <v>27615</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1417</v>
+        <v>1105</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K7" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L7" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="M7" t="n">
-        <v>35000</v>
+        <v>32806</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1400</v>
+        <v>1312</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44278</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="K8" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L8" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M8" t="n">
-        <v>28568</v>
+        <v>23000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1143</v>
+        <v>920</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44217</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K9" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L9" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M9" t="n">
-        <v>32000</v>
+        <v>28568</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1280</v>
+        <v>1143</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44235</v>
+        <v>44588</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="K10" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L10" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M10" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44243</v>
+        <v>44585</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
         <v>28000</v>
       </c>
       <c r="L11" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M11" t="n">
-        <v>28448</v>
+        <v>28000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1138</v>
+        <v>1120</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44271</v>
+        <v>44581</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L12" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M12" t="n">
-        <v>23000</v>
+        <v>28625</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>920</v>
+        <v>1145</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44188</v>
+        <v>44208</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K13" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L13" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M13" t="n">
-        <v>35000</v>
+        <v>27526</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1400</v>
+        <v>1101</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44568</v>
+        <v>44606</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L14" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M14" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44600</v>
+        <v>44574</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="K15" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L15" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M15" t="n">
-        <v>25828</v>
+        <v>28000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1033</v>
+        <v>1120</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44225</v>
+        <v>44574</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="K16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L16" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M16" t="n">
-        <v>29130</v>
+        <v>25000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1165</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44579</v>
+        <v>44204</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1584,13 +1584,13 @@
         <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L17" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M17" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44587</v>
+        <v>44193</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="n">
-        <v>28000</v>
+        <v>29542</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1120</v>
+        <v>1182</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44200</v>
+        <v>44638</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="L19" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1280</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44637</v>
+        <v>44244</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="M20" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>1160</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44267</v>
+        <v>44578</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L21" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M21" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44609</v>
+        <v>44279</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L22" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M22" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44581</v>
+        <v>44189</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L23" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M23" t="n">
-        <v>28625</v>
+        <v>30000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1145</v>
+        <v>1200</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44224</v>
+        <v>44614</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="K24" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L24" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M24" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44224</v>
+        <v>44249</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>330</v>
+        <v>175</v>
       </c>
       <c r="K25" t="n">
         <v>28000</v>
       </c>
       <c r="L25" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M25" t="n">
-        <v>28909</v>
+        <v>28543</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44194</v>
+        <v>44558</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>350</v>
+        <v>28</v>
       </c>
       <c r="K26" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L26" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M26" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>880</v>
+        <v>1200</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44574</v>
+        <v>44589</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="K27" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L27" t="n">
         <v>28000</v>
       </c>
       <c r="M27" t="n">
-        <v>28000</v>
+        <v>26179</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44574</v>
+        <v>44637</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L28" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44242</v>
+        <v>44277</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K29" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L29" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M29" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44623</v>
+        <v>44196</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L30" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44259</v>
+        <v>44579</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L31" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M31" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44221</v>
+        <v>44166</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,32 +2661,32 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="K32" t="n">
-        <v>32000</v>
+        <v>1700</v>
       </c>
       <c r="L32" t="n">
-        <v>34000</v>
+        <v>1800</v>
       </c>
       <c r="M32" t="n">
-        <v>32806</v>
+        <v>1756</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1312</v>
+        <v>1756</v>
       </c>
       <c r="Q32" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44204</v>
+        <v>44209</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
         <v>27000</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44209</v>
+        <v>44610</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K34" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L34" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M34" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44249</v>
+        <v>44225</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="K35" t="n">
         <v>28000</v>
       </c>
       <c r="L35" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M35" t="n">
-        <v>28543</v>
+        <v>29130</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1142</v>
+        <v>1165</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44266</v>
+        <v>44273</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K36" t="n">
         <v>25000</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44244</v>
+        <v>44587</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K37" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L37" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M37" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44552</v>
+        <v>44623</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K38" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L38" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M38" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44236</v>
+        <v>44245</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="K39" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L39" t="n">
         <v>29000</v>
       </c>
       <c r="M39" t="n">
-        <v>29000</v>
+        <v>28532</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1160</v>
+        <v>1141</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44196</v>
+        <v>44613</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K40" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L40" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="M40" t="n">
-        <v>10000</v>
+        <v>26286</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>400</v>
+        <v>1051</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44613</v>
+        <v>44624</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K41" t="n">
         <v>25000</v>
       </c>
       <c r="L41" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M41" t="n">
-        <v>26286</v>
+        <v>25000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1051</v>
+        <v>1000</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44216</v>
+        <v>44222</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K42" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L42" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M42" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44606</v>
+        <v>44239</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="K43" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L43" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M43" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="K44" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L44" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M44" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44602</v>
+        <v>44559</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K45" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L45" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M45" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44208</v>
+        <v>44188</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K46" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L46" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M46" t="n">
-        <v>27526</v>
+        <v>35000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1101</v>
+        <v>1400</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44203</v>
+        <v>44217</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K47" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L47" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M47" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44203</v>
+        <v>44267</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3809,11 +3809,11 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K48" t="n">
         <v>25000</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,32 +3885,32 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K49" t="n">
-        <v>1700</v>
+        <v>35000</v>
       </c>
       <c r="L49" t="n">
-        <v>1800</v>
+        <v>35000</v>
       </c>
       <c r="M49" t="n">
-        <v>1756</v>
+        <v>35000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1756</v>
+        <v>1400</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44610</v>
+        <v>44595</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K50" t="n">
         <v>28000</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44616</v>
+        <v>44200</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K51" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L51" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M51" t="n">
-        <v>23889</v>
+        <v>32000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>956</v>
+        <v>1280</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K52" t="n">
         <v>35000</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44202</v>
+        <v>44214</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K53" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L53" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="M53" t="n">
-        <v>28000</v>
+        <v>35429</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1120</v>
+        <v>1417</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44603</v>
+        <v>44214</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K54" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L54" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M54" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44586</v>
+        <v>44235</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="K55" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L55" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M55" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44553</v>
+        <v>44586</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K56" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L56" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M56" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1800</v>
+        <v>1120</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44595</v>
+        <v>44575</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K57" t="n">
         <v>28000</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44239</v>
+        <v>44271</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="K58" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L58" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M58" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44601</v>
+        <v>44568</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K59" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L59" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M59" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44273</v>
+        <v>44215</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K60" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L60" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M60" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44567</v>
+        <v>44195</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="K61" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L61" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M61" t="n">
-        <v>27615</v>
+        <v>25000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1105</v>
+        <v>1000</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44596</v>
+        <v>44582</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K62" t="n">
         <v>28000</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44578</v>
+        <v>44223</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K63" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L63" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M63" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44614</v>
+        <v>44596</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4968,13 +4968,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L64" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M64" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44245</v>
+        <v>44552</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="K65" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="L65" t="n">
-        <v>29000</v>
+        <v>45000</v>
       </c>
       <c r="M65" t="n">
-        <v>28532</v>
+        <v>45000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1141</v>
+        <v>1800</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44575</v>
+        <v>44236</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K66" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L66" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M66" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44277</v>
+        <v>44603</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K67" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L67" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M67" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44278</v>
+        <v>44601</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5256,13 +5256,13 @@
         <v>65</v>
       </c>
       <c r="K68" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L68" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M68" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44231</v>
+        <v>44600</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="K69" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L69" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M69" t="n">
-        <v>30000</v>
+        <v>25828</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44193</v>
+        <v>44266</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K70" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L70" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M70" t="n">
-        <v>29542</v>
+        <v>25000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1182</v>
+        <v>1000</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44624</v>
+        <v>44231</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="K71" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L71" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M71" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44585</v>
+        <v>44242</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="K72" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L72" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M72" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44558</v>
+        <v>44224</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>28</v>
+        <v>380</v>
       </c>
       <c r="K73" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L73" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M73" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44232</v>
+        <v>44224</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="K74" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L74" t="n">
         <v>30000</v>
       </c>
       <c r="M74" t="n">
-        <v>30000</v>
+        <v>28909</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1200</v>
+        <v>1156</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44215</v>
+        <v>44553</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K75" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L75" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M75" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44189</v>
+        <v>44616</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="K76" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L76" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M76" t="n">
-        <v>30000</v>
+        <v>23889</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1200</v>
+        <v>956</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44582</v>
+        <v>44259</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K77" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L77" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M77" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="K78" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L78" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M78" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44559</v>
+        <v>44602</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="K79" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L79" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M79" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44223</v>
+        <v>44609</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="K80" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L80" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M80" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44638</v>
+        <v>44203</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K81" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L81" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M81" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>800</v>
+        <v>1080</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44589</v>
+        <v>44203</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K82" t="n">
         <v>25000</v>
       </c>
       <c r="L82" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M82" t="n">
-        <v>26179</v>
+        <v>25000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44243</v>
+        <v>44589</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L2" t="n">
         <v>28000</v>
       </c>
-      <c r="L2" t="n">
-        <v>29000</v>
-      </c>
       <c r="M2" t="n">
-        <v>28448</v>
+        <v>26179</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1138</v>
+        <v>1047</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44202</v>
+        <v>44239</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="K3" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L3" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M3" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44232</v>
+        <v>44215</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44194</v>
+        <v>44587</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L5" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M5" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>880</v>
+        <v>1120</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44567</v>
+        <v>44595</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L6" t="n">
         <v>28000</v>
       </c>
       <c r="M6" t="n">
-        <v>27615</v>
+        <v>28000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1105</v>
+        <v>1120</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44221</v>
+        <v>44602</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K7" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L7" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M7" t="n">
-        <v>32806</v>
+        <v>25000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1312</v>
+        <v>1000</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44278</v>
+        <v>44602</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K8" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L8" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M8" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>44231</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="K9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L9" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>28568</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1143</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44588</v>
+        <v>44575</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="K10" t="n">
         <v>28000</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44585</v>
+        <v>44278</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K11" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L11" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M11" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44581</v>
+        <v>44603</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K12" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L12" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M12" t="n">
-        <v>28625</v>
+        <v>25000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1145</v>
+        <v>1000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44208</v>
+        <v>44166</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K13" t="n">
-        <v>27000</v>
+        <v>1700</v>
       </c>
       <c r="L13" t="n">
-        <v>28000</v>
+        <v>1800</v>
       </c>
       <c r="M13" t="n">
-        <v>27526</v>
+        <v>1756</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1101</v>
+        <v>1756</v>
       </c>
       <c r="Q13" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44606</v>
+        <v>44273</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K14" t="n">
         <v>25000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44574</v>
+        <v>44553</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="K15" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="L15" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M15" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1120</v>
+        <v>1800</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44574</v>
+        <v>44585</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44204</v>
+        <v>44613</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K17" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L17" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M17" t="n">
-        <v>27000</v>
+        <v>26286</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1080</v>
+        <v>1051</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44193</v>
+        <v>44244</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
         <v>29000</v>
       </c>
       <c r="L18" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M18" t="n">
-        <v>29542</v>
+        <v>29000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1182</v>
+        <v>1160</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44638</v>
+        <v>44208</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="K19" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M19" t="n">
-        <v>20000</v>
+        <v>27526</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>1101</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44244</v>
+        <v>44195</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K20" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L20" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M20" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44578</v>
+        <v>44209</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1872,13 +1872,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L21" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M21" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44279</v>
+        <v>44259</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L22" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M22" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44189</v>
+        <v>44235</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="K23" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="L23" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M23" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44614</v>
+        <v>44217</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L24" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M24" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44249</v>
+        <v>44232</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="K25" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L25" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M25" t="n">
-        <v>28543</v>
+        <v>30000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1142</v>
+        <v>1200</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="K26" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L26" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M26" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44589</v>
+        <v>44277</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="K27" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L27" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M27" t="n">
-        <v>26179</v>
+        <v>23000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1047</v>
+        <v>920</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44637</v>
+        <v>44224</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="K28" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M28" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>800</v>
+        <v>1080</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44277</v>
+        <v>44224</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="K29" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L29" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M29" t="n">
-        <v>23000</v>
+        <v>28909</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>920</v>
+        <v>1156</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44196</v>
+        <v>44214</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K30" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="L30" t="n">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="M30" t="n">
-        <v>10000</v>
+        <v>35429</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>400</v>
+        <v>1417</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44579</v>
+        <v>44214</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K31" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L31" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M31" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44166</v>
+        <v>44242</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,32 +2661,32 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="K32" t="n">
-        <v>1700</v>
+        <v>29000</v>
       </c>
       <c r="L32" t="n">
-        <v>1800</v>
+        <v>29000</v>
       </c>
       <c r="M32" t="n">
-        <v>1756</v>
+        <v>29000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1756</v>
+        <v>1160</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44209</v>
+        <v>44623</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K33" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L33" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M33" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44610</v>
+        <v>44223</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K34" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L34" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M34" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44225</v>
+        <v>44196</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="K35" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="L35" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>29130</v>
+        <v>10000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1165</v>
+        <v>400</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44273</v>
+        <v>44238</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="K36" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L36" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M36" t="n">
-        <v>25000</v>
+        <v>28568</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K37" t="n">
         <v>28000</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44623</v>
+        <v>44600</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="K38" t="n">
         <v>25000</v>
       </c>
       <c r="L38" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M38" t="n">
-        <v>25000</v>
+        <v>25828</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44245</v>
+        <v>44204</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L39" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M39" t="n">
-        <v>28532</v>
+        <v>27000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1141</v>
+        <v>1080</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44613</v>
+        <v>44266</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K40" t="n">
         <v>25000</v>
       </c>
       <c r="L40" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M40" t="n">
-        <v>26286</v>
+        <v>25000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1051</v>
+        <v>1000</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44624</v>
+        <v>44271</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3312,13 +3312,13 @@
         <v>30</v>
       </c>
       <c r="K41" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L41" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M41" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44222</v>
+        <v>44200</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K42" t="n">
         <v>32000</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44239</v>
+        <v>44610</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L43" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M43" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44559</v>
+        <v>44567</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="K44" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L44" t="n">
         <v>28000</v>
       </c>
       <c r="M44" t="n">
-        <v>28000</v>
+        <v>27615</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44559</v>
+        <v>44638</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
         <v>30</v>
       </c>
       <c r="K45" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L45" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M45" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44188</v>
+        <v>44579</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3672,13 +3672,13 @@
         <v>50</v>
       </c>
       <c r="K46" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L46" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M46" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44217</v>
+        <v>44616</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K47" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L47" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M47" t="n">
-        <v>32000</v>
+        <v>23889</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1280</v>
+        <v>956</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44267</v>
+        <v>44588</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="K48" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L48" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M48" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44218</v>
+        <v>44581</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3888,13 +3888,13 @@
         <v>80</v>
       </c>
       <c r="K49" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L49" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M49" t="n">
-        <v>35000</v>
+        <v>28625</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1400</v>
+        <v>1145</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44595</v>
+        <v>44225</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K50" t="n">
         <v>28000</v>
       </c>
       <c r="L50" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M50" t="n">
-        <v>28000</v>
+        <v>29130</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1120</v>
+        <v>1165</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44200</v>
+        <v>44624</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K51" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L51" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M51" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44216</v>
+        <v>44609</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="K52" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L52" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M52" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44214</v>
+        <v>44558</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="K53" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L53" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="M53" t="n">
-        <v>35429</v>
+        <v>30000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1417</v>
+        <v>1200</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K54" t="n">
         <v>35000</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44235</v>
+        <v>44637</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K55" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="L55" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="M55" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1160</v>
+        <v>800</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44586</v>
+        <v>44279</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K56" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L56" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M56" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="K57" t="n">
         <v>28000</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44271</v>
+        <v>44574</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="K58" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L58" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M58" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44568</v>
+        <v>44606</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K59" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L59" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M59" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44215</v>
+        <v>44559</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K60" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L60" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M60" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4745,11 +4745,11 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="K61" t="n">
         <v>25000</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44582</v>
+        <v>44188</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4824,13 +4824,13 @@
         <v>50</v>
       </c>
       <c r="K62" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L62" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M62" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44223</v>
+        <v>44578</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L63" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M63" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44596</v>
+        <v>44582</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,7 +4965,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K64" t="n">
         <v>28000</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44552</v>
+        <v>44267</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K65" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L65" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M65" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44236</v>
+        <v>44601</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K66" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L66" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M66" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44603</v>
+        <v>44568</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K67" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L67" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M67" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44601</v>
+        <v>44218</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K68" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L68" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M68" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44600</v>
+        <v>44194</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>145</v>
+        <v>350</v>
       </c>
       <c r="K69" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L69" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M69" t="n">
-        <v>25828</v>
+        <v>22000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1033</v>
+        <v>880</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44266</v>
+        <v>44202</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K70" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L70" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M70" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44231</v>
+        <v>44243</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="K71" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L71" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M71" t="n">
-        <v>30000</v>
+        <v>28448</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1200</v>
+        <v>1138</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44242</v>
+        <v>44236</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="K72" t="n">
         <v>29000</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="K73" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L73" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M73" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44224</v>
+        <v>44203</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="K74" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L74" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M74" t="n">
-        <v>28909</v>
+        <v>27000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1156</v>
+        <v>1080</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44553</v>
+        <v>44203</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K75" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L75" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M75" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44616</v>
+        <v>44596</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K76" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L76" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M76" t="n">
-        <v>23889</v>
+        <v>28000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>956</v>
+        <v>1120</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44259</v>
+        <v>44249</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="K77" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L77" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M77" t="n">
-        <v>25000</v>
+        <v>28543</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1000</v>
+        <v>1142</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44602</v>
+        <v>44221</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="K78" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L78" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M78" t="n">
-        <v>25000</v>
+        <v>32806</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1000</v>
+        <v>1312</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44602</v>
+        <v>44614</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K79" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L79" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M79" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44609</v>
+        <v>44193</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="K80" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L80" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M80" t="n">
-        <v>25000</v>
+        <v>29542</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1000</v>
+        <v>1182</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44203</v>
+        <v>44245</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="K81" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L81" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M81" t="n">
-        <v>27000</v>
+        <v>28532</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1080</v>
+        <v>1141</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44203</v>
+        <v>44189</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K82" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L82" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M82" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K2" t="n">
         <v>25000</v>
       </c>
       <c r="L2" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M2" t="n">
-        <v>26179</v>
+        <v>25828</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44239</v>
+        <v>44243</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="K3" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L3" t="n">
         <v>29000</v>
       </c>
       <c r="M3" t="n">
-        <v>29000</v>
+        <v>28448</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1160</v>
+        <v>1138</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44215</v>
+        <v>44232</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44587</v>
+        <v>44606</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44595</v>
+        <v>44216</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K6" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L6" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M6" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44602</v>
+        <v>44259</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
         <v>25000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44602</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="K8" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L8" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M8" t="n">
-        <v>27000</v>
+        <v>28568</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44231</v>
+        <v>44567</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M9" t="n">
-        <v>30000</v>
+        <v>27615</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>1105</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44575</v>
+        <v>44208</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="K10" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L10" t="n">
         <v>28000</v>
       </c>
       <c r="M10" t="n">
-        <v>28000</v>
+        <v>27526</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44278</v>
+        <v>44574</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="K11" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L11" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M11" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44603</v>
+        <v>44574</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1217,11 +1217,11 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K12" t="n">
         <v>25000</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44166</v>
+        <v>44579</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>1700</v>
+        <v>28000</v>
       </c>
       <c r="L13" t="n">
-        <v>1800</v>
+        <v>28000</v>
       </c>
       <c r="M13" t="n">
-        <v>1756</v>
+        <v>28000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1756</v>
+        <v>1120</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44273</v>
+        <v>44616</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K14" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L14" t="n">
         <v>25000</v>
       </c>
       <c r="M14" t="n">
-        <v>25000</v>
+        <v>23889</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>956</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44553</v>
+        <v>44610</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L15" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M15" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1800</v>
+        <v>1120</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44585</v>
+        <v>44193</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L16" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M16" t="n">
-        <v>28000</v>
+        <v>29542</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1120</v>
+        <v>1182</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44613</v>
+        <v>44196</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L17" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>26286</v>
+        <v>10000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1051</v>
+        <v>400</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44244</v>
+        <v>44188</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L18" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M18" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44208</v>
+        <v>44588</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="K19" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L19" t="n">
         <v>28000</v>
       </c>
       <c r="M19" t="n">
-        <v>27526</v>
+        <v>28000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1101</v>
+        <v>1120</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44195</v>
+        <v>44568</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L20" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M20" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44209</v>
+        <v>44267</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K21" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L21" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M21" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44259</v>
+        <v>44559</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="K22" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L22" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M22" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44235</v>
+        <v>44559</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="K23" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L23" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M23" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44217</v>
+        <v>44613</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K24" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L24" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M24" t="n">
-        <v>32000</v>
+        <v>26286</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1280</v>
+        <v>1051</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44232</v>
+        <v>44637</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L25" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M25" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44552</v>
+        <v>44224</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="K26" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="L26" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="M26" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1800</v>
+        <v>1080</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44277</v>
+        <v>44224</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="K27" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L27" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M27" t="n">
-        <v>23000</v>
+        <v>28909</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>920</v>
+        <v>1156</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44224</v>
+        <v>44558</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>380</v>
+        <v>28</v>
       </c>
       <c r="K28" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L28" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M28" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44224</v>
+        <v>44623</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="K29" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L29" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M29" t="n">
-        <v>28909</v>
+        <v>25000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1156</v>
+        <v>1000</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44214</v>
+        <v>44277</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K30" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L30" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="M30" t="n">
-        <v>35429</v>
+        <v>23000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1417</v>
+        <v>920</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44214</v>
+        <v>44231</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K31" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L31" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M31" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44242</v>
+        <v>44602</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="K32" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L32" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M32" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44623</v>
+        <v>44602</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="K33" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L33" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M33" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44223</v>
+        <v>44586</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K34" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L34" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M34" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="K35" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M35" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44238</v>
+        <v>44225</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="K36" t="n">
         <v>28000</v>
       </c>
       <c r="L36" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M36" t="n">
-        <v>28568</v>
+        <v>29130</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1143</v>
+        <v>1165</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K37" t="n">
         <v>28000</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44600</v>
+        <v>44609</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="K38" t="n">
         <v>25000</v>
       </c>
       <c r="L38" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M38" t="n">
-        <v>25828</v>
+        <v>25000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44204</v>
+        <v>44242</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K39" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L39" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M39" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44266</v>
+        <v>44222</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K40" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L40" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M40" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44271</v>
+        <v>44582</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K41" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L41" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M41" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44200</v>
+        <v>44595</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L42" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M42" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44610</v>
+        <v>44244</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K43" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L43" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M43" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44567</v>
+        <v>44552</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K44" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L44" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M44" t="n">
-        <v>27615</v>
+        <v>45000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1105</v>
+        <v>1800</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44638</v>
+        <v>44266</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K45" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L45" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M45" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44579</v>
+        <v>44614</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K46" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L46" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M46" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44616</v>
+        <v>44223</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K47" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L47" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M47" t="n">
-        <v>23889</v>
+        <v>32000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>956</v>
+        <v>1280</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44588</v>
+        <v>44624</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="K48" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L48" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M48" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44581</v>
+        <v>44166</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,32 +3885,32 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K49" t="n">
-        <v>28000</v>
+        <v>1700</v>
       </c>
       <c r="L49" t="n">
-        <v>29000</v>
+        <v>1800</v>
       </c>
       <c r="M49" t="n">
-        <v>28625</v>
+        <v>1756</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1145</v>
+        <v>1756</v>
       </c>
       <c r="Q49" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44225</v>
+        <v>44215</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K50" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L50" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M50" t="n">
-        <v>29130</v>
+        <v>35000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1165</v>
+        <v>1400</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44624</v>
+        <v>44221</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="K51" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L51" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M51" t="n">
-        <v>25000</v>
+        <v>32806</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1000</v>
+        <v>1312</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44609</v>
+        <v>44581</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K52" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L52" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M52" t="n">
-        <v>25000</v>
+        <v>28625</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1000</v>
+        <v>1145</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44558</v>
+        <v>44596</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K53" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L53" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M53" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44216</v>
+        <v>44587</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K54" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L54" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M54" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44637</v>
+        <v>44279</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4320,13 +4320,13 @@
         <v>50</v>
       </c>
       <c r="K55" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L55" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M55" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>800</v>
+        <v>920</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44279</v>
+        <v>44601</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K56" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L56" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M56" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44574</v>
+        <v>44589</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="K57" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L57" t="n">
         <v>28000</v>
       </c>
       <c r="M57" t="n">
-        <v>28000</v>
+        <v>26179</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="K58" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L58" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M58" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44606</v>
+        <v>44204</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4608,13 +4608,13 @@
         <v>50</v>
       </c>
       <c r="K59" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L59" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M59" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44559</v>
+        <v>44245</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="K60" t="n">
         <v>28000</v>
       </c>
       <c r="L60" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M60" t="n">
-        <v>28000</v>
+        <v>28532</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44559</v>
+        <v>44202</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K61" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L61" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M61" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44188</v>
+        <v>44239</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="K62" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L62" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M62" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44578</v>
+        <v>44235</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K63" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L63" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M63" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44582</v>
+        <v>44209</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K64" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L64" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M64" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44267</v>
+        <v>44214</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K65" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L65" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="M65" t="n">
-        <v>25000</v>
+        <v>35429</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1000</v>
+        <v>1417</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44601</v>
+        <v>44214</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K66" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L66" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M66" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44568</v>
+        <v>44236</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K67" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="L67" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M67" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44218</v>
+        <v>44249</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="K68" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L68" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M68" t="n">
-        <v>35000</v>
+        <v>28543</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1400</v>
+        <v>1142</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44194</v>
+        <v>44638</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="K69" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L69" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M69" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44202</v>
+        <v>44553</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K70" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="L70" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M70" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1120</v>
+        <v>1800</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44243</v>
+        <v>44189</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="K71" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L71" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M71" t="n">
-        <v>28448</v>
+        <v>30000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1138</v>
+        <v>1200</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44236</v>
+        <v>44278</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K72" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L72" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M72" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44222</v>
+        <v>44603</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K73" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L73" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M73" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44203</v>
+        <v>44578</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K74" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L74" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M74" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44203</v>
+        <v>44218</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K75" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L75" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M75" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44596</v>
+        <v>44203</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K76" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L76" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M76" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44249</v>
+        <v>44203</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="K77" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L77" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M77" t="n">
-        <v>28543</v>
+        <v>25000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1142</v>
+        <v>1000</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44221</v>
+        <v>44271</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="K78" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L78" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="M78" t="n">
-        <v>32806</v>
+        <v>23000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1312</v>
+        <v>920</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44614</v>
+        <v>44194</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="K79" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L79" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M79" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44193</v>
+        <v>44273</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K80" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L80" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M80" t="n">
-        <v>29542</v>
+        <v>25000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1182</v>
+        <v>1000</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44245</v>
+        <v>44217</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="K81" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L81" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M81" t="n">
-        <v>28532</v>
+        <v>32000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1141</v>
+        <v>1280</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44189</v>
+        <v>44200</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K82" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L82" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M82" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1200</v>
+        <v>1280</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44600</v>
+        <v>44574</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="K2" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L2" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M2" t="n">
-        <v>25828</v>
+        <v>28000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1033</v>
+        <v>1120</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44243</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="K3" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L3" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M3" t="n">
-        <v>28448</v>
+        <v>25000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1138</v>
+        <v>1000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44232</v>
+        <v>44245</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>28532</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>1141</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44606</v>
+        <v>44223</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K5" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L5" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M5" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44216</v>
+        <v>44231</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K6" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L6" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M6" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44259</v>
+        <v>44638</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44224</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="K8" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L8" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M8" t="n">
-        <v>28568</v>
+        <v>27000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1143</v>
+        <v>1080</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44567</v>
+        <v>44224</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="K9" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>27615</v>
+        <v>28909</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1105</v>
+        <v>1156</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44208</v>
+        <v>44613</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K10" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L10" t="n">
         <v>28000</v>
       </c>
       <c r="M10" t="n">
-        <v>27526</v>
+        <v>26286</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1101</v>
+        <v>1051</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44574</v>
+        <v>44623</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="K11" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L11" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M11" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44574</v>
+        <v>44216</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K12" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L12" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M12" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44579</v>
+        <v>44195</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K13" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L13" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M13" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44616</v>
+        <v>44271</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
         <v>23000</v>
       </c>
       <c r="L14" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M14" t="n">
-        <v>23889</v>
+        <v>23000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>956</v>
+        <v>920</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44610</v>
+        <v>44235</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="K15" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L15" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M15" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44193</v>
+        <v>44578</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L16" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M16" t="n">
-        <v>29542</v>
+        <v>28000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1182</v>
+        <v>1120</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="K17" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M17" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>400</v>
+        <v>880</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44588</v>
+        <v>44204</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L19" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M19" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44568</v>
+        <v>44214</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K20" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L20" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M20" t="n">
-        <v>30000</v>
+        <v>35429</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1200</v>
+        <v>1417</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44267</v>
+        <v>44214</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L21" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M21" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44613</v>
+        <v>44208</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K24" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L24" t="n">
         <v>28000</v>
       </c>
       <c r="M24" t="n">
-        <v>26286</v>
+        <v>27526</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1051</v>
+        <v>1101</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44637</v>
+        <v>44218</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L25" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M25" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44224</v>
+        <v>44614</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="K26" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L26" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M26" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44224</v>
+        <v>44193</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="K27" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L27" t="n">
         <v>30000</v>
       </c>
       <c r="M27" t="n">
-        <v>28909</v>
+        <v>29542</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1156</v>
+        <v>1182</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44558</v>
+        <v>44203</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="K28" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L28" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M28" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44623</v>
+        <v>44203</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2441,11 +2441,11 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K29" t="n">
         <v>25000</v>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44277</v>
+        <v>44222</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K30" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L30" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M30" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>920</v>
+        <v>1280</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44231</v>
+        <v>44624</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K31" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L31" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M31" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44602</v>
+        <v>44278</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K32" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L32" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M32" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44602</v>
+        <v>44596</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K33" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L33" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M33" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44586</v>
+        <v>44236</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="K34" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L34" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M34" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44195</v>
+        <v>44595</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L35" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M35" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44585</v>
+        <v>44553</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="K37" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="L37" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M37" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1120</v>
+        <v>1800</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44609</v>
+        <v>44200</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L38" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M38" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44242</v>
+        <v>44567</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K39" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L39" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M39" t="n">
-        <v>29000</v>
+        <v>27615</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1160</v>
+        <v>1105</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44222</v>
+        <v>44259</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L40" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M40" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44582</v>
+        <v>44266</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K41" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L41" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M41" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44595</v>
+        <v>44221</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="K42" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L42" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M42" t="n">
-        <v>28000</v>
+        <v>32806</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1120</v>
+        <v>1312</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44244</v>
+        <v>44589</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K43" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L43" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M43" t="n">
-        <v>29000</v>
+        <v>26179</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1160</v>
+        <v>1047</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44552</v>
+        <v>44196</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="K44" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="L44" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="M44" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44266</v>
+        <v>44249</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="K45" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L45" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M45" t="n">
-        <v>25000</v>
+        <v>28543</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1000</v>
+        <v>1142</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44614</v>
+        <v>44202</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3672,13 +3672,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L46" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M46" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44223</v>
+        <v>44588</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="K47" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L47" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M47" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44624</v>
+        <v>44581</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K48" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L48" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M48" t="n">
-        <v>25000</v>
+        <v>28625</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1000</v>
+        <v>1145</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44166</v>
+        <v>44616</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,32 +3885,32 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="K49" t="n">
-        <v>1700</v>
+        <v>23000</v>
       </c>
       <c r="L49" t="n">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="M49" t="n">
-        <v>1756</v>
+        <v>23889</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1756</v>
+        <v>956</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44215</v>
+        <v>44244</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3960,13 +3960,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L50" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M50" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44221</v>
+        <v>44585</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="K51" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L51" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="M51" t="n">
-        <v>32806</v>
+        <v>28000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1312</v>
+        <v>1120</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44581</v>
+        <v>44277</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K52" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L52" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M52" t="n">
-        <v>28625</v>
+        <v>23000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1145</v>
+        <v>920</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44596</v>
+        <v>44609</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K53" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L53" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M53" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44587</v>
+        <v>44232</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="K54" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L54" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M54" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44279</v>
+        <v>44238</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K55" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L55" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M55" t="n">
-        <v>23000</v>
+        <v>28568</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>920</v>
+        <v>1143</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44601</v>
+        <v>44637</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K56" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L56" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M56" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44589</v>
+        <v>44582</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K57" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L57" t="n">
         <v>28000</v>
       </c>
       <c r="M57" t="n">
-        <v>26179</v>
+        <v>28000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1047</v>
+        <v>1120</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44575</v>
+        <v>44209</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L58" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M58" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K59" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L59" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M59" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44245</v>
+        <v>44217</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="K60" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L60" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M60" t="n">
-        <v>28532</v>
+        <v>32000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1141</v>
+        <v>1280</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44202</v>
+        <v>44215</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K61" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L61" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M61" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="K63" t="n">
         <v>29000</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44209</v>
+        <v>44273</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K64" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L64" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M64" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44214</v>
+        <v>44558</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="K65" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L65" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="M65" t="n">
-        <v>35429</v>
+        <v>30000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1417</v>
+        <v>1200</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44214</v>
+        <v>44552</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K66" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L66" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M66" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44236</v>
+        <v>44166</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,32 +5181,32 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="K67" t="n">
-        <v>29000</v>
+        <v>1700</v>
       </c>
       <c r="L67" t="n">
-        <v>29000</v>
+        <v>1800</v>
       </c>
       <c r="M67" t="n">
-        <v>29000</v>
+        <v>1756</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1160</v>
+        <v>1756</v>
       </c>
       <c r="Q67" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44249</v>
+        <v>44568</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="K68" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L68" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M68" t="n">
-        <v>28543</v>
+        <v>30000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1142</v>
+        <v>1200</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44638</v>
+        <v>44586</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="K69" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L69" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M69" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44553</v>
+        <v>44579</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K70" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L70" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M70" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1800</v>
+        <v>1120</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44189</v>
+        <v>44243</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="K71" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L71" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M71" t="n">
-        <v>30000</v>
+        <v>28448</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1200</v>
+        <v>1138</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K72" t="n">
         <v>23000</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44603</v>
+        <v>44610</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K73" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L73" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M73" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44578</v>
+        <v>44267</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K74" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L74" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M74" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44218</v>
+        <v>44603</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K75" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L75" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M75" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44203</v>
+        <v>44575</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K76" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L76" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M76" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44203</v>
+        <v>44587</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K77" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L77" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M77" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44271</v>
+        <v>44601</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K78" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L78" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M78" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44194</v>
+        <v>44606</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K79" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L79" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M79" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44273</v>
+        <v>44600</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="K80" t="n">
         <v>25000</v>
       </c>
       <c r="L80" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M80" t="n">
-        <v>25000</v>
+        <v>25828</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44217</v>
+        <v>44602</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="K81" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L81" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M81" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44200</v>
+        <v>44602</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K82" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L82" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M82" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1280</v>
+        <v>1080</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44574</v>
+        <v>44595</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>28000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44574</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="K3" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L3" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M3" t="n">
-        <v>25000</v>
+        <v>28568</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44245</v>
+        <v>44232</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="K4" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>28532</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1141</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44209</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L5" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M5" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1280</v>
+        <v>1080</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44231</v>
+        <v>44236</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K6" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="L6" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M6" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44638</v>
+        <v>44616</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K7" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000</v>
+        <v>23889</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44224</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L8" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>27000</v>
+        <v>29542</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1080</v>
+        <v>1182</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44224</v>
+        <v>44559</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>330</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
         <v>28000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M9" t="n">
-        <v>28909</v>
+        <v>28000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1156</v>
+        <v>1120</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44613</v>
+        <v>44559</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
         <v>25000</v>
       </c>
       <c r="L10" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M10" t="n">
-        <v>26286</v>
+        <v>25000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1051</v>
+        <v>1000</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44623</v>
+        <v>44568</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L11" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M11" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44216</v>
+        <v>44222</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K12" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L12" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M12" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44195</v>
+        <v>44231</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K13" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L13" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44271</v>
+        <v>44553</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="K14" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="L14" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="M14" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>920</v>
+        <v>1800</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44235</v>
+        <v>44279</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L15" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M15" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44578</v>
+        <v>44189</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K16" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L16" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M16" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44194</v>
+        <v>44589</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K17" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L17" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M17" t="n">
-        <v>22000</v>
+        <v>26179</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>880</v>
+        <v>1047</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44188</v>
+        <v>44602</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K18" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L18" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44204</v>
+        <v>44602</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K19" t="n">
         <v>27000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44214</v>
+        <v>44581</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L20" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M20" t="n">
-        <v>35429</v>
+        <v>28625</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1417</v>
+        <v>1145</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44559</v>
+        <v>44266</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K22" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L22" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M22" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44559</v>
+        <v>44587</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K23" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L23" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M23" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44208</v>
+        <v>44552</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K24" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L24" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M24" t="n">
-        <v>27526</v>
+        <v>45000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1101</v>
+        <v>1800</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44218</v>
+        <v>44243</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="K25" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L25" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M25" t="n">
-        <v>35000</v>
+        <v>28448</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1400</v>
+        <v>1138</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44614</v>
+        <v>44278</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K26" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L26" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M26" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44193</v>
+        <v>44242</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="K27" t="n">
         <v>29000</v>
       </c>
       <c r="L27" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M27" t="n">
-        <v>29542</v>
+        <v>29000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1182</v>
+        <v>1160</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44203</v>
+        <v>44239</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="K28" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L28" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M28" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44203</v>
+        <v>44610</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L29" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M29" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44222</v>
+        <v>44216</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K30" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L30" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M30" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1280</v>
+        <v>1400</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44624</v>
+        <v>44606</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
         <v>25000</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44278</v>
+        <v>44244</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L32" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M32" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44596</v>
+        <v>44217</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K33" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L33" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M33" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44236</v>
+        <v>44214</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K34" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L34" t="n">
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="M34" t="n">
-        <v>29000</v>
+        <v>35429</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1160</v>
+        <v>1417</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44595</v>
+        <v>44214</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K35" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L35" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M35" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44225</v>
+        <v>44558</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="K36" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L36" t="n">
         <v>30000</v>
       </c>
       <c r="M36" t="n">
-        <v>29130</v>
+        <v>30000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1165</v>
+        <v>1200</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44553</v>
+        <v>44267</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K37" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L37" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M37" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="K38" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="L38" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M38" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1280</v>
+        <v>880</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44567</v>
+        <v>44613</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="K39" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L39" t="n">
         <v>28000</v>
       </c>
       <c r="M39" t="n">
-        <v>27615</v>
+        <v>26286</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1105</v>
+        <v>1051</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44259</v>
+        <v>44574</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K40" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L40" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M40" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44266</v>
+        <v>44574</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3305,11 +3305,11 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K41" t="n">
         <v>25000</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44221</v>
+        <v>44588</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="K42" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L42" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="M42" t="n">
-        <v>32806</v>
+        <v>28000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1312</v>
+        <v>1120</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44589</v>
+        <v>44202</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K43" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L43" t="n">
         <v>28000</v>
       </c>
       <c r="M43" t="n">
-        <v>26179</v>
+        <v>28000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1047</v>
+        <v>1120</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44196</v>
+        <v>44225</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K44" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L44" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M44" t="n">
-        <v>10000</v>
+        <v>29130</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>400</v>
+        <v>1165</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44249</v>
+        <v>44200</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L45" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M45" t="n">
-        <v>28543</v>
+        <v>32000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1142</v>
+        <v>1280</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44202</v>
+        <v>44235</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="K46" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L46" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M46" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44588</v>
+        <v>44624</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="K47" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L47" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M47" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K48" t="n">
         <v>28000</v>
       </c>
       <c r="L48" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M48" t="n">
-        <v>28625</v>
+        <v>28000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1145</v>
+        <v>1120</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44616</v>
+        <v>44614</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K49" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L49" t="n">
         <v>25000</v>
       </c>
       <c r="M49" t="n">
-        <v>23889</v>
+        <v>25000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>956</v>
+        <v>1000</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44244</v>
+        <v>44585</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K50" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L50" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M50" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44585</v>
+        <v>44218</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K51" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L51" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M51" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44277</v>
+        <v>44271</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K52" t="n">
         <v>23000</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44609</v>
+        <v>44223</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="K53" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L53" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M53" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44232</v>
+        <v>44637</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L54" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M54" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44238</v>
+        <v>44600</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="K55" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L55" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M55" t="n">
-        <v>28568</v>
+        <v>25828</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1143</v>
+        <v>1033</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44637</v>
+        <v>44273</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K56" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L56" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M56" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44582</v>
+        <v>44575</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K57" t="n">
         <v>28000</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44209</v>
+        <v>44596</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K58" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L58" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M58" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44189</v>
+        <v>44208</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="K59" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L59" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M59" t="n">
-        <v>30000</v>
+        <v>27526</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="K60" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L60" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M60" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1280</v>
+        <v>1080</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44215</v>
+        <v>44224</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="K61" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L61" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M61" t="n">
-        <v>35000</v>
+        <v>28909</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1400</v>
+        <v>1156</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44239</v>
+        <v>44259</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="K62" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L62" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M62" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44242</v>
+        <v>44204</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K63" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L63" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M63" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44273</v>
+        <v>44203</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K64" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L64" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M64" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44558</v>
+        <v>44203</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K65" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L65" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M65" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44552</v>
+        <v>44623</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K66" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L66" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M66" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44166</v>
+        <v>44195</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,32 +5181,32 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="K67" t="n">
-        <v>1700</v>
+        <v>25000</v>
       </c>
       <c r="L67" t="n">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="M67" t="n">
-        <v>1756</v>
+        <v>25000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1756</v>
+        <v>1000</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44568</v>
+        <v>44578</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K68" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L68" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M68" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44586</v>
+        <v>44221</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="K69" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L69" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M69" t="n">
-        <v>28000</v>
+        <v>32806</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1120</v>
+        <v>1312</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44243</v>
+        <v>44603</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="K71" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L71" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M71" t="n">
-        <v>28448</v>
+        <v>25000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1138</v>
+        <v>1000</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44279</v>
+        <v>44196</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K72" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L72" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="M72" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>920</v>
+        <v>400</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K73" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L73" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M73" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44267</v>
+        <v>44277</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="K74" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L74" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M74" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44603</v>
+        <v>44166</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5757,32 +5757,32 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K75" t="n">
-        <v>25000</v>
+        <v>1700</v>
       </c>
       <c r="L75" t="n">
-        <v>25000</v>
+        <v>1800</v>
       </c>
       <c r="M75" t="n">
-        <v>25000</v>
+        <v>1756</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1000</v>
+        <v>1756</v>
       </c>
       <c r="Q75" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44575</v>
+        <v>44245</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="K76" t="n">
         <v>28000</v>
       </c>
       <c r="L76" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M76" t="n">
-        <v>28000</v>
+        <v>28532</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44587</v>
+        <v>44638</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K77" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L77" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M77" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1120</v>
+        <v>800</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44601</v>
+        <v>44249</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="K78" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L78" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M78" t="n">
-        <v>25000</v>
+        <v>28543</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1000</v>
+        <v>1142</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44606</v>
+        <v>44188</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6048,13 +6048,13 @@
         <v>50</v>
       </c>
       <c r="K79" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L79" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M79" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44600</v>
+        <v>44586</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K80" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L80" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M80" t="n">
-        <v>25828</v>
+        <v>28000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1033</v>
+        <v>1120</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K81" t="n">
         <v>25000</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44602</v>
+        <v>44567</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="K82" t="n">
         <v>27000</v>
       </c>
       <c r="L82" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M82" t="n">
-        <v>27000</v>
+        <v>27615</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1080</v>
+        <v>1105</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44595</v>
+        <v>44214</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K2" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L2" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="M2" t="n">
-        <v>28000</v>
+        <v>35429</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1120</v>
+        <v>1417</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>44214</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L3" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M3" t="n">
-        <v>28568</v>
+        <v>35000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1143</v>
+        <v>1400</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44232</v>
+        <v>44249</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>28543</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>1142</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44209</v>
+        <v>44595</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -720,13 +720,13 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L5" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M5" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44236</v>
+        <v>44600</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="K6" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L6" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M6" t="n">
-        <v>29000</v>
+        <v>25828</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1160</v>
+        <v>1033</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44616</v>
+        <v>44613</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K7" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L7" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M7" t="n">
-        <v>23889</v>
+        <v>26286</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>956</v>
+        <v>1051</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44193</v>
+        <v>44225</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K8" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L8" t="n">
         <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>29542</v>
+        <v>29130</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1182</v>
+        <v>1165</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44559</v>
+        <v>44215</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L9" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M9" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44559</v>
+        <v>44610</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44568</v>
+        <v>44277</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K11" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L11" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M11" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K12" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="L12" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M12" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1280</v>
+        <v>880</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44231</v>
+        <v>44242</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="K13" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44553</v>
+        <v>44609</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L14" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M14" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44279</v>
+        <v>44575</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K15" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L15" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M15" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44189</v>
+        <v>44614</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K16" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L16" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M16" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44589</v>
+        <v>44202</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L17" t="n">
         <v>28000</v>
       </c>
       <c r="M17" t="n">
-        <v>26179</v>
+        <v>28000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1047</v>
+        <v>1120</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44602</v>
+        <v>44193</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L18" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="n">
-        <v>25000</v>
+        <v>29542</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1000</v>
+        <v>1182</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44602</v>
+        <v>44638</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L19" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1080</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44581</v>
+        <v>44552</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K20" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="L20" t="n">
-        <v>29000</v>
+        <v>45000</v>
       </c>
       <c r="M20" t="n">
-        <v>28625</v>
+        <v>45000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1145</v>
+        <v>1800</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44215</v>
+        <v>44574</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="K21" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L21" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M21" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44266</v>
+        <v>44574</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1937,11 +1937,11 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K22" t="n">
         <v>25000</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44587</v>
+        <v>44279</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L23" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M23" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44552</v>
+        <v>44559</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="K24" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L24" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M24" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1800</v>
+        <v>1120</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44243</v>
+        <v>44559</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="K25" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L25" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M25" t="n">
-        <v>28448</v>
+        <v>25000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1138</v>
+        <v>1000</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44278</v>
+        <v>44582</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K26" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L26" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M26" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44242</v>
+        <v>44223</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K27" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L27" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M27" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44239</v>
+        <v>44218</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L28" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M28" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44610</v>
+        <v>44588</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="K29" t="n">
         <v>28000</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44216</v>
+        <v>44239</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="K30" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L30" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M30" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44606</v>
+        <v>44596</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K31" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L31" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M31" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44244</v>
+        <v>44195</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K32" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L32" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M32" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44217</v>
+        <v>44558</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="K33" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L33" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M33" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44214</v>
+        <v>44581</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K34" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L34" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M34" t="n">
-        <v>35429</v>
+        <v>28625</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1417</v>
+        <v>1145</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44214</v>
+        <v>44208</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K35" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L35" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M35" t="n">
-        <v>35000</v>
+        <v>27526</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1400</v>
+        <v>1101</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44558</v>
+        <v>44188</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L36" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M36" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44267</v>
+        <v>44166</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,32 +3021,32 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K37" t="n">
-        <v>25000</v>
+        <v>1700</v>
       </c>
       <c r="L37" t="n">
-        <v>25000</v>
+        <v>1800</v>
       </c>
       <c r="M37" t="n">
-        <v>25000</v>
+        <v>1756</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1000</v>
+        <v>1756</v>
       </c>
       <c r="Q37" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="K38" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L38" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M38" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>880</v>
+        <v>1200</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44613</v>
+        <v>44567</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K39" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L39" t="n">
         <v>28000</v>
       </c>
       <c r="M39" t="n">
-        <v>26286</v>
+        <v>27615</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1051</v>
+        <v>1105</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44574</v>
+        <v>44616</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="K40" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L40" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M40" t="n">
-        <v>28000</v>
+        <v>23889</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1120</v>
+        <v>956</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44574</v>
+        <v>44238</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="K41" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L41" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M41" t="n">
-        <v>25000</v>
+        <v>28568</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44588</v>
+        <v>44236</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="K42" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L42" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M42" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44202</v>
+        <v>44222</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K43" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L43" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M43" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44225</v>
+        <v>44637</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K44" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L44" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M44" t="n">
-        <v>29130</v>
+        <v>20000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1165</v>
+        <v>800</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44200</v>
+        <v>44217</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K45" t="n">
         <v>32000</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44235</v>
+        <v>44624</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="K46" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L46" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M46" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44624</v>
+        <v>44579</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K47" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L47" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M47" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44582</v>
+        <v>44232</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K48" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L48" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M48" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44614</v>
+        <v>44585</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K49" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L49" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M49" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K50" t="n">
         <v>28000</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44218</v>
+        <v>44243</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="K51" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L51" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M51" t="n">
-        <v>35000</v>
+        <v>28448</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1400</v>
+        <v>1138</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44271</v>
+        <v>44578</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L52" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M52" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44223</v>
+        <v>44189</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="K53" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L53" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M53" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44637</v>
+        <v>44235</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="K54" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L54" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="M54" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>800</v>
+        <v>1160</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44600</v>
+        <v>44553</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="K55" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L55" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M55" t="n">
-        <v>25828</v>
+        <v>45000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1033</v>
+        <v>1800</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44273</v>
+        <v>44204</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K56" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L56" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M56" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44575</v>
+        <v>44196</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="K57" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="L57" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="M57" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1120</v>
+        <v>400</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44596</v>
+        <v>44587</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K58" t="n">
         <v>28000</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44208</v>
+        <v>44601</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K59" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L59" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M59" t="n">
-        <v>27526</v>
+        <v>25000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1101</v>
+        <v>1000</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44224</v>
+        <v>44209</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="K60" t="n">
         <v>27000</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44224</v>
+        <v>44231</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="K61" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L61" t="n">
         <v>30000</v>
       </c>
       <c r="M61" t="n">
-        <v>28909</v>
+        <v>30000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1156</v>
+        <v>1200</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44259</v>
+        <v>44216</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K62" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L62" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M62" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44204</v>
+        <v>44589</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K63" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L63" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M63" t="n">
-        <v>27000</v>
+        <v>26179</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1080</v>
+        <v>1047</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44203</v>
+        <v>44602</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K64" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L64" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M64" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44203</v>
+        <v>44602</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K65" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L65" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M65" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44623</v>
+        <v>44603</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K66" t="n">
         <v>25000</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44195</v>
+        <v>44200</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K67" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L67" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M67" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44578</v>
+        <v>44224</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="K68" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L68" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M68" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44221</v>
+        <v>44224</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="K69" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L69" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M69" t="n">
-        <v>32806</v>
+        <v>28909</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1312</v>
+        <v>1156</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44579</v>
+        <v>44278</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K70" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L70" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M70" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44603</v>
+        <v>44266</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44196</v>
+        <v>44203</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K72" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="L72" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="M72" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44609</v>
+        <v>44203</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5609,11 +5609,11 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K73" t="n">
         <v>25000</v>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44277</v>
+        <v>44623</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K74" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L74" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M74" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5757,32 +5757,32 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="K75" t="n">
-        <v>1700</v>
+        <v>32000</v>
       </c>
       <c r="L75" t="n">
-        <v>1800</v>
+        <v>34000</v>
       </c>
       <c r="M75" t="n">
-        <v>1756</v>
+        <v>32806</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1756</v>
+        <v>1312</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44245</v>
+        <v>44271</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="K76" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L76" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M76" t="n">
-        <v>28532</v>
+        <v>23000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1141</v>
+        <v>920</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44638</v>
+        <v>44273</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K77" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L77" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M77" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44249</v>
+        <v>44244</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="K78" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L78" t="n">
         <v>29000</v>
       </c>
       <c r="M78" t="n">
-        <v>28543</v>
+        <v>29000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1142</v>
+        <v>1160</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44188</v>
+        <v>44245</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="K79" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L79" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M79" t="n">
-        <v>35000</v>
+        <v>28532</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1400</v>
+        <v>1141</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44586</v>
+        <v>44606</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K80" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L80" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M80" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44601</v>
+        <v>44259</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K81" t="n">
         <v>25000</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44567</v>
+        <v>44267</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="K82" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L82" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M82" t="n">
-        <v>27615</v>
+        <v>25000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1105</v>
+        <v>1000</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44214</v>
+        <v>44567</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K2" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L2" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M2" t="n">
-        <v>35429</v>
+        <v>27615</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1417</v>
+        <v>1105</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44214</v>
+        <v>44587</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L3" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M3" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44249</v>
+        <v>44574</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="K4" t="n">
         <v>28000</v>
       </c>
       <c r="L4" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M4" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44595</v>
+        <v>44574</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44600</v>
+        <v>44266</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="K6" t="n">
         <v>25000</v>
       </c>
       <c r="L6" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M6" t="n">
-        <v>25828</v>
+        <v>25000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44613</v>
+        <v>44243</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="K7" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L7" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M7" t="n">
-        <v>26286</v>
+        <v>28448</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1051</v>
+        <v>1138</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44225</v>
+        <v>44202</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
         <v>28000</v>
       </c>
       <c r="L8" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M8" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44215</v>
+        <v>44586</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K9" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L9" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M9" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44610</v>
+        <v>44588</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="K10" t="n">
         <v>28000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44277</v>
+        <v>44623</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K11" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L11" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M11" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44194</v>
+        <v>44606</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44242</v>
+        <v>44232</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="K13" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L13" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44609</v>
+        <v>44552</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="K14" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L14" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M14" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44575</v>
+        <v>44242</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="K15" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L15" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M15" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44614</v>
+        <v>44575</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="K16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L17" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M17" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44193</v>
+        <v>44203</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K18" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L18" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>29542</v>
+        <v>25000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1182</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44638</v>
+        <v>44216</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K19" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M19" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44552</v>
+        <v>44196</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="K20" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="L20" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44574</v>
+        <v>44600</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="K21" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L21" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M21" t="n">
-        <v>28000</v>
+        <v>25828</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1120</v>
+        <v>1033</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44574</v>
+        <v>44585</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="K22" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L22" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M22" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44279</v>
+        <v>44221</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="K23" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L23" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M23" t="n">
-        <v>23000</v>
+        <v>32806</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>920</v>
+        <v>1312</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44559</v>
+        <v>44616</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="K24" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L24" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M24" t="n">
-        <v>28000</v>
+        <v>23889</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1120</v>
+        <v>956</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44559</v>
+        <v>44245</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="K25" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L25" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M25" t="n">
-        <v>25000</v>
+        <v>28532</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1000</v>
+        <v>1141</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44582</v>
+        <v>44166</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K26" t="n">
-        <v>28000</v>
+        <v>1700</v>
       </c>
       <c r="L26" t="n">
-        <v>28000</v>
+        <v>1800</v>
       </c>
       <c r="M26" t="n">
-        <v>28000</v>
+        <v>1756</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1120</v>
+        <v>1756</v>
       </c>
       <c r="Q26" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44223</v>
+        <v>44610</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44218</v>
+        <v>44581</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2376,13 +2376,13 @@
         <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L28" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M28" t="n">
-        <v>35000</v>
+        <v>28625</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1400</v>
+        <v>1145</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44588</v>
+        <v>44217</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K29" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L29" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M29" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44239</v>
+        <v>44595</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L30" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M30" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44596</v>
+        <v>44236</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K31" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L31" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M31" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44195</v>
+        <v>44214</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="K32" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L32" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="M32" t="n">
-        <v>25000</v>
+        <v>35429</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1000</v>
+        <v>1417</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44558</v>
+        <v>44214</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="K33" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L33" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M33" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44581</v>
+        <v>44278</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K34" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L34" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M34" t="n">
-        <v>28625</v>
+        <v>23000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1145</v>
+        <v>920</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44208</v>
+        <v>44578</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L35" t="n">
         <v>28000</v>
       </c>
       <c r="M35" t="n">
-        <v>27526</v>
+        <v>28000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1101</v>
+        <v>1120</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44188</v>
+        <v>44223</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K36" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L36" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M36" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44166</v>
+        <v>44601</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,32 +3021,32 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K37" t="n">
-        <v>1700</v>
+        <v>25000</v>
       </c>
       <c r="L37" t="n">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="M37" t="n">
-        <v>1756</v>
+        <v>25000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1756</v>
+        <v>1000</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44568</v>
+        <v>44224</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="K38" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L38" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M38" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44567</v>
+        <v>44224</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="K39" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L39" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M39" t="n">
-        <v>27615</v>
+        <v>28909</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1105</v>
+        <v>1156</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44616</v>
+        <v>44222</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K40" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L40" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M40" t="n">
-        <v>23889</v>
+        <v>32000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>956</v>
+        <v>1280</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44238</v>
+        <v>44558</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="K41" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L41" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M41" t="n">
-        <v>28568</v>
+        <v>30000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1143</v>
+        <v>1200</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44236</v>
+        <v>44271</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="K42" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L42" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M42" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44222</v>
+        <v>44613</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K43" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L43" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M43" t="n">
-        <v>32000</v>
+        <v>26286</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1280</v>
+        <v>1051</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44637</v>
+        <v>44624</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K44" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L44" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M44" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44217</v>
+        <v>44602</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="K45" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L45" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M45" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44624</v>
+        <v>44602</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="K46" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L46" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M46" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44579</v>
+        <v>44238</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K47" t="n">
         <v>28000</v>
       </c>
       <c r="L47" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M47" t="n">
-        <v>28000</v>
+        <v>28568</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1120</v>
+        <v>1143</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44232</v>
+        <v>44259</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L48" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M48" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44585</v>
+        <v>44267</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K49" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L49" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M49" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44586</v>
+        <v>44277</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="K50" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L50" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M50" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44243</v>
+        <v>44200</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="K51" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L51" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M51" t="n">
-        <v>28448</v>
+        <v>32000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1138</v>
+        <v>1280</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44578</v>
+        <v>44589</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K52" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L52" t="n">
         <v>28000</v>
       </c>
       <c r="M52" t="n">
-        <v>28000</v>
+        <v>26179</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44189</v>
+        <v>44209</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L53" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M53" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44235</v>
+        <v>44204</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L54" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M54" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44553</v>
+        <v>44614</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K55" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L55" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M55" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44204</v>
+        <v>44279</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4392,13 +4392,13 @@
         <v>50</v>
       </c>
       <c r="K56" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L56" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M56" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44196</v>
+        <v>44603</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K57" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L57" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M57" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44587</v>
+        <v>44559</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K58" t="n">
         <v>28000</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44601</v>
+        <v>44559</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4601,11 +4601,11 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K59" t="n">
         <v>25000</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44209</v>
+        <v>44193</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K60" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L60" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M60" t="n">
-        <v>27000</v>
+        <v>29542</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1080</v>
+        <v>1182</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44231</v>
+        <v>44273</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K61" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L61" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M61" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44216</v>
+        <v>44208</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K62" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L62" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M62" t="n">
-        <v>35000</v>
+        <v>27526</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1400</v>
+        <v>1101</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44589</v>
+        <v>44218</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K63" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L63" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M63" t="n">
-        <v>26179</v>
+        <v>35000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1047</v>
+        <v>1400</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44602</v>
+        <v>44225</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K64" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L64" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M64" t="n">
-        <v>25000</v>
+        <v>29130</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1000</v>
+        <v>1165</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44602</v>
+        <v>44249</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="K65" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L65" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M65" t="n">
-        <v>27000</v>
+        <v>28543</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44603</v>
+        <v>44189</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="K66" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L66" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M66" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44200</v>
+        <v>44579</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K67" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L67" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="M67" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44224</v>
+        <v>44638</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>380</v>
+        <v>30</v>
       </c>
       <c r="K68" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L68" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M68" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1080</v>
+        <v>800</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44224</v>
+        <v>44609</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>330</v>
+        <v>10</v>
       </c>
       <c r="K69" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L69" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M69" t="n">
-        <v>28909</v>
+        <v>25000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1156</v>
+        <v>1000</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44278</v>
+        <v>44553</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="K70" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="L70" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="M70" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>920</v>
+        <v>1800</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44266</v>
+        <v>44596</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K71" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L71" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M71" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44203</v>
+        <v>44568</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K72" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L72" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M72" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44203</v>
+        <v>44239</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="K73" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L73" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M73" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44623</v>
+        <v>44235</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="K74" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L74" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M74" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44221</v>
+        <v>44582</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>310</v>
+        <v>50</v>
       </c>
       <c r="K75" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L75" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="M75" t="n">
-        <v>32806</v>
+        <v>28000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1312</v>
+        <v>1120</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44271</v>
+        <v>44215</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K76" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L76" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M76" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44273</v>
+        <v>44637</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K77" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L77" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M77" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44244</v>
+        <v>44195</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K78" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L78" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M78" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="K79" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L79" t="n">
         <v>29000</v>
       </c>
       <c r="M79" t="n">
-        <v>28532</v>
+        <v>29000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1141</v>
+        <v>1160</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44606</v>
+        <v>44188</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6120,13 +6120,13 @@
         <v>50</v>
       </c>
       <c r="K80" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L80" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M80" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K81" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L81" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M81" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44267</v>
+        <v>44194</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="K82" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L82" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M82" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44567</v>
+        <v>44574</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="K2" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L2" t="n">
         <v>28000</v>
       </c>
       <c r="M2" t="n">
-        <v>27615</v>
+        <v>28000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1105</v>
+        <v>1120</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44587</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K3" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L3" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M3" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44574</v>
+        <v>44610</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
         <v>28000</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44574</v>
+        <v>44558</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="K5" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L5" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M5" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44266</v>
+        <v>44188</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L6" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M6" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44243</v>
+        <v>44596</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
         <v>28000</v>
       </c>
       <c r="L7" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M7" t="n">
-        <v>28448</v>
+        <v>28000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1138</v>
+        <v>1120</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44202</v>
+        <v>44578</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
         <v>28000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44586</v>
+        <v>44638</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L9" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1120</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44588</v>
+        <v>44277</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="K10" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L10" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M10" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44623</v>
+        <v>44216</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K11" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L11" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M11" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44606</v>
+        <v>44244</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L12" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M12" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44232</v>
+        <v>44581</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>28625</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>1145</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44552</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K14" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="L14" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="M14" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1800</v>
+        <v>880</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44242</v>
+        <v>44586</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="K15" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L15" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M15" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44575</v>
+        <v>44588</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="K16" t="n">
         <v>28000</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44203</v>
+        <v>44189</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="K17" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L17" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M17" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44203</v>
+        <v>44249</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="K18" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L18" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M18" t="n">
-        <v>25000</v>
+        <v>28543</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1000</v>
+        <v>1142</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44216</v>
+        <v>44223</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K19" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L19" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M19" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44196</v>
+        <v>44601</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K20" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M20" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44600</v>
+        <v>44200</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L21" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M21" t="n">
-        <v>25828</v>
+        <v>32000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1033</v>
+        <v>1280</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44585</v>
+        <v>44208</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="K22" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L22" t="n">
         <v>28000</v>
       </c>
       <c r="M22" t="n">
-        <v>28000</v>
+        <v>27526</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44221</v>
+        <v>44232</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="K23" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L23" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M23" t="n">
-        <v>32806</v>
+        <v>30000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1312</v>
+        <v>1200</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44616</v>
+        <v>44242</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="K24" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L24" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M24" t="n">
-        <v>23889</v>
+        <v>29000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>956</v>
+        <v>1160</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44245</v>
+        <v>44266</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="K25" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L25" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M25" t="n">
-        <v>28532</v>
+        <v>25000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1141</v>
+        <v>1000</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44166</v>
+        <v>44568</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,32 +2229,32 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>1700</v>
+        <v>30000</v>
       </c>
       <c r="L26" t="n">
-        <v>1800</v>
+        <v>30000</v>
       </c>
       <c r="M26" t="n">
-        <v>1756</v>
+        <v>30000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1756</v>
+        <v>1200</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44610</v>
+        <v>44218</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L27" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M27" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44581</v>
+        <v>44267</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K28" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L28" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M28" t="n">
-        <v>28625</v>
+        <v>25000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1145</v>
+        <v>1000</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44217</v>
+        <v>44235</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K29" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L29" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M29" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1280</v>
+        <v>1160</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44595</v>
+        <v>44243</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="K30" t="n">
         <v>28000</v>
       </c>
       <c r="L30" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M30" t="n">
-        <v>28000</v>
+        <v>28448</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1120</v>
+        <v>1138</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44236</v>
+        <v>44225</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K31" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L31" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M31" t="n">
-        <v>29000</v>
+        <v>29130</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44214</v>
+        <v>44587</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K32" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L32" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M32" t="n">
-        <v>35429</v>
+        <v>28000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1417</v>
+        <v>1120</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44214</v>
+        <v>44239</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="K33" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L33" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M33" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44278</v>
+        <v>44600</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="K34" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L34" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M34" t="n">
-        <v>23000</v>
+        <v>25828</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>920</v>
+        <v>1033</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44578</v>
+        <v>44222</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K35" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L35" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M35" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44223</v>
+        <v>44271</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K36" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L36" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M36" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1280</v>
+        <v>920</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44601</v>
+        <v>44553</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="K37" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L37" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M37" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44224</v>
+        <v>44579</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L38" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M38" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44224</v>
+        <v>44204</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L39" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M39" t="n">
-        <v>28909</v>
+        <v>27000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1156</v>
+        <v>1080</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44222</v>
+        <v>44203</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K40" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L40" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M40" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1280</v>
+        <v>1080</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44558</v>
+        <v>44203</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K41" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L41" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M41" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44271</v>
+        <v>44602</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="K42" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L42" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M42" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44613</v>
+        <v>44602</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K43" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L43" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M43" t="n">
-        <v>26286</v>
+        <v>27000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1051</v>
+        <v>1080</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44624</v>
+        <v>44595</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L44" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M44" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44602</v>
+        <v>44616</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K45" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L45" t="n">
         <v>25000</v>
       </c>
       <c r="M45" t="n">
-        <v>25000</v>
+        <v>23889</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1000</v>
+        <v>956</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44602</v>
+        <v>44231</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="K46" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L46" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M46" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44238</v>
+        <v>44214</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K47" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L47" t="n">
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="M47" t="n">
-        <v>28568</v>
+        <v>35429</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44259</v>
+        <v>44214</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K48" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L48" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M48" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44267</v>
+        <v>44567</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K49" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L49" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M49" t="n">
-        <v>25000</v>
+        <v>27615</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1000</v>
+        <v>1105</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44277</v>
+        <v>44202</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K50" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L50" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M50" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44200</v>
+        <v>44273</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K51" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L51" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M51" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44589</v>
+        <v>44606</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K52" t="n">
         <v>25000</v>
       </c>
       <c r="L52" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M52" t="n">
-        <v>26179</v>
+        <v>25000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44209</v>
+        <v>44224</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="K53" t="n">
         <v>27000</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44204</v>
+        <v>44224</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="K54" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L54" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M54" t="n">
-        <v>27000</v>
+        <v>28909</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1080</v>
+        <v>1156</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44614</v>
+        <v>44279</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K55" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L55" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M55" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44279</v>
+        <v>44236</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K56" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L56" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M56" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44559</v>
+        <v>44215</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K58" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L58" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M58" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44559</v>
+        <v>44613</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K59" t="n">
         <v>25000</v>
       </c>
       <c r="L59" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M59" t="n">
-        <v>25000</v>
+        <v>26286</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44273</v>
+        <v>44195</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="K61" t="n">
         <v>25000</v>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K62" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="L62" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="M62" t="n">
-        <v>27526</v>
+        <v>10000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1101</v>
+        <v>400</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44218</v>
+        <v>44585</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K63" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L63" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M63" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44225</v>
+        <v>44582</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K64" t="n">
         <v>28000</v>
       </c>
       <c r="L64" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M64" t="n">
-        <v>29130</v>
+        <v>28000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1165</v>
+        <v>1120</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44249</v>
+        <v>44217</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="K65" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L65" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M65" t="n">
-        <v>28543</v>
+        <v>32000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1142</v>
+        <v>1280</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44189</v>
+        <v>44609</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5112,13 +5112,13 @@
         <v>10</v>
       </c>
       <c r="K66" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L66" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M66" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44579</v>
+        <v>44575</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K67" t="n">
         <v>28000</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44638</v>
+        <v>44614</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K68" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L68" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M68" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44609</v>
+        <v>44623</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="K69" t="n">
         <v>25000</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44553</v>
+        <v>44589</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="K70" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L70" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M70" t="n">
-        <v>45000</v>
+        <v>26179</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1800</v>
+        <v>1047</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44596</v>
+        <v>44624</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K71" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L71" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M71" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44568</v>
+        <v>44637</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K72" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L72" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M72" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44239</v>
+        <v>44221</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="K73" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L73" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M73" t="n">
-        <v>29000</v>
+        <v>32806</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1160</v>
+        <v>1312</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44235</v>
+        <v>44278</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="K74" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L74" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M74" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44582</v>
+        <v>44245</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="K75" t="n">
         <v>28000</v>
       </c>
       <c r="L75" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M75" t="n">
-        <v>28000</v>
+        <v>28532</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44215</v>
+        <v>44552</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K76" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L76" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M76" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44637</v>
+        <v>44559</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K77" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L77" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M77" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44195</v>
+        <v>44559</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -5969,11 +5969,11 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="K78" t="n">
         <v>25000</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44244</v>
+        <v>44166</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6045,32 +6045,32 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K79" t="n">
-        <v>29000</v>
+        <v>1700</v>
       </c>
       <c r="L79" t="n">
-        <v>29000</v>
+        <v>1800</v>
       </c>
       <c r="M79" t="n">
-        <v>29000</v>
+        <v>1756</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1160</v>
+        <v>1756</v>
       </c>
       <c r="Q79" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44188</v>
+        <v>44209</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K80" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L80" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M80" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1400</v>
+        <v>1080</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44231</v>
+        <v>44259</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K81" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L81" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M81" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44194</v>
+        <v>44238</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="K82" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L82" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M82" t="n">
-        <v>22000</v>
+        <v>28568</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>880</v>
+        <v>1143</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44574</v>
+        <v>44581</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
         <v>28000</v>
       </c>
       <c r="L2" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M2" t="n">
-        <v>28000</v>
+        <v>28625</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1120</v>
+        <v>1145</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44574</v>
+        <v>44273</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -569,11 +569,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
         <v>25000</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44610</v>
+        <v>44588</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="K4" t="n">
         <v>28000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44558</v>
+        <v>44585</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L5" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M5" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44188</v>
+        <v>44193</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L6" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M6" t="n">
-        <v>35000</v>
+        <v>29542</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1400</v>
+        <v>1182</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44596</v>
+        <v>44574</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="K7" t="n">
         <v>28000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44578</v>
+        <v>44574</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44638</v>
+        <v>44595</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M9" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44277</v>
+        <v>44208</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1080,13 +1080,13 @@
         <v>95</v>
       </c>
       <c r="K10" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L10" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M10" t="n">
-        <v>23000</v>
+        <v>27526</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>920</v>
+        <v>1101</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44216</v>
+        <v>44610</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L11" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M11" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44581</v>
+        <v>44188</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L13" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M13" t="n">
-        <v>28625</v>
+        <v>35000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1145</v>
+        <v>1400</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44277</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="K14" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L14" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M14" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44586</v>
+        <v>44243</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="K15" t="n">
         <v>28000</v>
       </c>
       <c r="L15" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M15" t="n">
-        <v>28000</v>
+        <v>28448</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1120</v>
+        <v>1138</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44588</v>
+        <v>44575</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="K16" t="n">
         <v>28000</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44189</v>
+        <v>44166</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1581,32 +1581,32 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K17" t="n">
-        <v>30000</v>
+        <v>1700</v>
       </c>
       <c r="L17" t="n">
-        <v>30000</v>
+        <v>1800</v>
       </c>
       <c r="M17" t="n">
-        <v>30000</v>
+        <v>1756</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1200</v>
+        <v>1756</v>
       </c>
       <c r="Q17" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44249</v>
+        <v>44559</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="K18" t="n">
         <v>28000</v>
       </c>
       <c r="L18" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M18" t="n">
-        <v>28543</v>
+        <v>28000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44223</v>
+        <v>44559</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L19" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M19" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44601</v>
+        <v>44589</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
         <v>25000</v>
       </c>
       <c r="L20" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M20" t="n">
-        <v>25000</v>
+        <v>26179</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1000</v>
+        <v>1047</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44200</v>
+        <v>44637</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="L21" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1280</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44208</v>
+        <v>44216</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K22" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L22" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M22" t="n">
-        <v>27526</v>
+        <v>35000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1101</v>
+        <v>1400</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2016,13 +2016,13 @@
         <v>110</v>
       </c>
       <c r="K23" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="L23" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M23" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44242</v>
+        <v>44214</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="K24" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L24" t="n">
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="M24" t="n">
-        <v>29000</v>
+        <v>35429</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1160</v>
+        <v>1417</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44266</v>
+        <v>44214</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K25" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L25" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M25" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44568</v>
+        <v>44224</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="K26" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L26" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M26" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44218</v>
+        <v>44224</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="K27" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L27" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M27" t="n">
-        <v>35000</v>
+        <v>28909</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1400</v>
+        <v>1156</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44267</v>
+        <v>44602</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K28" t="n">
         <v>25000</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44235</v>
+        <v>44602</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="K29" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L29" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M29" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44243</v>
+        <v>44606</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="K30" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L30" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M30" t="n">
-        <v>28448</v>
+        <v>25000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1138</v>
+        <v>1000</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44225</v>
+        <v>44613</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="K31" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L31" t="n">
         <v>28000</v>
       </c>
-      <c r="L31" t="n">
-        <v>30000</v>
-      </c>
       <c r="M31" t="n">
-        <v>29130</v>
+        <v>26286</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1165</v>
+        <v>1051</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44587</v>
+        <v>44623</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K32" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L32" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M32" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44239</v>
+        <v>44209</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L33" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M33" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44600</v>
+        <v>44586</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K34" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L34" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M34" t="n">
-        <v>25828</v>
+        <v>28000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1033</v>
+        <v>1120</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44222</v>
+        <v>44603</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K35" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L35" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M35" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44271</v>
+        <v>44245</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="K36" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L36" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M36" t="n">
-        <v>23000</v>
+        <v>28532</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>920</v>
+        <v>1141</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K37" t="n">
         <v>45000</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44579</v>
+        <v>44624</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K38" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L38" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M38" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44204</v>
+        <v>44232</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K39" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L39" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M39" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44203</v>
+        <v>44225</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K40" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L40" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M40" t="n">
-        <v>27000</v>
+        <v>29130</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1080</v>
+        <v>1165</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44203</v>
+        <v>44587</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K41" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L41" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M41" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44602</v>
+        <v>44249</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="K42" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L42" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M42" t="n">
-        <v>25000</v>
+        <v>28543</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1000</v>
+        <v>1142</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44602</v>
+        <v>44217</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="K43" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L43" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M43" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44595</v>
+        <v>44221</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="K44" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L44" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M44" t="n">
-        <v>28000</v>
+        <v>32806</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1120</v>
+        <v>1312</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44616</v>
+        <v>44553</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K45" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="L45" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M45" t="n">
-        <v>23889</v>
+        <v>45000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>956</v>
+        <v>1800</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44231</v>
+        <v>44582</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K46" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L46" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M46" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K47" t="n">
         <v>35000</v>
       </c>
       <c r="L47" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="M47" t="n">
-        <v>35429</v>
+        <v>35000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1417</v>
+        <v>1400</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44214</v>
+        <v>44600</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="K48" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L48" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M48" t="n">
-        <v>35000</v>
+        <v>25828</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1400</v>
+        <v>1033</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44202</v>
+        <v>44242</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="K50" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L50" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M50" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44273</v>
+        <v>44558</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K51" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L51" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M51" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44606</v>
+        <v>44223</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K52" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L52" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M52" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44224</v>
+        <v>44578</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L53" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M53" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44224</v>
+        <v>44278</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="K54" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L54" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M54" t="n">
-        <v>28909</v>
+        <v>23000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1156</v>
+        <v>920</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44279</v>
+        <v>44271</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K55" t="n">
         <v>23000</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44236</v>
+        <v>44222</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4392,13 +4392,13 @@
         <v>110</v>
       </c>
       <c r="K56" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L56" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M56" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44603</v>
+        <v>44601</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44215</v>
+        <v>44267</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K58" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L58" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M58" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K59" t="n">
         <v>25000</v>
       </c>
       <c r="L59" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M59" t="n">
-        <v>26286</v>
+        <v>25000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1051</v>
+        <v>1000</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44193</v>
+        <v>44195</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="K60" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L60" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M60" t="n">
-        <v>29542</v>
+        <v>25000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1182</v>
+        <v>1000</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44195</v>
+        <v>44568</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K61" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L61" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M61" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44196</v>
+        <v>44239</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K62" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="L62" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M62" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>400</v>
+        <v>1160</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44585</v>
+        <v>44638</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K63" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L63" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M63" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1120</v>
+        <v>800</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44582</v>
+        <v>44218</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K64" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L64" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M64" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K65" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="L65" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M65" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1280</v>
+        <v>880</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44609</v>
+        <v>44579</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K66" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L66" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M66" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44575</v>
+        <v>44616</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K67" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L67" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M67" t="n">
-        <v>28000</v>
+        <v>23889</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1120</v>
+        <v>956</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44614</v>
+        <v>44203</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K68" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L68" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M68" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44623</v>
+        <v>44203</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5321,11 +5321,11 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K69" t="n">
         <v>25000</v>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44589</v>
+        <v>44200</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K70" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L70" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M70" t="n">
-        <v>26179</v>
+        <v>32000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1047</v>
+        <v>1280</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44624</v>
+        <v>44259</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K71" t="n">
         <v>25000</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44637</v>
+        <v>44202</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K72" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L72" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M72" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44221</v>
+        <v>44235</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="K73" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L73" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M73" t="n">
-        <v>32806</v>
+        <v>29000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1312</v>
+        <v>1160</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44278</v>
+        <v>44204</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K74" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L74" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M74" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44245</v>
+        <v>44266</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="K75" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L75" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M75" t="n">
-        <v>28532</v>
+        <v>25000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1141</v>
+        <v>1000</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44552</v>
+        <v>44231</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K76" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L76" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M76" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44559</v>
+        <v>44196</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K77" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="L77" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="M77" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1120</v>
+        <v>400</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44559</v>
+        <v>44238</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="K78" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L78" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M78" t="n">
-        <v>25000</v>
+        <v>28568</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44166</v>
+        <v>44596</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6045,32 +6045,32 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K79" t="n">
-        <v>1700</v>
+        <v>28000</v>
       </c>
       <c r="L79" t="n">
-        <v>1800</v>
+        <v>28000</v>
       </c>
       <c r="M79" t="n">
-        <v>1756</v>
+        <v>28000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1756</v>
+        <v>1120</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44209</v>
+        <v>44279</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K80" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L80" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M80" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44259</v>
+        <v>44189</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K81" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L81" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M81" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44238</v>
+        <v>44609</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="K82" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L82" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M82" t="n">
-        <v>28568</v>
+        <v>25000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44581</v>
+        <v>44203</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L2" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M2" t="n">
-        <v>28625</v>
+        <v>27000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1145</v>
+        <v>1080</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44273</v>
+        <v>44203</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -569,7 +569,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44588</v>
+        <v>44208</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="K4" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L4" t="n">
         <v>28000</v>
       </c>
       <c r="M4" t="n">
-        <v>28000</v>
+        <v>27526</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44585</v>
+        <v>44266</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44193</v>
+        <v>44575</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K6" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L6" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M6" t="n">
-        <v>29542</v>
+        <v>28000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1182</v>
+        <v>1120</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44574</v>
+        <v>44225</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="K7" t="n">
         <v>28000</v>
       </c>
       <c r="L7" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M7" t="n">
-        <v>28000</v>
+        <v>29130</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1120</v>
+        <v>1165</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44574</v>
+        <v>44277</v>
       </c>
       